--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -150,9 +150,6 @@
     <t>Double OT</t>
   </si>
   <si>
-    <t>आवश्यक सूचना – हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए किसी भी प्रकार का चार्ज नहीं लगता है। हमारी बेवसाइट पर सभी कंपनियों की जाॅब बिल्कुल फ्री होती हैं। फ्राॅड लोगों से सावधान रहें। अगर आपसे हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए आपसे पैसे मांगे जाते हैं तो तुरंत हमें इस व्हाट्सएप नंबर 👉 6397325097 पर सूचित करें। इंटरव्यू के लिए बेवसाइट पर दिए गए समय से पहले ही पहुंचे। अगर आप इंटरव्यू के लिए दिए गए समय के बाद पहुंचते हैं तो इसके आप स्वयं जिम्मेदार होंगे। धन्यवाद</t>
-  </si>
-  <si>
     <t>Padget Technologies India Pvt Ltd एक भारतीय कंपनी है जो इलेक्ट्रॉनिक्स मैन्युफैक्चरिंग के क्षेत्र में गतिविधि करती है। यह कंपनी विभिन्न उपकरण और इलेक्ट्रॉनिक्स उत्पादों के निर्माण में माहिर है, जैसे कि एलसीडी टेलीविजन, वाशिंग मशीन, मोबाइल फोन, बैटरी, इलेक्ट्रॉनिक्स असेम्बली, और अन्य संबंधित उत्पाद। Padget ने अपने विस्तारक विनिर्माण क्षमता और गुणवत्ता के साथ इस क्षेत्र में महत्वपूर्ण स्थान हासिल किया है और भारत सरकार के “आत्मनिर्भर भारत” अभियान के साथ मिलकर अपने उत्पादों के निर्माण में भी भाग लेती है। Padget का मुख्यालय नोएडा, उत्तर प्रदेश, में स्थित है।</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>Home Job13 (INDIA) PVT. LTD.</t>
+  </si>
+  <si>
+    <t>आवश्यक सूचना – हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए किसी भी प्रकार का चार्ज नहीं लगता है। हमारी बेवसाइट पर सभी कंपनियों की जाॅब बिल्कुल फ्री होती हैं। फ्राॅड लोगों से सावधान रहें। अगर आपसे हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए आपसे पैसे मांगे जाते हैं तो तुरंत हमें इस व्हाट्सएप नंबर 👉 +91-9***###पर सूचित करें। इंटरव्यू के लिए बेवसाइट पर दिए गए समय से पहले ही पहुंचे। अगर आप इंटरव्यू के लिए दिए गए समय के बाद पहुंचते हैं तो इसके आप स्वयं जिम्मेदार होंगे। धन्यवाद</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:X14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
         <v>41</v>
@@ -701,16 +701,16 @@
         <v>43</v>
       </c>
       <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -760,7 +760,7 @@
         <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
         <v>41</v>
@@ -772,16 +772,16 @@
         <v>43</v>
       </c>
       <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
         <v>44</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>45</v>
       </c>
-      <c r="V3" t="s">
-        <v>46</v>
-      </c>
       <c r="W3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4" t="s">
         <v>41</v>
@@ -843,16 +843,16 @@
         <v>43</v>
       </c>
       <c r="T4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>45</v>
       </c>
-      <c r="V4" t="s">
-        <v>46</v>
-      </c>
       <c r="W4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -902,7 +902,7 @@
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
         <v>41</v>
@@ -914,16 +914,16 @@
         <v>43</v>
       </c>
       <c r="T5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" t="s">
         <v>44</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>45</v>
       </c>
-      <c r="V5" t="s">
-        <v>46</v>
-      </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -973,7 +973,7 @@
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
         <v>41</v>
@@ -985,16 +985,16 @@
         <v>43</v>
       </c>
       <c r="T6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" t="s">
         <v>44</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>45</v>
       </c>
-      <c r="V6" t="s">
-        <v>46</v>
-      </c>
       <c r="W6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
         <v>41</v>
@@ -1056,16 +1056,16 @@
         <v>43</v>
       </c>
       <c r="T7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" t="s">
         <v>44</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>45</v>
       </c>
-      <c r="V7" t="s">
-        <v>46</v>
-      </c>
       <c r="W7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="s">
         <v>41</v>
@@ -1127,16 +1127,16 @@
         <v>43</v>
       </c>
       <c r="T8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" t="s">
         <v>44</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>45</v>
       </c>
-      <c r="V8" t="s">
-        <v>46</v>
-      </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1186,7 +1186,7 @@
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
         <v>41</v>
@@ -1198,16 +1198,16 @@
         <v>43</v>
       </c>
       <c r="T9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" t="s">
         <v>44</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>45</v>
       </c>
-      <c r="V9" t="s">
-        <v>46</v>
-      </c>
       <c r="W9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1257,7 +1257,7 @@
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
         <v>41</v>
@@ -1269,16 +1269,16 @@
         <v>43</v>
       </c>
       <c r="T10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" t="s">
         <v>44</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>45</v>
       </c>
-      <c r="V10" t="s">
-        <v>46</v>
-      </c>
       <c r="W10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="s">
         <v>41</v>
@@ -1340,16 +1340,16 @@
         <v>43</v>
       </c>
       <c r="T11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U11" t="s">
         <v>44</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>45</v>
       </c>
-      <c r="V11" t="s">
-        <v>46</v>
-      </c>
       <c r="W11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q12" t="s">
         <v>41</v>
@@ -1411,16 +1411,16 @@
         <v>43</v>
       </c>
       <c r="T12" t="s">
+        <v>61</v>
+      </c>
+      <c r="U12" t="s">
         <v>44</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>45</v>
       </c>
-      <c r="V12" t="s">
-        <v>46</v>
-      </c>
       <c r="W12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13" t="s">
         <v>41</v>
@@ -1482,16 +1482,16 @@
         <v>43</v>
       </c>
       <c r="T13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U13" t="s">
         <v>44</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>45</v>
       </c>
-      <c r="V13" t="s">
-        <v>46</v>
-      </c>
       <c r="W13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q14" t="s">
         <v>41</v>
@@ -1550,16 +1550,16 @@
         <v>43</v>
       </c>
       <c r="T14" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" t="s">
         <v>44</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>45</v>
       </c>
-      <c r="V14" t="s">
-        <v>46</v>
-      </c>
       <c r="W14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="62">
-  <si>
-    <t>Moreinfo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="75">
   <si>
     <t>Gr. Noida</t>
   </si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>Paragraph5</t>
-  </si>
-  <si>
-    <t>Qualification: 12th and ITI</t>
   </si>
   <si>
     <t>Salary: 12000(12th Pass) 13000(ITI)</t>
@@ -163,9 +157,6 @@
 यहाँ पर दी जाने वाली सभी भर्ती निःशुल्क होती है। यहाँ पर सभी प्रकार के JOB FREE और Real होती हैं | हम इस बेवसाइट पर पिछले तीन सालों से निरंतर काम कर रहे हैं। अब तक  कई हजार युवाओं को हमारी बेवसाइट की मदद से जाॅब मिली है । हमारी बेवसाइट पर डाली गई सभी जाॅब को पहले अच्छी तरह से वेरीफाई करते हैं उसके बाद ही बेवसाइट पर अपडेट करते हैं। हम अपनी बेवसाइट पर प्रतिदिन नोएडा, गुड़गांव, हरियाणा, राजस्थान, गुजरात और अन्य कई शहरों की जाॅब की अपडेट डालते हैं। जब भी आपको जाॅब की जरूरत है हमारी बेवसाइट पर आकर अवश्य विजिट करें। कामना करते हैं कि आपको जाॅब अवश्य मिले। धन्यवाद</t>
   </si>
   <si>
-    <t>Home Job1 (INDIA) PVT. LTD.</t>
-  </si>
-  <si>
     <t>Home Job2 (INDIA) PVT. LTD.</t>
   </si>
   <si>
@@ -203,6 +194,54 @@
   </si>
   <si>
     <t>आवश्यक सूचना – हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए किसी भी प्रकार का चार्ज नहीं लगता है। हमारी बेवसाइट पर सभी कंपनियों की जाॅब बिल्कुल फ्री होती हैं। फ्राॅड लोगों से सावधान रहें। अगर आपसे हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए आपसे पैसे मांगे जाते हैं तो तुरंत हमें इस व्हाट्सएप नंबर 👉 +91-9***###पर सूचित करें। इंटरव्यू के लिए बेवसाइट पर दिए गए समय से पहले ही पहुंचे। अगर आप इंटरव्यू के लिए दिए गए समय के बाद पहुंचते हैं तो इसके आप स्वयं जिम्मेदार होंगे। धन्यवाद</t>
+  </si>
+  <si>
+    <t>डिक्सन टेक्नोलॉजीज इंडिया लिमिटेड</t>
+  </si>
+  <si>
+    <t>प्लॉट नंबर 6 और 7, सेक्टर 90 नोएडा</t>
+  </si>
+  <si>
+    <t>आवश्यक दस्तावेज़: 2 फोटो, आधार कार्ड, 10वीं, 12वीं, स्नातक प्रमाणपत्र, बैंक खाता विवरण, दूसरी खुराक की वैक्सीन प्रमाणपत्र; सभी दस्तावेज़ की फोटोकॉपी आवश्यक हैं।</t>
+  </si>
+  <si>
+    <t>साक्षात्कार की तारीख: 04/04/2025</t>
+  </si>
+  <si>
+    <t>समय: सुबह 07:30 बजे से लेकर 11:30 बजे तक</t>
+  </si>
+  <si>
+    <t>साक्षात्कार पता: डिक्सन टेक्नोलॉजीज इंडिया लिमिटेड, प्लॉट नंबर 6 और 7, सेक्टर 90, नोएडा</t>
+  </si>
+  <si>
+    <t>Contact No: 8057693276, 7835000316 and 7840002568</t>
+  </si>
+  <si>
+    <t>महत्वपूर्ण सूचना: उम्मीदवारों को दूसरी खुराक की वैक्सीन प्राप्त हो चुकी होनी चाहिए और वैक्सीनेशन प्रमाणपत्र लाना आवश्यक है।</t>
+  </si>
+  <si>
+    <t>Department – Production, SMT</t>
+  </si>
+  <si>
+    <t>Not in use</t>
+  </si>
+  <si>
+    <t>Salary for Adhar holder, 10वीं, 12वीं, स्नातक: ₹10,818</t>
+  </si>
+  <si>
+    <t>Salary for आईटीआई: ₹11,713</t>
+  </si>
+  <si>
+    <t>Salary for डिप्लोमा: ₹13,120</t>
+  </si>
+  <si>
+    <t>Boyes only vacancy और खड़े होकर काम करना है|</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ: प्रतिमाह उपस्थिति पुरस्कार: ₹1,500, प्रतिमाह पंचिंग पुरस्कार: ₹550, निश्चितता पुरस्कार (3 महीने): ₹3,000, ओवरटाइम सिंगल, Night Award – 500 ( 15 night), लंच/डिनर: 16₹ par Launch, कंपनी में बस की सुविधा फ्री है|</t>
+  </si>
+  <si>
+    <t>पहले आओ| पहले पाओ||</t>
   </si>
 </sst>
 </file>
@@ -557,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,76 +609,76 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
-      </c>
-      <c r="X1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -647,70 +686,58 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -718,70 +745,70 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>41</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
         <v>42</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="T3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>45</v>
-      </c>
-      <c r="W3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -789,70 +816,70 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>38</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>41</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s">
         <v>42</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="T4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>45</v>
-      </c>
-      <c r="W4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -860,70 +887,70 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>36</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>37</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
         <v>39</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>41</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
         <v>42</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>43</v>
       </c>
-      <c r="T5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>45</v>
-      </c>
-      <c r="W5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -931,70 +958,70 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>37</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>38</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
         <v>39</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>40</v>
       </c>
-      <c r="P6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>41</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" t="s">
         <v>42</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>43</v>
       </c>
-      <c r="T6" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>45</v>
-      </c>
-      <c r="W6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1002,70 +1029,70 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>38</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
         <v>39</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>40</v>
       </c>
-      <c r="P7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>41</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
         <v>42</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>43</v>
       </c>
-      <c r="T7" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>45</v>
-      </c>
-      <c r="W7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1073,70 +1100,70 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>36</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>37</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>38</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="s">
         <v>39</v>
       </c>
-      <c r="O8" t="s">
+      <c r="R8" t="s">
         <v>40</v>
       </c>
-      <c r="P8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>41</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
         <v>42</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>43</v>
       </c>
-      <c r="T8" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>45</v>
-      </c>
-      <c r="W8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1144,70 +1171,70 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>36</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>37</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>38</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" t="s">
         <v>39</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" t="s">
         <v>40</v>
       </c>
-      <c r="P9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>41</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
         <v>42</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>43</v>
       </c>
-      <c r="T9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>45</v>
-      </c>
-      <c r="W9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1215,70 +1242,70 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>35</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>38</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" t="s">
         <v>39</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R10" t="s">
         <v>40</v>
       </c>
-      <c r="P10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>41</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
         <v>42</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>43</v>
       </c>
-      <c r="T10" t="s">
-        <v>61</v>
-      </c>
-      <c r="U10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>45</v>
-      </c>
-      <c r="W10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1286,70 +1313,70 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>33</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>34</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>35</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>36</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>37</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>38</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" t="s">
         <v>39</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R11" t="s">
         <v>40</v>
       </c>
-      <c r="P11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>41</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
         <v>42</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>43</v>
       </c>
-      <c r="T11" t="s">
-        <v>61</v>
-      </c>
-      <c r="U11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>45</v>
-      </c>
-      <c r="W11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1357,70 +1384,70 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="U12" t="s">
         <v>42</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>43</v>
       </c>
-      <c r="T12" t="s">
-        <v>61</v>
-      </c>
-      <c r="U12" t="s">
-        <v>44</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>45</v>
-      </c>
-      <c r="W12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1428,70 +1455,70 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>32</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>34</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>35</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>36</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>37</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>38</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" t="s">
         <v>39</v>
       </c>
-      <c r="O13" t="s">
+      <c r="R13" t="s">
         <v>40</v>
       </c>
-      <c r="P13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>41</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" t="s">
         <v>42</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>43</v>
       </c>
-      <c r="T13" t="s">
-        <v>61</v>
-      </c>
-      <c r="U13" t="s">
-        <v>44</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>45</v>
-      </c>
-      <c r="W13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1499,67 +1526,67 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>32</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>34</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>36</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>37</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>38</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="R14" t="s">
         <v>40</v>
       </c>
-      <c r="P14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>41</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
         <v>42</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>43</v>
       </c>
-      <c r="T14" t="s">
-        <v>61</v>
-      </c>
-      <c r="U14" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>45</v>
-      </c>
-      <c r="W14" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="76">
   <si>
     <t>Gr. Noida</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>पहले आओ| पहले पाओ||</t>
+  </si>
+  <si>
+    <t>आवश्यक सूचना – हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए किसी भी प्रकार का चार्ज नहीं लगता है। हमारी बेवसाइट पर सभी कंपनियों की जाॅब बिल्कुल फ्री होती हैं। फ्राॅड लोगों से सावधान रहें। अगर आपसे हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए आपसे पैसे मांगे जाते हैं तो तुरंत हमें इस व्हाट्सएप नंबर 👉 +91-9818732237 पर सूचित करें। इंटरव्यू के लिए बेवसाइट पर दिए गए समय से पहले ही पहुंचे। अगर आप इंटरव्यू के लिए दिए गए समय के बाद पहुंचते हैं तो इसके आप स्वयं जिम्मेदार होंगे। धन्यवाद</t>
   </si>
 </sst>
 </file>
@@ -596,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +740,7 @@
         <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="71">
   <si>
     <t>Gr. Noida</t>
   </si>
@@ -144,19 +144,9 @@
     <t>Double OT</t>
   </si>
   <si>
-    <t>Padget Technologies India Pvt Ltd एक भारतीय कंपनी है जो इलेक्ट्रॉनिक्स मैन्युफैक्चरिंग के क्षेत्र में गतिविधि करती है। यह कंपनी विभिन्न उपकरण और इलेक्ट्रॉनिक्स उत्पादों के निर्माण में माहिर है, जैसे कि एलसीडी टेलीविजन, वाशिंग मशीन, मोबाइल फोन, बैटरी, इलेक्ट्रॉनिक्स असेम्बली, और अन्य संबंधित उत्पाद। Padget ने अपने विस्तारक विनिर्माण क्षमता और गुणवत्ता के साथ इस क्षेत्र में महत्वपूर्ण स्थान हासिल किया है और भारत सरकार के “आत्मनिर्भर भारत” अभियान के साथ मिलकर अपने उत्पादों के निर्माण में भी भाग लेती है। Padget का मुख्यालय नोएडा, उत्तर प्रदेश, में स्थित है।</t>
-  </si>
-  <si>
-    <t>यह कंपनी 10वीं, 12वीं , आईटीआई, डिप्लोमा, बी-टेक, ग्रेजुएट पास सभी कैंडिडेट्स को अपनी कंपनी में जॉब करने की अनुमति देती है। इस कम्पनी में प्रतिदिन लड़कों की भर्तियां चलती रहती हैं। नोएडा में इसके लगभग 4-5 प्लांट स्थित हैं। नोएडा के अंदर यह सबसे बड़ी कंपनियों में से एक है।</t>
-  </si>
-  <si>
     <t>Canteen Free</t>
   </si>
   <si>
-    <t>Important Notice
-यहाँ पर दी जाने वाली सभी भर्ती निःशुल्क होती है। यहाँ पर सभी प्रकार के JOB FREE और Real होती हैं | हम इस बेवसाइट पर पिछले तीन सालों से निरंतर काम कर रहे हैं। अब तक  कई हजार युवाओं को हमारी बेवसाइट की मदद से जाॅब मिली है । हमारी बेवसाइट पर डाली गई सभी जाॅब को पहले अच्छी तरह से वेरीफाई करते हैं उसके बाद ही बेवसाइट पर अपडेट करते हैं। हम अपनी बेवसाइट पर प्रतिदिन नोएडा, गुड़गांव, हरियाणा, राजस्थान, गुजरात और अन्य कई शहरों की जाॅब की अपडेट डालते हैं। जब भी आपको जाॅब की जरूरत है हमारी बेवसाइट पर आकर अवश्य विजिट करें। कामना करते हैं कि आपको जाॅब अवश्य मिले। धन्यवाद</t>
-  </si>
-  <si>
     <t>Home Job2 (INDIA) PVT. LTD.</t>
   </si>
   <si>
@@ -193,9 +183,6 @@
     <t>Home Job13 (INDIA) PVT. LTD.</t>
   </si>
   <si>
-    <t>आवश्यक सूचना – हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए किसी भी प्रकार का चार्ज नहीं लगता है। हमारी बेवसाइट पर सभी कंपनियों की जाॅब बिल्कुल फ्री होती हैं। फ्राॅड लोगों से सावधान रहें। अगर आपसे हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए आपसे पैसे मांगे जाते हैं तो तुरंत हमें इस व्हाट्सएप नंबर 👉 +91-9***###पर सूचित करें। इंटरव्यू के लिए बेवसाइट पर दिए गए समय से पहले ही पहुंचे। अगर आप इंटरव्यू के लिए दिए गए समय के बाद पहुंचते हैं तो इसके आप स्वयं जिम्मेदार होंगे। धन्यवाद</t>
-  </si>
-  <si>
     <t>डिक्सन टेक्नोलॉजीज इंडिया लिमिटेड</t>
   </si>
   <si>
@@ -241,10 +228,7 @@
     <t>अतिरिक्त लाभ: प्रतिमाह उपस्थिति पुरस्कार: ₹1,500, प्रतिमाह पंचिंग पुरस्कार: ₹550, निश्चितता पुरस्कार (3 महीने): ₹3,000, ओवरटाइम सिंगल, Night Award – 500 ( 15 night), लंच/डिनर: 16₹ par Launch, कंपनी में बस की सुविधा फ्री है|</t>
   </si>
   <si>
-    <t>पहले आओ| पहले पाओ||</t>
-  </si>
-  <si>
-    <t>आवश्यक सूचना – हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए किसी भी प्रकार का चार्ज नहीं लगता है। हमारी बेवसाइट पर सभी कंपनियों की जाॅब बिल्कुल फ्री होती हैं। फ्राॅड लोगों से सावधान रहें। अगर आपसे हमारी बेवसाइट पर डाली गई किसी भी जाॅब के लिए आपसे पैसे मांगे जाते हैं तो तुरंत हमें इस व्हाट्सएप नंबर 👉 +91-9818732237 पर सूचित करें। इंटरव्यू के लिए बेवसाइट पर दिए गए समय से पहले ही पहुंचे। अगर आप इंटरव्यू के लिए दिए गए समय के बाद पहुंचते हैं तो इसके आप स्वयं जिम्मेदार होंगे। धन्यवाद</t>
+    <t>पहले आओ | पहले पाओ ||</t>
   </si>
 </sst>
 </file>
@@ -600,7 +584,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,58 +673,55 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>70</v>
-      </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -748,16 +729,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -790,7 +771,7 @@
         <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
@@ -800,18 +781,6 @@
       </c>
       <c r="S3" t="s">
         <v>41</v>
-      </c>
-      <c r="T3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -819,16 +788,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -861,7 +830,7 @@
         <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
@@ -871,18 +840,6 @@
       </c>
       <c r="S4" t="s">
         <v>41</v>
-      </c>
-      <c r="T4" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -890,16 +847,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -932,7 +889,7 @@
         <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="s">
         <v>39</v>
@@ -942,18 +899,6 @@
       </c>
       <c r="S5" t="s">
         <v>41</v>
-      </c>
-      <c r="T5" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -961,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -1003,7 +948,7 @@
         <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
         <v>39</v>
@@ -1013,18 +958,6 @@
       </c>
       <c r="S6" t="s">
         <v>41</v>
-      </c>
-      <c r="T6" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1032,16 +965,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1074,7 +1007,7 @@
         <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="s">
         <v>39</v>
@@ -1084,18 +1017,6 @@
       </c>
       <c r="S7" t="s">
         <v>41</v>
-      </c>
-      <c r="T7" t="s">
-        <v>58</v>
-      </c>
-      <c r="U7" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1103,16 +1024,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -1145,7 +1066,7 @@
         <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q8" t="s">
         <v>39</v>
@@ -1155,18 +1076,6 @@
       </c>
       <c r="S8" t="s">
         <v>41</v>
-      </c>
-      <c r="T8" t="s">
-        <v>58</v>
-      </c>
-      <c r="U8" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1174,16 +1083,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1216,7 +1125,7 @@
         <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="s">
         <v>39</v>
@@ -1226,18 +1135,6 @@
       </c>
       <c r="S9" t="s">
         <v>41</v>
-      </c>
-      <c r="T9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1245,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1287,7 +1184,7 @@
         <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
         <v>39</v>
@@ -1297,18 +1194,6 @@
       </c>
       <c r="S10" t="s">
         <v>41</v>
-      </c>
-      <c r="T10" t="s">
-        <v>58</v>
-      </c>
-      <c r="U10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" t="s">
-        <v>43</v>
-      </c>
-      <c r="W10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1316,16 +1201,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
@@ -1358,7 +1243,7 @@
         <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q11" t="s">
         <v>39</v>
@@ -1368,18 +1253,6 @@
       </c>
       <c r="S11" t="s">
         <v>41</v>
-      </c>
-      <c r="T11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" t="s">
-        <v>43</v>
-      </c>
-      <c r="W11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1387,16 +1260,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
@@ -1429,7 +1302,7 @@
         <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q12" t="s">
         <v>39</v>
@@ -1439,18 +1312,6 @@
       </c>
       <c r="S12" t="s">
         <v>41</v>
-      </c>
-      <c r="T12" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" t="s">
-        <v>42</v>
-      </c>
-      <c r="V12" t="s">
-        <v>43</v>
-      </c>
-      <c r="W12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1458,16 +1319,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -1500,7 +1361,7 @@
         <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q13" t="s">
         <v>39</v>
@@ -1510,18 +1371,6 @@
       </c>
       <c r="S13" t="s">
         <v>41</v>
-      </c>
-      <c r="T13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U13" t="s">
-        <v>42</v>
-      </c>
-      <c r="V13" t="s">
-        <v>43</v>
-      </c>
-      <c r="W13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1529,13 +1378,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
@@ -1568,7 +1417,7 @@
         <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q14" t="s">
         <v>39</v>
@@ -1578,18 +1427,6 @@
       </c>
       <c r="S14" t="s">
         <v>41</v>
-      </c>
-      <c r="T14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W14" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="80">
   <si>
     <t>Gr. Noida</t>
   </si>
   <si>
-    <t>Gurugaon</t>
-  </si>
-  <si>
     <t>Faridabad</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Canteen Free</t>
   </si>
   <si>
-    <t>Home Job2 (INDIA) PVT. LTD.</t>
-  </si>
-  <si>
     <t>Home Job3 (INDIA) PVT. LTD.</t>
   </si>
   <si>
@@ -229,6 +223,39 @@
   </si>
   <si>
     <t>पहले आओ | पहले पाओ ||</t>
+  </si>
+  <si>
+    <t>Itel MNC Company</t>
+  </si>
+  <si>
+    <t>Noida Sector 63</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता :- ARK Workforce Plot Number – 246 Block – G Sector-63 Noida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">इंटरव्यू टाइम :- 11 बजे तक </t>
+  </si>
+  <si>
+    <t>इंटरव्यू की तारीख: 04/04/2025</t>
+  </si>
+  <si>
+    <t>Contact person: Ankit -8477873797, Vishan – 9315473717</t>
+  </si>
+  <si>
+    <t>Qualification:-10th 12th graduate ITI or Diploma</t>
+  </si>
+  <si>
+    <t>Salary: 11000 Rs in hand</t>
+  </si>
+  <si>
+    <t>Total Vacancy :- 100(Only Boys)</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ: attendance award: 1000 Rs, Night Alowance 50  Rs Per Night, Overtime: 100 Rs Per Hour, Lunch_Dinner_Free</t>
+  </si>
+  <si>
+    <t>NOTE-: एक साल के बाद भारत सरकार के द्वारा APPPRENTICESHIP का CERTIFICATE मिलता है जिसको कही भी आप एक्सपेरिएंस सर्टिफिकेट की तरह उपयोग कर सकते है.</t>
   </si>
 </sst>
 </file>
@@ -583,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,76 +623,76 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -673,55 +700,55 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>68</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -729,58 +756,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -788,58 +800,58 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>40</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -847,58 +859,58 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
         <v>38</v>
       </c>
-      <c r="P5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>39</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>40</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -906,58 +918,58 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>34</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>35</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
         <v>38</v>
       </c>
-      <c r="P6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>39</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>40</v>
-      </c>
-      <c r="S6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -965,58 +977,58 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>36</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>37</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>39</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>40</v>
-      </c>
-      <c r="S7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1024,58 +1036,58 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>35</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>37</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
         <v>38</v>
       </c>
-      <c r="P8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>39</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>40</v>
-      </c>
-      <c r="S8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1083,58 +1095,58 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>31</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>34</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>36</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>37</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
         <v>38</v>
       </c>
-      <c r="P9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>39</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>40</v>
-      </c>
-      <c r="S9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1142,58 +1154,58 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>30</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>32</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>33</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>34</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>37</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="P10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>39</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>40</v>
-      </c>
-      <c r="S10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1201,58 +1213,58 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>32</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>33</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>34</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>35</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>37</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
         <v>38</v>
       </c>
-      <c r="P11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>39</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>40</v>
-      </c>
-      <c r="S11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1260,58 +1272,58 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>30</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>31</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>32</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>33</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>34</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>35</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>36</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>37</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
         <v>38</v>
       </c>
-      <c r="P12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>39</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>40</v>
-      </c>
-      <c r="S12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1319,58 +1331,58 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>30</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>31</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>32</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>33</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>34</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>35</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>36</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>37</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" t="s">
         <v>38</v>
       </c>
-      <c r="P13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>39</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>40</v>
-      </c>
-      <c r="S13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1378,55 +1390,55 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>31</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>32</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>33</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>35</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>36</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>37</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>39</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>40</v>
-      </c>
-      <c r="S14" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -581,7 +581,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>S.No</t>
   </si>
@@ -226,6 +226,66 @@
   </si>
   <si>
     <t>Note: Bulandshahr Noida , Aligarh Candidate Not allowed. Minimum 200km distance from Noida.</t>
+  </si>
+  <si>
+    <t>New Holland</t>
+  </si>
+  <si>
+    <t>Greater Noida</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता : जिला सेवायोजन कार्यालय कलेक्ट्रेट परिसर मैनपुरी</t>
+  </si>
+  <si>
+    <t>Date: 17 April 2025</t>
+  </si>
+  <si>
+    <t>Time: 10:00 AM</t>
+  </si>
+  <si>
+    <t>Type of Job: Free of Cost Job (Apprentice)</t>
+  </si>
+  <si>
+    <t>Experience Required: Freshers</t>
+  </si>
+  <si>
+    <t>Vacancies Available: 100 (Boys )</t>
+  </si>
+  <si>
+    <t>Salary For ITI and Polytechnic Diploma Candidates: ₹14,370/- per month</t>
+  </si>
+  <si>
+    <t>Additional Benefits:  Free Canteen + Mediclaim of ₹2 Lakh</t>
+  </si>
+  <si>
+    <t>Eligibility Year: ITI Passouts of 2022, 2023, 2024</t>
+  </si>
+  <si>
+    <t>For Male Candidates (Trade-Specific): Fitter, Turner, Painter, Machinist, Motor Mechanic Vehicle (MMV), Tractor Mechanic, Diesel Mechanic</t>
+  </si>
+  <si>
+    <t>Diploma in Machanical, Electrical and Automobile</t>
+  </si>
+  <si>
+    <t>Age Limit: 18 to 26 years, Height: At least 5 feet 5 inches, Weight: Above 55 kg</t>
+  </si>
+  <si>
+    <t>Documents Required: Resume, 10th Marksheet, ITI/Diploma Marksheet, Passport Size Photos, Aadhaar Card, Bank Account Details, Vaccination Certificate (Photocopy)</t>
+  </si>
+  <si>
+    <t>Selection Process: Written Test and Personal Interview</t>
+  </si>
+  <si>
+    <t>Important Instructions: 1. Only candidates from Uttar Pradesh are eligible to participate in this interview. 2. Do not contact for unnecessary queries; only candidates meeting the specified qualifications will be considered.</t>
+  </si>
+  <si>
+    <t>Company Overview: New Holland Tractor is a globally recognized agricultural machinery and equipment manufacturer, known for its innovative technologies and sustainable solutions. As part of the CNH Industrial group, the company has been a trusted name in the industry, providing top-quality  tractors and farming tools that enhance productivity for farmers worldwide.</t>
+  </si>
+  <si>
+    <t>The company’s manufacturing facility in Greater Noida is equipped with state-of-the-art technology and adheres to the highest quality standards. Known for its commitment to employee development, New Holland offers excellent training opportunities and benefits to its workforce, ensuring both personal and professional growth</t>
+  </si>
+  <si>
+    <t>For aspiring candidates, joining New Holland means being part of a world-class team dedicated to transforming agriculture through innovation. This apprentice opportunity provides a solid platform to gain hands-on experience and build a successful career in the manufacturing industry.</t>
   </si>
 </sst>
 </file>
@@ -578,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -682,43 +742,58 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -726,10 +801,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -738,31 +813,43 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -770,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -782,54 +869,98 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>55</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>56</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>57</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M5" t="s">
         <v>60</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N5" t="s">
         <v>61</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O5" t="s">
         <v>62</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P5" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q5" t="s">
         <v>64</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R5" t="s">
         <v>65</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S5" t="s">
         <v>66</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T5" t="s">
         <v>67</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U5" t="s">
         <v>68</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V5" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
   <si>
     <t>S.No</t>
   </si>
@@ -286,6 +286,66 @@
   </si>
   <si>
     <t>For aspiring candidates, joining New Holland means being part of a world-class team dedicated to transforming agriculture through innovation. This apprentice opportunity provides a solid platform to gain hands-on experience and build a successful career in the manufacturing industry.</t>
+  </si>
+  <si>
+    <t>Oppo Mobile Company Apprentice Job</t>
+  </si>
+  <si>
+    <t>Arnav Infosoft Pvt Ltd के माध्यम से OPPO Mobile Company, Kasna, Greater Noida में भर्ती</t>
+  </si>
+  <si>
+    <t>केवल लड़कों के लिए (ONLY BOYS) NAPS Apprentice के तहत भर्ती (केवल फ्रेशर उम्मीदवारों के लिए), दोनों वैक्सीनेशन डोज अनिवार्य (सर्टिफिकेट साथ लाना होगा)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">इंटरव्यू डेट: 7 April 2025 </t>
+  </si>
+  <si>
+    <t>समय: सुबह 09:00 बजे</t>
+  </si>
+  <si>
+    <t>स्थान: OPPO MOBILE INDIA PVT LTD COMPANY, Kasna, Greater Noida</t>
+  </si>
+  <si>
+    <t>यह भर्ती पूर्णतः निःशुल्क है। यदि कोई पैसे मांगता है, तो तुरंत इस व्हाट्सएप नंबर पर सूचना दें: 8938838355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">वेतन और सुविधाएं: 12th and ITI </t>
+  </si>
+  <si>
+    <t>सैलरी: ₹12,000/- प्रति माह, ओवरटाइम: डबल भुगतान, अटेंडेंस अवॉर्ड: ₹2000/-, नाइट अलाउंस: ₹50/- प्रति नाइट, बस और कैंटीन: निःशुल्क</t>
+  </si>
+  <si>
+    <t>वेतन और सुविधाएं: Diploma/B.tech Machanical/Electrical</t>
+  </si>
+  <si>
+    <t>Salary:-23k to 25k/-, Overtime -140, Attandance award -2000/-, Night allowance -50/night, Bus Canteen Free</t>
+  </si>
+  <si>
+    <t>योग्यता (Eligibility): शैक्षिक योग्यता: 12वीं पास या ITI, Diploma ya Btech Machanical/ Electrical</t>
+  </si>
+  <si>
+    <t>अंग्रेजी पढ़ना और लिखना आना चाहिए।</t>
+  </si>
+  <si>
+    <t>आवश्यक दस्तावेज़ (Original + Photocopy):</t>
+  </si>
+  <si>
+    <t>रिज़्यूमे (Resume), शैक्षिक प्रमाणपत्र (10वीं, 12वीं, ITI, Diploma ya Btech मार्कशीट) Any A, आधार कार्ड (Aadhar Card), पैन कार्ड (PAN Card), बैंक पासबुक (Bank Passbook), वैक्सीनेशन सर्टिफिकेट (Vaccination Certificate)</t>
+  </si>
+  <si>
+    <t>सभी डॉक्युमेंट्स पर उम्मीदवार के हस्ताक्षर होने चाहिए। बैंक अकाउंट की डिटेल्स साथ लाना अनिवार्य है।</t>
+  </si>
+  <si>
+    <t>संपर्क करें (For More Details): 9548211497 | 9457284151 | 9911997559</t>
+  </si>
+  <si>
+    <t>ध्यान दें: यह जॉब Apprentice (प्रशिक्षु) के लिए है, इसलिए इंटरव्यू कंपनी के गेट पर ही होगा।</t>
+  </si>
+  <si>
+    <t>ओप्पो कंपनी के गेट पर बहुत सारे वेंडर घूमते हैं। क्योंकि ओप्पो के अंदर भी कई कंपनी हैं। जिसके लिए ओप्पो के गेट से ही भर्ती होती है। आपको केवल ऊपर दिए गए नंबर पर कॉल करके ही अपने डाक्यूमेंट्स देने हैं। और Arnav Infosoft के सुपरवाइजर को ही अपने डाक्यूमेंट्स दें</t>
+  </si>
+  <si>
+    <t>इंटरव्यू की तारीख: 07/04/2025</t>
   </si>
 </sst>
 </file>
@@ -638,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -742,58 +802,58 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="U2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="V2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="W2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -801,10 +861,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -813,43 +873,31 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -857,10 +905,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -869,31 +917,58 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -901,10 +976,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -913,54 +988,154 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J7" t="s">
         <v>57</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M7" t="s">
         <v>60</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N7" t="s">
         <v>61</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O7" t="s">
         <v>62</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P7" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q7" t="s">
         <v>64</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R7" t="s">
         <v>65</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S7" t="s">
         <v>66</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T7" t="s">
         <v>67</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U7" t="s">
         <v>68</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V7" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>S.No</t>
   </si>
@@ -346,6 +346,54 @@
   </si>
   <si>
     <t>इंटरव्यू की तारीख: 07/04/2025</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता :- डिक्सन टेक्नोलॉजीज इंडिया लिमिटेड‌ B14, Sector 85</t>
+  </si>
+  <si>
+    <t>प्लॉट नंबर B-14 सेक्टर 85 नोएडा</t>
+  </si>
+  <si>
+    <t>इंटरव्यू की तारीख: 08/04/2025</t>
+  </si>
+  <si>
+    <t>समय: सुबह 09:30 बजे से लेकर 12:30 बजे तक</t>
+  </si>
+  <si>
+    <t>संपर्क: Idrish – 9560478370, Suraj Verma – 9793816052, Sumit Rajput – 9560478370</t>
+  </si>
+  <si>
+    <t>नोट: उम्मीदवार जिन्होंने किसी भी कंपनी में काम किया है, कृपया अपने पीएफ और ईएसआईसी नंबर लाएं!</t>
+  </si>
+  <si>
+    <t>Department: Production, SMT</t>
+  </si>
+  <si>
+    <t>योग्यता: 10th, 12th, Graduation,ITI, Diploma, इनमें से कोई भी एक योग्यता हो तो भी ज्वाइनिंग हो जाएगी</t>
+  </si>
+  <si>
+    <t>आवश्यक दस्तावेज़: आधार कार्ड,    12th, ITI, ya Graduation  प्रमाणपत्र, बैंक खाता विवरण, दूसरी खुराक की वैक्सीन प्रमाणपत्र; सभी दस्तावेज़ की फोटोकॉपी आवश्यक हैं।</t>
+  </si>
+  <si>
+    <t>वेतन: 11198, 12313, 13770 (Depends on Your performance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dixon Technologies के बारे में </t>
+  </si>
+  <si>
+    <t>Dixon Technologies India Pvt Ltd एक भारतीय कंपनी है जो इलेक्ट्रॉनिक्स मैन्युफैक्चरिंग के क्षेत्र में गतिविधि करती है। यह कंपनी विभिन्न उपकरण और इलेक्ट्रॉनिक्स उत्पादों के निर्माण में माहिर है, जैसे कि SetupBox, Wifi Router, Mobile Phone, इलेक्ट्रॉनिक्स असेम्बली, और अन्य संबंधित उत्पाद। Dixon ने अपने विस्तारक विनिर्माण क्षमता और गुणवत्ता के साथ इस क्षेत्र में महत्वपूर्ण स्थान हासिल किया है और भारत सरकार के “आत्मनिर्भर भारत” अभियान के साथ मिलकर अपने उत्पादों के निर्माण में भी भाग लेती है। Dixon का मुख्यालय नोएडा, उत्तर प्रदेश, में स्थित है।</t>
+  </si>
+  <si>
+    <t>यह कंपनी आईटीआई, डिप्लोमा,  पास सभी कैंडिडेट्स को अपनी कंपनी में जॉब करने की अनुमति देती है। इस कम्पनी में प्रतिदिन लड़कों की भर्तियां चलती रहती हैं। नोएडा में इसके लगभग 4-5 प्लांट स्थित हैं। नोएडा के अंदर यह सबसे बड़ी कंपनियों में से एक है।</t>
+  </si>
+  <si>
+    <t>नाईट पुरस्कार: ₹1500,</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ: प्रतिमाह उपस्थिति पुरस्कार: ₹2,000,  बस : नहीं है, न्यूनतम दूरी: 200 किमी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ओवरटाइम सिंगल, लंच/डिनर: फ्री, </t>
   </si>
 </sst>
 </file>
@@ -698,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -802,58 +850,52 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V2" t="s">
-        <v>107</v>
-      </c>
-      <c r="W2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -861,10 +903,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -873,31 +915,58 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -905,10 +974,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -917,58 +986,31 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" t="s">
-        <v>86</v>
-      </c>
-      <c r="U4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V4" t="s">
-        <v>88</v>
-      </c>
-      <c r="W4" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -976,10 +1018,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -988,43 +1030,58 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R5" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" t="s">
+        <v>87</v>
+      </c>
+      <c r="V5" t="s">
+        <v>88</v>
+      </c>
+      <c r="W5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1032,10 +1089,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1044,31 +1101,43 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1076,66 +1145,110 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>53</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>57</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M8" t="s">
         <v>60</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N8" t="s">
         <v>61</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O8" t="s">
         <v>62</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P8" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q8" t="s">
         <v>64</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R8" t="s">
         <v>65</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S8" t="s">
         <v>66</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T8" t="s">
         <v>67</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U8" t="s">
         <v>68</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V8" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="142">
   <si>
     <t>S.No</t>
   </si>
@@ -394,6 +394,54 @@
   </si>
   <si>
     <t xml:space="preserve">ओवरटाइम सिंगल, लंच/डिनर: फ्री, </t>
+  </si>
+  <si>
+    <t>Padget Dixon</t>
+  </si>
+  <si>
+    <t>Sector 63 Noida</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता and Job Location: Sector 63 Noida</t>
+  </si>
+  <si>
+    <t>Interview date– 8 se 12 April Daily.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview time – 8:30 </t>
+  </si>
+  <si>
+    <t>Call ना उठाने पर अपना Resume+documents 9696636662 पर whatsapp करे</t>
+  </si>
+  <si>
+    <t>Contact: DEEPAK- 9696636662, Pratima- 9773708919</t>
+  </si>
+  <si>
+    <t>दस्तावेज- -2फोटो,आधार कार्ड;बैंकपासबुक (10th,12th Graduation ITI diploma)</t>
+  </si>
+  <si>
+    <t>Salary:</t>
+  </si>
+  <si>
+    <t>ITI— 11713 (OT 99)</t>
+  </si>
+  <si>
+    <t>10th,12th, Gradu.-10701 (OT 90)</t>
+  </si>
+  <si>
+    <t>Diploma, -13120(OT 109)</t>
+  </si>
+  <si>
+    <t>Attendance award —- 1000 Rs</t>
+  </si>
+  <si>
+    <t>15 Night award- 500Rs</t>
+  </si>
+  <si>
+    <t>Over time double(रोज 2-3घंटे)</t>
+  </si>
+  <si>
+    <t>Canteen -free</t>
   </si>
 </sst>
 </file>
@@ -746,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -850,52 +898,46 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T2" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -903,10 +945,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -915,58 +957,52 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T3" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V3" t="s">
-        <v>107</v>
-      </c>
-      <c r="W3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -974,10 +1010,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -986,31 +1022,58 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" t="s">
+        <v>106</v>
+      </c>
+      <c r="V4" t="s">
+        <v>107</v>
+      </c>
+      <c r="W4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1018,10 +1081,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1030,58 +1093,31 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>83</v>
-      </c>
-      <c r="R5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" t="s">
-        <v>87</v>
-      </c>
-      <c r="V5" t="s">
-        <v>88</v>
-      </c>
-      <c r="W5" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1089,10 +1125,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1101,43 +1137,58 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R6" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1145,10 +1196,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1157,31 +1208,43 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1189,66 +1252,110 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>56</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>57</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
         <v>60</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N9" t="s">
         <v>61</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O9" t="s">
         <v>62</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P9" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q9" t="s">
         <v>64</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R9" t="s">
         <v>65</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S9" t="s">
         <v>66</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T9" t="s">
         <v>67</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U9" t="s">
         <v>68</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V9" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
   <si>
     <t>S.No</t>
   </si>
@@ -442,6 +442,63 @@
   </si>
   <si>
     <t>Canteen -free</t>
+  </si>
+  <si>
+    <t>Samkwang Mobile</t>
+  </si>
+  <si>
+    <t>kasna Gr Noida</t>
+  </si>
+  <si>
+    <t>SSR contractor में Boysकी भर्ती है आवशयकता है samkwang company के लिए</t>
+  </si>
+  <si>
+    <t>वर्क लोकेशन (फैक्ट्री) -: Samkwang india electronics pvt Ltd.. Company</t>
+  </si>
+  <si>
+    <t>Kasna , Greater Noida.</t>
+  </si>
+  <si>
+    <t>Department: Assembly</t>
+  </si>
+  <si>
+    <t>Salary = 10994  and  OT= 106 per hrs</t>
+  </si>
+  <si>
+    <t>योग्यता: 10th, 12 th,ITI</t>
+  </si>
+  <si>
+    <t>आवश्यक दस्तावेज़: resume 2 photo , photo copy all documents</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ: Double Overtime, Attend.Award- 700, Lunch/Canteen Free, Bus Free</t>
+  </si>
+  <si>
+    <t>Only for Boys</t>
+  </si>
+  <si>
+    <t>नोट- डॉक्यूमेंट के साथ आधार कार्ड और बैंक अकाउंट लाना अनिवार्य है (बैंक की पासबुक या चेक बुक)</t>
+  </si>
+  <si>
+    <t>न्यूनतम दूरी- 100 km</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :- *09/04/2025</t>
+  </si>
+  <si>
+    <t>Morning- 7:00 बजे</t>
+  </si>
+  <si>
+    <t>SS Research Solution Services</t>
+  </si>
+  <si>
+    <t>Contact: Abhishek Rawal-9990294311, Vivek-9368772854, Kush-7253035420, 9758570409 Ashish</t>
+  </si>
+  <si>
+    <t>Address: Plot No.1, Samkwang India Electronic Private limited, 10, Ecotech III, Greater Noida, Uttar Pradesh 203202</t>
+  </si>
+  <si>
+    <t>Google map: https://maps.app.goo.gl/kBG75cpD1WuKs6Tg9</t>
   </si>
 </sst>
 </file>
@@ -794,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,14 +939,11 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -898,57 +952,66 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S2" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T2" t="s">
+        <v>158</v>
+      </c>
+      <c r="U2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -957,63 +1020,57 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N3" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1022,69 +1079,63 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T4" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U4" t="s">
-        <v>106</v>
-      </c>
-      <c r="V4" t="s">
-        <v>107</v>
-      </c>
-      <c r="W4" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1093,42 +1144,69 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1137,69 +1215,42 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T6" t="s">
-        <v>86</v>
-      </c>
-      <c r="U6" t="s">
-        <v>87</v>
-      </c>
-      <c r="V6" t="s">
-        <v>88</v>
-      </c>
-      <c r="W6" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1208,54 +1259,69 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" t="s">
+        <v>88</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1264,98 +1330,154 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>55</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>56</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>57</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" t="s">
         <v>60</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N10" t="s">
         <v>61</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O10" t="s">
         <v>62</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P10" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q10" t="s">
         <v>64</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R10" t="s">
         <v>65</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S10" t="s">
         <v>66</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T10" t="s">
         <v>67</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U10" t="s">
         <v>68</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V10" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +939,9 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>142</v>
       </c>
@@ -1005,7 +1008,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
@@ -1064,7 +1067,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
@@ -1200,7 +1203,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1244,7 +1247,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1371,7 +1374,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -1415,7 +1418,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -854,7 +854,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +940,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>142</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="171">
   <si>
     <t>S.No</t>
   </si>
@@ -499,6 +499,36 @@
   </si>
   <si>
     <t>Google map: https://maps.app.goo.gl/kBG75cpD1WuKs6Tg9</t>
+  </si>
+  <si>
+    <t>Oppo Mobile Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kasna, Greater Noida</t>
+  </si>
+  <si>
+    <t>केवल लड़कों के लिए (ONLY BOYS) NAPS Apprentice के तहत भर्ती (केवल फ्रेशर उम्मीदवारों के लिए) दोनों वैक्सीनेशन डोज अनिवार्य (सर्टिफिकेट साथ लाना होगा)</t>
+  </si>
+  <si>
+    <t>महत्वपूर्ण सूचना: हापुड़, बुलंदशहर, अलीगढ़, हाथरस, आगरा, मथुरा, एटा, मेरठ, बागपत के कैंडिडेट अप्लाई ना करें। केवल वे उम्मीदवार आवेदन करें, जिनका घर ग्रेटर नोएडा से 200 किमी दूर हो।</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट: 9 April 2025</t>
+  </si>
+  <si>
+    <t>सैलरी: ₹12,000/- प्रति माह, ओवरटाइम: डबल भुगतान, अटेंडेंस अवॉर्ड: ₹2000/-</t>
+  </si>
+  <si>
+    <t>नाइट अलाउंस: ₹50/- प्रति नाइट, बस और कैंटीन: निःशुल्क</t>
+  </si>
+  <si>
+    <t>योग्यता (Eligibility): शैक्षिक योग्यता: 12वीं पास या ITI Only</t>
+  </si>
+  <si>
+    <t>रिज़्यूमे (Resume), शैक्षिक प्रमाणपत्र (10वीं, 12वीं, ITI, Diploma ya Btech मार्कशीट) Any A, आधार कार्ड (Aadhar Card)</t>
+  </si>
+  <si>
+    <t>पैन कार्ड (PAN Card), बैंक पासबुक (Bank Passbook), वैक्सीनेशन सर्टिफिकेट (Vaccination Certificate)</t>
   </si>
 </sst>
 </file>
@@ -851,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,13 +970,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -955,66 +985,72 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J2" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R2" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U2" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V2" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1023,57 +1059,66 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N3" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S3" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T3" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1082,63 +1127,57 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M4" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N4" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O4" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T4" t="s">
-        <v>121</v>
-      </c>
-      <c r="U4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1147,69 +1186,63 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O5" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q5" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R5" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T5" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V5" t="s">
-        <v>107</v>
-      </c>
-      <c r="W5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1218,42 +1251,69 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" t="s">
+        <v>106</v>
+      </c>
+      <c r="V6" t="s">
+        <v>107</v>
+      </c>
+      <c r="W6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1262,69 +1322,42 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" t="s">
-        <v>85</v>
-      </c>
-      <c r="T7" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" t="s">
-        <v>87</v>
-      </c>
-      <c r="V7" t="s">
-        <v>88</v>
-      </c>
-      <c r="W7" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1333,54 +1366,69 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V8" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1389,98 +1437,154 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>54</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>56</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>57</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M11" t="s">
         <v>60</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N11" t="s">
         <v>61</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O11" t="s">
         <v>62</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P11" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q11" t="s">
         <v>64</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R11" t="s">
         <v>65</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S11" t="s">
         <v>66</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T11" t="s">
         <v>67</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U11" t="s">
         <v>68</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V11" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="185">
   <si>
     <t>S.No</t>
   </si>
@@ -529,6 +529,48 @@
   </si>
   <si>
     <t>पैन कार्ड (PAN Card), बैंक पासबुक (Bank Passbook), वैक्सीनेशन सर्टिफिकेट (Vaccination Certificate)</t>
+  </si>
+  <si>
+    <t>SURAJPUR Gr. NOIDA</t>
+  </si>
+  <si>
+    <t>ECDM Technology India Pvt. Ltd</t>
+  </si>
+  <si>
+    <t>INNOVARE SOLUTION CONTRACTOR में भर्ती है आवशयकता है ECDM company के लिए</t>
+  </si>
+  <si>
+    <t>वर्क लोकेशन (फैक्ट्री) -: ECDM . Company, Surajpur police line Greater noida</t>
+  </si>
+  <si>
+    <t>Only for boys (Skilled and unskilled)</t>
+  </si>
+  <si>
+    <t>Salary 10700 (in hand salary 9335)</t>
+  </si>
+  <si>
+    <t>OT hours 102, Overtime double</t>
+  </si>
+  <si>
+    <t>योग्यता-: fresher, 10th+ 12 th ,ITI</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ:  Attend.Award- 700</t>
+  </si>
+  <si>
+    <t>Lunch/Canteen Free</t>
+  </si>
+  <si>
+    <t>Bus Free</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :-09/04/2025</t>
+  </si>
+  <si>
+    <t>भर्ती सुबह 7 बजे</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contact: kapil dedha-9319509127, Sumit-8800014832 </t>
   </si>
 </sst>
 </file>
@@ -881,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,13 +1012,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -985,72 +1027,57 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q2" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S2" t="s">
-        <v>169</v>
-      </c>
-      <c r="T2" t="s">
-        <v>170</v>
-      </c>
-      <c r="U2" t="s">
-        <v>105</v>
-      </c>
-      <c r="V2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X2" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1059,66 +1086,72 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J3" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R3" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U3" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V3" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1127,57 +1160,66 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L4" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M4" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q4" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S4" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T4" t="s">
+        <v>158</v>
+      </c>
+      <c r="U4" t="s">
+        <v>159</v>
+      </c>
+      <c r="V4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1186,63 +1228,57 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N5" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R5" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S5" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U5" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1251,69 +1287,63 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q6" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S6" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T6" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U6" t="s">
-        <v>106</v>
-      </c>
-      <c r="V6" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1322,42 +1352,69 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" t="s">
+        <v>105</v>
+      </c>
+      <c r="U7" t="s">
+        <v>106</v>
+      </c>
+      <c r="V7" t="s">
+        <v>107</v>
+      </c>
+      <c r="W7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1366,69 +1423,42 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" t="s">
-        <v>85</v>
-      </c>
-      <c r="T8" t="s">
-        <v>86</v>
-      </c>
-      <c r="U8" t="s">
-        <v>87</v>
-      </c>
-      <c r="V8" t="s">
-        <v>88</v>
-      </c>
-      <c r="W8" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1437,54 +1467,69 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R9" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S9" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" t="s">
+        <v>87</v>
+      </c>
+      <c r="V9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1493,98 +1538,154 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>54</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>56</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>57</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>58</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>59</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M12" t="s">
         <v>60</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N12" t="s">
         <v>61</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O12" t="s">
         <v>62</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P12" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q12" t="s">
         <v>64</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R12" t="s">
         <v>65</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S12" t="s">
         <v>66</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T12" t="s">
         <v>67</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U12" t="s">
         <v>68</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V12" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="200">
   <si>
     <t>S.No</t>
   </si>
@@ -571,6 +571,51 @@
   </si>
   <si>
     <t xml:space="preserve"> Contact: kapil dedha-9319509127, Sumit-8800014832 </t>
+  </si>
+  <si>
+    <t>Motherson Sumi System Ltd.</t>
+  </si>
+  <si>
+    <t>Sec. 59 Noida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noida को छोड़कर सभी जगह के लड़के अप्लाई कर सकते हैं </t>
+  </si>
+  <si>
+    <t>100 Vacancy for Only Boys</t>
+  </si>
+  <si>
+    <t>Age Limit(आयु सीमा) -18 साल से 30 साल</t>
+  </si>
+  <si>
+    <t>Qualifications-10th,12th, ITI, Diploma</t>
+  </si>
+  <si>
+    <t>इंटरव्यू की तारीख–    10/04/2025</t>
+  </si>
+  <si>
+    <t>इंटरव्यू का समय-सुबह 07:00 बजे से 09:30 बजे तक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">इंटरव्यू पता : -Noida सेक्टर 59 Plot नंबर- 4&amp;5 E Block Gate no. 2पे आना है </t>
+  </si>
+  <si>
+    <t>Call नही उठाने पर whatsApp पर Msg करना हैं</t>
+  </si>
+  <si>
+    <t>Contact: Anuj Sir ( 9891027333 ), Atul Sir ( 9354089857 ), Gulshan sir ( 8923521098 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary: 10th – 10948 Par Month+ PF &amp; ESI  , 12th or ITI – 12013 Par Month PF &amp; ESI  , Diploma_. 13420 Par Month + PF &amp; ESI </t>
+  </si>
+  <si>
+    <t>Shift and Duty time: Shift A- 6Am to 2pm, Shift B- 02Pm to 10Pm, Shift C- 10Pm to 6Am</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ: डबल ओवरटाइम मिलेगा, कैंटीन &amp; बस की सुविधा(आने जाने के लिये  केवल A और B शिफ्ट में बस सुविधा की सुविधा है )</t>
+  </si>
+  <si>
+    <t>नोट -इंटरव्यू के लिए फॉर्मल मे आए और रिज्यूमे सारे एजुकेशन की फोटो कॉपी आधार कार्ड, 4 पासपोर्ट साइज़्‌ फ़ोटो</t>
   </si>
 </sst>
 </file>
@@ -923,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,13 +1057,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1027,57 +1072,54 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O2" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R2" t="s">
-        <v>183</v>
-      </c>
-      <c r="S2" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1086,72 +1128,57 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O3" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q3" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R3" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S3" t="s">
-        <v>169</v>
-      </c>
-      <c r="T3" t="s">
-        <v>170</v>
-      </c>
-      <c r="U3" t="s">
-        <v>105</v>
-      </c>
-      <c r="V3" t="s">
-        <v>106</v>
-      </c>
-      <c r="W3" t="s">
-        <v>107</v>
-      </c>
-      <c r="X3" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1160,66 +1187,72 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R4" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U4" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V4" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W4" t="s">
+        <v>107</v>
+      </c>
+      <c r="X4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1228,57 +1261,66 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L5" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N5" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O5" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q5" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S5" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U5" t="s">
+        <v>159</v>
+      </c>
+      <c r="V5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1287,63 +1329,57 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N6" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O6" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R6" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S6" t="s">
-        <v>120</v>
-      </c>
-      <c r="T6" t="s">
-        <v>121</v>
-      </c>
-      <c r="U6" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1352,69 +1388,63 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U7" t="s">
-        <v>106</v>
-      </c>
-      <c r="V7" t="s">
-        <v>107</v>
-      </c>
-      <c r="W7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1423,42 +1453,69 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" t="s">
+        <v>104</v>
+      </c>
+      <c r="T8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8" t="s">
+        <v>106</v>
+      </c>
+      <c r="V8" t="s">
+        <v>107</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1467,69 +1524,42 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" t="s">
-        <v>85</v>
-      </c>
-      <c r="T9" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" t="s">
-        <v>87</v>
-      </c>
-      <c r="V9" t="s">
-        <v>88</v>
-      </c>
-      <c r="W9" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1538,54 +1568,69 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R10" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1594,98 +1639,154 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>53</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>56</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>57</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K13" t="s">
         <v>58</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" t="s">
         <v>59</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M13" t="s">
         <v>60</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N13" t="s">
         <v>61</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O13" t="s">
         <v>62</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P13" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q13" t="s">
         <v>64</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R13" t="s">
         <v>65</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S13" t="s">
         <v>66</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T13" t="s">
         <v>67</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U13" t="s">
         <v>68</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V13" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="216">
   <si>
     <t>S.No</t>
   </si>
@@ -616,6 +616,54 @@
   </si>
   <si>
     <t>नोट -इंटरव्यू के लिए फॉर्मल मे आए और रिज्यूमे सारे एजुकेशन की फोटो कॉपी आधार कार्ड, 4 पासपोर्ट साइज़्‌ फ़ोटो</t>
+  </si>
+  <si>
+    <t>KIMBAL TECHNOLOGY PVT LTD</t>
+  </si>
+  <si>
+    <t>Gr Noida</t>
+  </si>
+  <si>
+    <t>Experience – 01-02 years in सोल्डरिंग ऑपरेटर</t>
+  </si>
+  <si>
+    <t>Only male Candidate</t>
+  </si>
+  <si>
+    <t>Interview Date:- 10-04-2025</t>
+  </si>
+  <si>
+    <t>Time:- 10 AM</t>
+  </si>
+  <si>
+    <t>Salary (15700)+ 1500 Attendance bonus</t>
+  </si>
+  <si>
+    <t>Double – OT</t>
+  </si>
+  <si>
+    <t>Night Allowance:-100Rs</t>
+  </si>
+  <si>
+    <t>Qualification– ITI , Graduation, Diploma</t>
+  </si>
+  <si>
+    <t>Job Location: –KNOWLEDGE PARK-3, Greater Noida.</t>
+  </si>
+  <si>
+    <t>NEAR BY SHARADA GOLCHAKKR</t>
+  </si>
+  <si>
+    <t>Shift: Day &amp; Night</t>
+  </si>
+  <si>
+    <t>Bus &amp; canteen free</t>
+  </si>
+  <si>
+    <t>Contact: Anish Kumar-7091312167</t>
+  </si>
+  <si>
+    <t>Note:- Adhar card ,Pan Card Bank details, Marksheet, Photo 2</t>
   </si>
 </sst>
 </file>
@@ -968,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,14 +1104,11 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12</v>
-      </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1072,54 +1117,57 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O2" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="R2" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="S2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1128,57 +1176,54 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K3" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N3" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R3" t="s">
-        <v>183</v>
-      </c>
-      <c r="S3" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1187,72 +1232,57 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N4" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O4" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q4" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R4" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S4" t="s">
-        <v>169</v>
-      </c>
-      <c r="T4" t="s">
-        <v>170</v>
-      </c>
-      <c r="U4" t="s">
-        <v>105</v>
-      </c>
-      <c r="V4" t="s">
-        <v>106</v>
-      </c>
-      <c r="W4" t="s">
-        <v>107</v>
-      </c>
-      <c r="X4" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1261,66 +1291,72 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I5" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O5" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R5" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S5" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T5" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U5" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V5" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W5" t="s">
+        <v>107</v>
+      </c>
+      <c r="X5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1329,57 +1365,66 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M6" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N6" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O6" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q6" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R6" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S6" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T6" t="s">
+        <v>158</v>
+      </c>
+      <c r="U6" t="s">
+        <v>159</v>
+      </c>
+      <c r="V6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1388,63 +1433,57 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S7" t="s">
-        <v>120</v>
-      </c>
-      <c r="T7" t="s">
-        <v>121</v>
-      </c>
-      <c r="U7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1453,69 +1492,63 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q8" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R8" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S8" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U8" t="s">
-        <v>106</v>
-      </c>
-      <c r="V8" t="s">
-        <v>107</v>
-      </c>
-      <c r="W8" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1524,42 +1557,69 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" t="s">
+        <v>105</v>
+      </c>
+      <c r="U9" t="s">
+        <v>106</v>
+      </c>
+      <c r="V9" t="s">
+        <v>107</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1568,69 +1628,42 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>83</v>
-      </c>
-      <c r="R10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" t="s">
-        <v>85</v>
-      </c>
-      <c r="T10" t="s">
-        <v>86</v>
-      </c>
-      <c r="U10" t="s">
-        <v>87</v>
-      </c>
-      <c r="V10" t="s">
-        <v>88</v>
-      </c>
-      <c r="W10" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1639,54 +1672,69 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R11" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S11" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" t="s">
+        <v>88</v>
+      </c>
+      <c r="W11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1695,98 +1743,154 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>54</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>53</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>56</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" t="s">
         <v>57</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K14" t="s">
         <v>58</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L14" t="s">
         <v>59</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M14" t="s">
         <v>60</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N14" t="s">
         <v>61</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O14" t="s">
         <v>62</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P14" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q14" t="s">
         <v>64</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R14" t="s">
         <v>65</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S14" t="s">
         <v>66</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T14" t="s">
         <v>67</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U14" t="s">
         <v>68</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V14" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,6 +1104,9 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
         <v>200</v>
       </c>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="231">
   <si>
     <t>S.No</t>
   </si>
@@ -664,6 +664,51 @@
   </si>
   <si>
     <t>Note:- Adhar card ,Pan Card Bank details, Marksheet, Photo 2</t>
+  </si>
+  <si>
+    <t>Motorola Mobile Company</t>
+  </si>
+  <si>
+    <t>Sector 60 Noida</t>
+  </si>
+  <si>
+    <t>Interview Date- 11/04/2025</t>
+  </si>
+  <si>
+    <t>Time - 8:00 Am</t>
+  </si>
+  <si>
+    <t>AK Industries Team</t>
+  </si>
+  <si>
+    <t>Contact: Somnath-7532905336, Pankaj Chaudhary-9910947023</t>
+  </si>
+  <si>
+    <t>Qualification - 10th,12th,Graduation,iti</t>
+  </si>
+  <si>
+    <t>Salary :- 10th,12th,Graduation - 10701 Gross (Overtime - 90₹)</t>
+  </si>
+  <si>
+    <t>Salary :- iti- (Electronic/Electrician/Fitter) - Salary - 11772 Gross(Overtime - 98₹)</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ: Overtime- (3 hours per day), Attendance Award - 1000 (Montly), Night Award - 500 (15 Days), Canteen - Free (1 time lunch ,2 time Tea &amp; Snack)</t>
+  </si>
+  <si>
+    <t>Work Type - Standing</t>
+  </si>
+  <si>
+    <t>Duty टाइम- 8:30 to 5:30+ Overtime</t>
+  </si>
+  <si>
+    <t>Shift - Day/Night (Rotational 15-15 day)</t>
+  </si>
+  <si>
+    <t>Documents - 10th,12th marksheet, aadhar card,Bank details</t>
+  </si>
+  <si>
+    <t>NOTE: यह जॉब बिल्कुल फ्री हैं| industries Job के लिए किसी भी प्रकार का पैसा नही लेते है|</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,13 +1150,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1120,57 +1165,54 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="N2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q2" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="R2" t="s">
-        <v>214</v>
-      </c>
-      <c r="S2" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1179,54 +1221,57 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M3" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N3" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q3" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="R3" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="S3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1235,57 +1280,54 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L4" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M4" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N4" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O4" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q4" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R4" t="s">
-        <v>183</v>
-      </c>
-      <c r="S4" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1294,72 +1336,57 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q5" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R5" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S5" t="s">
-        <v>169</v>
-      </c>
-      <c r="T5" t="s">
-        <v>170</v>
-      </c>
-      <c r="U5" t="s">
-        <v>105</v>
-      </c>
-      <c r="V5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W5" t="s">
-        <v>107</v>
-      </c>
-      <c r="X5" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1368,66 +1395,72 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O6" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R6" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U6" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V6" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W6" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1436,57 +1469,66 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q7" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S7" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U7" t="s">
+        <v>159</v>
+      </c>
+      <c r="V7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1495,63 +1537,57 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N8" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O8" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q8" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R8" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S8" t="s">
-        <v>120</v>
-      </c>
-      <c r="T8" t="s">
-        <v>121</v>
-      </c>
-      <c r="U8" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1560,69 +1596,63 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q9" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R9" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S9" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T9" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U9" t="s">
-        <v>106</v>
-      </c>
-      <c r="V9" t="s">
-        <v>107</v>
-      </c>
-      <c r="W9" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1631,42 +1661,69 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" t="s">
+        <v>104</v>
+      </c>
+      <c r="T10" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V10" t="s">
+        <v>107</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1675,69 +1732,42 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>83</v>
-      </c>
-      <c r="R11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" t="s">
-        <v>85</v>
-      </c>
-      <c r="T11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V11" t="s">
-        <v>88</v>
-      </c>
-      <c r="W11" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1746,54 +1776,69 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q12" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R12" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S12" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" t="s">
+        <v>88</v>
+      </c>
+      <c r="W12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -1802,98 +1847,154 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
         <v>55</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>54</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>53</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>56</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" t="s">
         <v>57</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>58</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>59</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" t="s">
         <v>60</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N15" t="s">
         <v>61</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" t="s">
         <v>62</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P15" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q15" t="s">
         <v>64</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R15" t="s">
         <v>65</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S15" t="s">
         <v>66</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T15" t="s">
         <v>67</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U15" t="s">
         <v>68</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V15" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="244">
   <si>
     <t>S.No</t>
   </si>
@@ -709,6 +709,45 @@
   </si>
   <si>
     <t>NOTE: यह जॉब बिल्कुल फ्री हैं| industries Job के लिए किसी भी प्रकार का पैसा नही लेते है|</t>
+  </si>
+  <si>
+    <t>TRANSSION (i-Tel)</t>
+  </si>
+  <si>
+    <t>Sec-63 Noida</t>
+  </si>
+  <si>
+    <t>Department: Assembly Production Department के लिए</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :- 10-April-2025</t>
+  </si>
+  <si>
+    <t>इंटरव्यू टाइम :- 07:30 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">इंटरव्यू पता :- A-70 Sector 63 A,  Near FNG Police Station </t>
+  </si>
+  <si>
+    <t>Vacancy: 50 (Only for Boys)</t>
+  </si>
+  <si>
+    <t>योग्यता-:  12th, Graduation, ITI Diploma, B.Tech with experience (Minmum Experience :- 1 year)</t>
+  </si>
+  <si>
+    <t>Salary: Take Home Salary :- 11500/-</t>
+  </si>
+  <si>
+    <t>Attendance award :- 1000/-</t>
+  </si>
+  <si>
+    <t>Night allowance :- 50/night</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ: Lunch/Dinner Free, 115 ओवरटाइम Double</t>
+  </si>
+  <si>
+    <t>यह भर्ती पूरी तरह से निःशुल्क  है, इसीलिए किसी भी प्रकार का कोई भी शुल्क किसी भी ब्यक्ति को न दे, Lions workforce   और naukripesa.com किसी भी प्रकार के रुपए का लेन देन नही करता है |साक्षात्कार के लिए बहुत  शुभकामनाएं।</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,13 +1189,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1165,54 +1204,48 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K2" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M2" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1221,57 +1254,54 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M3" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="N3" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O3" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q3" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="R3" t="s">
-        <v>214</v>
-      </c>
-      <c r="S3" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1280,54 +1310,57 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K4" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L4" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M4" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N4" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O4" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="R4" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="S4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1336,57 +1369,54 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J5" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K5" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L5" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M5" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N5" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O5" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q5" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R5" t="s">
-        <v>183</v>
-      </c>
-      <c r="S5" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1395,72 +1425,57 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N6" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O6" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q6" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S6" t="s">
-        <v>169</v>
-      </c>
-      <c r="T6" t="s">
-        <v>170</v>
-      </c>
-      <c r="U6" t="s">
-        <v>105</v>
-      </c>
-      <c r="V6" t="s">
-        <v>106</v>
-      </c>
-      <c r="W6" t="s">
-        <v>107</v>
-      </c>
-      <c r="X6" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1469,66 +1484,72 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R7" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U7" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V7" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W7" t="s">
+        <v>107</v>
+      </c>
+      <c r="X7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1537,57 +1558,66 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L8" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N8" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q8" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R8" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S8" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T8" t="s">
+        <v>158</v>
+      </c>
+      <c r="U8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1596,63 +1626,57 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q9" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R9" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S9" t="s">
-        <v>120</v>
-      </c>
-      <c r="T9" t="s">
-        <v>121</v>
-      </c>
-      <c r="U9" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1661,69 +1685,63 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R10" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S10" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T10" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V10" t="s">
-        <v>107</v>
-      </c>
-      <c r="W10" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1732,42 +1750,69 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" t="s">
+        <v>104</v>
+      </c>
+      <c r="T11" t="s">
+        <v>105</v>
+      </c>
+      <c r="U11" t="s">
+        <v>106</v>
+      </c>
+      <c r="V11" t="s">
+        <v>107</v>
+      </c>
+      <c r="W11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1776,69 +1821,42 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" t="s">
-        <v>84</v>
-      </c>
-      <c r="S12" t="s">
-        <v>85</v>
-      </c>
-      <c r="T12" t="s">
-        <v>86</v>
-      </c>
-      <c r="U12" t="s">
-        <v>87</v>
-      </c>
-      <c r="V12" t="s">
-        <v>88</v>
-      </c>
-      <c r="W12" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -1847,54 +1865,69 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R13" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" t="s">
+        <v>88</v>
+      </c>
+      <c r="W13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -1903,98 +1936,154 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N14" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>53</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>56</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J16" t="s">
         <v>57</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>58</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L16" t="s">
         <v>59</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M16" t="s">
         <v>60</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N16" t="s">
         <v>61</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O16" t="s">
         <v>62</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P16" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q16" t="s">
         <v>64</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R16" t="s">
         <v>65</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S16" t="s">
         <v>66</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T16" t="s">
         <v>67</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U16" t="s">
         <v>68</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V16" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="261">
   <si>
     <t>S.No</t>
   </si>
@@ -748,6 +748,57 @@
   </si>
   <si>
     <t>यह भर्ती पूरी तरह से निःशुल्क  है, इसीलिए किसी भी प्रकार का कोई भी शुल्क किसी भी ब्यक्ति को न दे, Lions workforce   और naukripesa.com किसी भी प्रकार के रुपए का लेन देन नही करता है |साक्षात्कार के लिए बहुत  शुभकामनाएं।</t>
+  </si>
+  <si>
+    <t>Vivo Mobile India</t>
+  </si>
+  <si>
+    <t>Interview Date 11-04-2025</t>
+  </si>
+  <si>
+    <t>Time- 08:30 to 12:30 PM</t>
+  </si>
+  <si>
+    <t>Deparment÷SMT Operator</t>
+  </si>
+  <si>
+    <t>Qualification=BA &amp; BSC &amp; ITI &amp; B.Com &amp; Diploma(Good English Read &amp; Write is must)</t>
+  </si>
+  <si>
+    <t>Salary Details: CTC Salary -15253</t>
+  </si>
+  <si>
+    <t>Attendance Award – 2000</t>
+  </si>
+  <si>
+    <t>Service Allowance (3,6,12) Month Amount 500,1000,1500</t>
+  </si>
+  <si>
+    <t>GWP Award-1000</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ: Bus Free ,Canteen Free</t>
+  </si>
+  <si>
+    <t>Age 18-29</t>
+  </si>
+  <si>
+    <t>Aadhar Card/BA &amp; BSC &amp; B.COM &amp; ITI &amp; Diploma/ all Orignal documents is must before interview</t>
+  </si>
+  <si>
+    <t>Contact: Saurabh Enterprise Team- 8882931901, 7701802347</t>
+  </si>
+  <si>
+    <t>Interview Address:-UGF-18,Omaxe Arcade, Greater Noida,Near Pari Chowk</t>
+  </si>
+  <si>
+    <t>Interview Location Location: https://maps.app.goo.gl/5HHXczjx9mmRvCJH7?g_st=iw</t>
+  </si>
+  <si>
+    <t>आपको सभी डॉक्यूमेंट के ओर्जिनल तथा फोटो कॉपी साथ में लेकर आने है। डॉक्यूमेंट साथ लेकर आये मेल या फ़ोन में फोटो वाले का साछात्कार नहीं होगा |अपना रिज्यूमे भी अपडेट और प्रिंट करा के लेकर आये |</t>
+  </si>
+  <si>
+    <t>यह भर्ती पूरी तरह से निशुल्क है, इसीलिए किसी भी प्रकार का कोई भी शुल्क किसी भी ब्यक्ति को न दे, Saurabh Enterprise किसी भी प्रकार के रुपए का लेन देन नहीं करता है|</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,13 +1240,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1204,48 +1255,63 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" t="s">
+        <v>256</v>
+      </c>
+      <c r="S2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1254,54 +1320,48 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I3" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K3" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M3" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>229</v>
-      </c>
-      <c r="R3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1310,57 +1370,54 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I4" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L4" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M4" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="N4" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O4" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q4" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="R4" t="s">
-        <v>214</v>
-      </c>
-      <c r="S4" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1369,54 +1426,57 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H5" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M5" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N5" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O5" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q5" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="R5" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="S5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1425,57 +1485,54 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I6" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J6" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L6" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N6" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O6" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q6" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R6" t="s">
-        <v>183</v>
-      </c>
-      <c r="S6" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1484,72 +1541,57 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q7" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R7" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S7" t="s">
-        <v>169</v>
-      </c>
-      <c r="T7" t="s">
-        <v>170</v>
-      </c>
-      <c r="U7" t="s">
-        <v>105</v>
-      </c>
-      <c r="V7" t="s">
-        <v>106</v>
-      </c>
-      <c r="W7" t="s">
-        <v>107</v>
-      </c>
-      <c r="X7" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1558,66 +1600,72 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I8" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O8" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q8" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R8" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S8" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T8" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U8" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V8" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1626,57 +1674,66 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L9" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M9" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N9" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O9" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q9" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R9" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S9" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T9" t="s">
+        <v>158</v>
+      </c>
+      <c r="U9" t="s">
+        <v>159</v>
+      </c>
+      <c r="V9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1685,63 +1742,57 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q10" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R10" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S10" t="s">
-        <v>120</v>
-      </c>
-      <c r="T10" t="s">
-        <v>121</v>
-      </c>
-      <c r="U10" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1750,69 +1801,63 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q11" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R11" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S11" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T11" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U11" t="s">
-        <v>106</v>
-      </c>
-      <c r="V11" t="s">
-        <v>107</v>
-      </c>
-      <c r="W11" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1821,42 +1866,69 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" t="s">
+        <v>105</v>
+      </c>
+      <c r="U12" t="s">
+        <v>106</v>
+      </c>
+      <c r="V12" t="s">
+        <v>107</v>
+      </c>
+      <c r="W12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -1865,69 +1937,42 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" t="s">
-        <v>85</v>
-      </c>
-      <c r="T13" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" t="s">
-        <v>87</v>
-      </c>
-      <c r="V13" t="s">
-        <v>88</v>
-      </c>
-      <c r="W13" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -1936,54 +1981,69 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R14" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S14" t="s">
+        <v>85</v>
+      </c>
+      <c r="T14" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" t="s">
+        <v>88</v>
+      </c>
+      <c r="W14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -1992,98 +2052,154 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
         <v>55</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>54</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>53</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>56</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J17" t="s">
         <v>57</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K17" t="s">
         <v>58</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" t="s">
         <v>59</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M17" t="s">
         <v>60</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N17" t="s">
         <v>61</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O17" t="s">
         <v>62</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P17" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q17" t="s">
         <v>64</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R17" t="s">
         <v>65</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S17" t="s">
         <v>66</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T17" t="s">
         <v>67</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U17" t="s">
         <v>68</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V17" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="273">
   <si>
     <t>S.No</t>
   </si>
@@ -799,6 +799,42 @@
   </si>
   <si>
     <t>यह भर्ती पूरी तरह से निशुल्क है, इसीलिए किसी भी प्रकार का कोई भी शुल्क किसी भी ब्यक्ति को न दे, Saurabh Enterprise किसी भी प्रकार के रुपए का लेन देन नहीं करता है|</t>
+  </si>
+  <si>
+    <t>BPL Mobile Company</t>
+  </si>
+  <si>
+    <t>KASANA, Gr Noida</t>
+  </si>
+  <si>
+    <t>Interview Date – 11.04.2025</t>
+  </si>
+  <si>
+    <t>Time=09:00 AM -02:30 PM</t>
+  </si>
+  <si>
+    <t>Interview Address:-F-20 SITE 4 KASANA GRAND VENICE MALL KE PASS</t>
+  </si>
+  <si>
+    <t>Qualification÷10th &amp;12th &amp; BA &amp; BSC &amp; B.Com &amp; ITI &amp; Diploma</t>
+  </si>
+  <si>
+    <t>Salary Details -: skilled:-13500, unskilled:-11020</t>
+  </si>
+  <si>
+    <t>GWP Award -1000</t>
+  </si>
+  <si>
+    <t>Service Allowance:500 Rs in 3 Months,1000 Rs in 6 Months,1500 Rs in 9 Months</t>
+  </si>
+  <si>
+    <t>Bus Free ,Canteen Free</t>
+  </si>
+  <si>
+    <t>Age 18-32</t>
+  </si>
+  <si>
+    <t>Note: यदि फोन रिसीव नहीं हो पाता है तो आप सीधे दिए हुए इंटरव्यू एड्रेस पे जाए</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,13 +1276,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1255,63 +1291,48 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="J2" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="K2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="M2" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="N2" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>255</v>
-      </c>
-      <c r="R2" t="s">
-        <v>256</v>
-      </c>
-      <c r="S2" t="s">
-        <v>258</v>
-      </c>
-      <c r="T2" t="s">
-        <v>259</v>
-      </c>
-      <c r="U2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1320,48 +1341,63 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J3" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K3" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L3" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M3" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N3" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O3" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>255</v>
+      </c>
+      <c r="R3" t="s">
+        <v>256</v>
+      </c>
+      <c r="S3" t="s">
+        <v>258</v>
+      </c>
+      <c r="T3" t="s">
+        <v>259</v>
+      </c>
+      <c r="U3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1370,54 +1406,48 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H4" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K4" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L4" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M4" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N4" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O4" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>229</v>
-      </c>
-      <c r="R4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1426,57 +1456,54 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J5" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L5" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="N5" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O5" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P5" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="R5" t="s">
-        <v>214</v>
-      </c>
-      <c r="S5" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1485,54 +1512,57 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K6" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L6" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M6" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O6" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q6" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="R6" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="S6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1541,57 +1571,54 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L7" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R7" t="s">
-        <v>183</v>
-      </c>
-      <c r="S7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1600,72 +1627,57 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N8" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O8" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q8" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R8" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S8" t="s">
-        <v>169</v>
-      </c>
-      <c r="T8" t="s">
-        <v>170</v>
-      </c>
-      <c r="U8" t="s">
-        <v>105</v>
-      </c>
-      <c r="V8" t="s">
-        <v>106</v>
-      </c>
-      <c r="W8" t="s">
-        <v>107</v>
-      </c>
-      <c r="X8" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1674,66 +1686,72 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O9" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R9" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T9" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U9" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V9" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1742,57 +1760,66 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N10" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O10" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q10" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R10" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S10" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T10" t="s">
+        <v>158</v>
+      </c>
+      <c r="U10" t="s">
+        <v>159</v>
+      </c>
+      <c r="V10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1801,63 +1828,57 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q11" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R11" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S11" t="s">
-        <v>120</v>
-      </c>
-      <c r="T11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U11" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1866,69 +1887,63 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q12" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R12" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S12" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T12" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U12" t="s">
-        <v>106</v>
-      </c>
-      <c r="V12" t="s">
-        <v>107</v>
-      </c>
-      <c r="W12" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -1937,42 +1952,69 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" t="s">
+        <v>105</v>
+      </c>
+      <c r="U13" t="s">
+        <v>106</v>
+      </c>
+      <c r="V13" t="s">
+        <v>107</v>
+      </c>
+      <c r="W13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -1981,69 +2023,42 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>83</v>
-      </c>
-      <c r="R14" t="s">
-        <v>84</v>
-      </c>
-      <c r="S14" t="s">
-        <v>85</v>
-      </c>
-      <c r="T14" t="s">
-        <v>86</v>
-      </c>
-      <c r="U14" t="s">
-        <v>87</v>
-      </c>
-      <c r="V14" t="s">
-        <v>88</v>
-      </c>
-      <c r="W14" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2052,54 +2067,69 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q15" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R15" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S15" t="s">
+        <v>85</v>
+      </c>
+      <c r="T15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" t="s">
+        <v>88</v>
+      </c>
+      <c r="W15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2108,98 +2138,154 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>53</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>56</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" t="s">
         <v>57</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>58</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>59</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>60</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N18" t="s">
         <v>61</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O18" t="s">
         <v>62</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P18" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q18" t="s">
         <v>64</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R18" t="s">
         <v>65</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S18" t="s">
         <v>66</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T18" t="s">
         <v>67</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U18" t="s">
         <v>68</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V18" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="285">
   <si>
     <t>S.No</t>
   </si>
@@ -807,9 +807,6 @@
     <t>KASANA, Gr Noida</t>
   </si>
   <si>
-    <t>Interview Date – 11.04.2025</t>
-  </si>
-  <si>
     <t>Time=09:00 AM -02:30 PM</t>
   </si>
   <si>
@@ -835,6 +832,45 @@
   </si>
   <si>
     <t>Note: यदि फोन रिसीव नहीं हो पाता है तो आप सीधे दिए हुए इंटरव्यू एड्रेस पे जाए</t>
+  </si>
+  <si>
+    <t>Pigeon India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Interview Date – 11.04.2024</t>
+  </si>
+  <si>
+    <t>Interview Date – 11/04/2025</t>
+  </si>
+  <si>
+    <t>इंटरव्यू का समय:-7.30 AM</t>
+  </si>
+  <si>
+    <t>Interview Address -: Pigeon India Private Limited 6E Sector 40-41 Ecotech-1,Greater Noida,</t>
+  </si>
+  <si>
+    <t>Contact: Yogesh- 7983961240</t>
+  </si>
+  <si>
+    <t>Only_Apprentice_Job</t>
+  </si>
+  <si>
+    <t>प्रत्येक_सप्ताह_2_छुट्टी_मिलती_है(केवल 5 दिन सप्ताह में काम करना है)</t>
+  </si>
+  <si>
+    <t>यह एक अच्छी जॉब है कंपनी कैंडिडेट को बाहर नहीं निकलती है, अगर परफॉरमेंस अच्छा है तो on-role भी कर लेती है</t>
+  </si>
+  <si>
+    <t>IN_HAND_SALARY: 14500, Double OT</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ:  LUNCH 10Rs /DAY,</t>
+  </si>
+  <si>
+    <t>ATTENDANCE AWARD 1000</t>
+  </si>
+  <si>
+    <t>बस_फ्री</t>
   </si>
 </sst>
 </file>
@@ -1187,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,13 +1312,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1291,48 +1327,48 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="I2" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J2" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="K2" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="O2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="P2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1341,63 +1377,48 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="I3" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="J3" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L3" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M3" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="N3" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O3" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P3" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>255</v>
-      </c>
-      <c r="R3" t="s">
-        <v>256</v>
-      </c>
-      <c r="S3" t="s">
-        <v>258</v>
-      </c>
-      <c r="T3" t="s">
-        <v>259</v>
-      </c>
-      <c r="U3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1406,48 +1427,63 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H4" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="I4" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J4" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K4" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L4" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M4" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N4" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O4" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>255</v>
+      </c>
+      <c r="R4" t="s">
+        <v>256</v>
+      </c>
+      <c r="S4" t="s">
+        <v>258</v>
+      </c>
+      <c r="T4" t="s">
+        <v>259</v>
+      </c>
+      <c r="U4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1456,54 +1492,48 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H5" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I5" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K5" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L5" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M5" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N5" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O5" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>229</v>
-      </c>
-      <c r="R5" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1512,57 +1542,54 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I6" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J6" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L6" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="N6" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O6" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q6" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="R6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S6" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1571,54 +1598,57 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="R7" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="S7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1627,57 +1657,54 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H8" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J8" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K8" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L8" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M8" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N8" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O8" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q8" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R8" t="s">
-        <v>183</v>
-      </c>
-      <c r="S8" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1686,72 +1713,57 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M9" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O9" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q9" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R9" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S9" t="s">
-        <v>169</v>
-      </c>
-      <c r="T9" t="s">
-        <v>170</v>
-      </c>
-      <c r="U9" t="s">
-        <v>105</v>
-      </c>
-      <c r="V9" t="s">
-        <v>106</v>
-      </c>
-      <c r="W9" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1760,66 +1772,72 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I10" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N10" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O10" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R10" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S10" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T10" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U10" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V10" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1828,57 +1846,66 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q11" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R11" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S11" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T11" t="s">
+        <v>158</v>
+      </c>
+      <c r="U11" t="s">
+        <v>159</v>
+      </c>
+      <c r="V11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1887,63 +1914,57 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q12" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R12" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S12" t="s">
-        <v>120</v>
-      </c>
-      <c r="T12" t="s">
-        <v>121</v>
-      </c>
-      <c r="U12" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -1952,69 +1973,63 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q13" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R13" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T13" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U13" t="s">
-        <v>106</v>
-      </c>
-      <c r="V13" t="s">
-        <v>107</v>
-      </c>
-      <c r="W13" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2023,42 +2038,69 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T14" t="s">
+        <v>105</v>
+      </c>
+      <c r="U14" t="s">
+        <v>106</v>
+      </c>
+      <c r="V14" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2067,69 +2109,42 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>83</v>
-      </c>
-      <c r="R15" t="s">
-        <v>84</v>
-      </c>
-      <c r="S15" t="s">
-        <v>85</v>
-      </c>
-      <c r="T15" t="s">
-        <v>86</v>
-      </c>
-      <c r="U15" t="s">
-        <v>87</v>
-      </c>
-      <c r="V15" t="s">
-        <v>88</v>
-      </c>
-      <c r="W15" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2138,54 +2153,69 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R16" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" t="s">
+        <v>86</v>
+      </c>
+      <c r="U16" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" t="s">
+        <v>88</v>
+      </c>
+      <c r="W16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2194,98 +2224,154 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O17" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
         <v>55</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>54</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>56</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>57</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K19" t="s">
         <v>58</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>59</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M19" t="s">
         <v>60</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N19" t="s">
         <v>61</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O19" t="s">
         <v>62</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P19" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q19" t="s">
         <v>64</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R19" t="s">
         <v>65</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S19" t="s">
         <v>66</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T19" t="s">
         <v>67</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U19" t="s">
         <v>68</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V19" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="310">
   <si>
     <t>S.No</t>
   </si>
@@ -871,6 +871,81 @@
   </si>
   <si>
     <t>बस_फ्री</t>
+  </si>
+  <si>
+    <t>Department- ,Assembly</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :- *12/04/2025</t>
+  </si>
+  <si>
+    <t>Salary = 10994 , OT= 106 per hrs</t>
+  </si>
+  <si>
+    <t>Double Overtime</t>
+  </si>
+  <si>
+    <t>Attend.Award- 700</t>
+  </si>
+  <si>
+    <t>Lunch/Canteen Fre</t>
+  </si>
+  <si>
+    <t>Only For Boys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">योग्यता-:  10th, 12 th,ITI </t>
+  </si>
+  <si>
+    <t>Documents - resume 2 photo , photo copy all documents</t>
+  </si>
+  <si>
+    <t>Contact:  Abhishek Rawal-9990294311, Vivek-9368772854, Kush-7253035420, Ashish-9758570409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOIDA sector 63 </t>
+  </si>
+  <si>
+    <t>Department – Production store QA SMT</t>
+  </si>
+  <si>
+    <t>Only for boys</t>
+  </si>
+  <si>
+    <t>Interview date–  12 April</t>
+  </si>
+  <si>
+    <t>Interview time – 8:30</t>
+  </si>
+  <si>
+    <t>Interview Address -: Padget Dixon Company PVT LTD NOIDA sector 63</t>
+  </si>
+  <si>
+    <t>Afe: 18 to 30</t>
+  </si>
+  <si>
+    <t>Fresher &amp; Experience Both Apply candidate</t>
+  </si>
+  <si>
+    <t>Qualification- 10th,12th, ITI,</t>
+  </si>
+  <si>
+    <t>Salary: 10701 Rs/Month  + 90Rs OT (for 10th,12th, Gradu),  11713 Rs/Month + 99 ot (ITI), 13120 RS/Month +(109 OT) Diploma</t>
+  </si>
+  <si>
+    <t>15Night award — 500Rs</t>
+  </si>
+  <si>
+    <t>Over time double (रोज 2-3घंटे)</t>
+  </si>
+  <si>
+    <t>Canteen — free</t>
+  </si>
+  <si>
+    <t>Contact: DEEPAK SIR — 9696636662, Kunal – 9311703468, Rinku- 8077397446</t>
+  </si>
+  <si>
+    <t>आप अपने डॉक्यूमेंट किसी भी फर्जी लोगो को ना दे ( गेट पर आकार कॉल जरूर करे)|दस्तावेज- -2फोटो,आधार कार्ड;बैंकपासबुक (10th,12th Graduation ITI diploma)| अगर कोई कॉल न उठाये तो इस नंबर पर कॉल करें Pratima- 9773708919.</t>
   </si>
 </sst>
 </file>
@@ -1223,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,13 +1387,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1327,48 +1402,66 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="I2" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="K2" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="L2" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="M2" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="N2" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="O2" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="P2" t="s">
-        <v>284</v>
+        <v>138</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>305</v>
+      </c>
+      <c r="R2" t="s">
+        <v>306</v>
+      </c>
+      <c r="S2" t="s">
+        <v>307</v>
+      </c>
+      <c r="T2" t="s">
+        <v>308</v>
+      </c>
+      <c r="U2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1377,45 +1470,60 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="I3" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="J3" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="L3" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="M3" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="N3" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="O3" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="P3" t="s">
-        <v>271</v>
+        <v>291</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>292</v>
+      </c>
+      <c r="R3" t="s">
+        <v>293</v>
+      </c>
+      <c r="S3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T3" t="s">
+        <v>294</v>
+      </c>
+      <c r="U3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -1427,63 +1535,48 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="I4" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="J4" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="K4" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="L4" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M4" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="N4" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="O4" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>255</v>
-      </c>
-      <c r="R4" t="s">
-        <v>256</v>
-      </c>
-      <c r="S4" t="s">
-        <v>258</v>
-      </c>
-      <c r="T4" t="s">
-        <v>259</v>
-      </c>
-      <c r="U4" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1492,48 +1585,48 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="H5" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="I5" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="J5" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="K5" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L5" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="M5" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="N5" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="O5" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="P5" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1542,54 +1635,63 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="H6" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="I6" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="J6" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="L6" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="M6" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="N6" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="O6" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="Q6" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="R6" t="s">
-        <v>230</v>
+        <v>256</v>
+      </c>
+      <c r="S6" t="s">
+        <v>258</v>
+      </c>
+      <c r="T6" t="s">
+        <v>259</v>
+      </c>
+      <c r="U6" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1598,57 +1700,48 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="J7" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="K7" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="L7" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="M7" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="N7" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="O7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>213</v>
-      </c>
-      <c r="R7" t="s">
-        <v>214</v>
-      </c>
-      <c r="S7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1657,54 +1750,54 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="I8" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="L8" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="M8" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="N8" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="O8" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="Q8" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="R8" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1713,57 +1806,57 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="I9" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="K9" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="L9" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="M9" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="N9" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="O9" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="Q9" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="R9" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1772,72 +1865,54 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="N10" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="O10" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="Q10" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="R10" t="s">
-        <v>103</v>
-      </c>
-      <c r="S10" t="s">
-        <v>169</v>
-      </c>
-      <c r="T10" t="s">
-        <v>170</v>
-      </c>
-      <c r="U10" t="s">
-        <v>105</v>
-      </c>
-      <c r="V10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W10" t="s">
-        <v>107</v>
-      </c>
-      <c r="X10" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1846,66 +1921,57 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="J11" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="L11" t="s">
         <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="N11" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="O11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" t="s">
         <v>153</v>
       </c>
-      <c r="P11" t="s">
-        <v>154</v>
-      </c>
       <c r="Q11" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="R11" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="S11" t="s">
-        <v>157</v>
-      </c>
-      <c r="T11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U11" t="s">
-        <v>159</v>
-      </c>
-      <c r="V11" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1914,57 +1980,72 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="Q12" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="R12" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="S12" t="s">
-        <v>141</v>
+        <v>169</v>
+      </c>
+      <c r="T12" t="s">
+        <v>170</v>
+      </c>
+      <c r="U12" t="s">
+        <v>105</v>
+      </c>
+      <c r="V12" t="s">
+        <v>106</v>
+      </c>
+      <c r="W12" t="s">
+        <v>107</v>
+      </c>
+      <c r="X12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -1973,63 +2054,66 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="Q13" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="R13" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="S13" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="T13" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="U13" t="s">
-        <v>122</v>
+        <v>159</v>
+      </c>
+      <c r="V13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2038,69 +2122,57 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="Q14" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="R14" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="S14" t="s">
-        <v>104</v>
-      </c>
-      <c r="T14" t="s">
-        <v>105</v>
-      </c>
-      <c r="U14" t="s">
-        <v>106</v>
-      </c>
-      <c r="V14" t="s">
-        <v>107</v>
-      </c>
-      <c r="W14" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2109,39 +2181,60 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="N15" t="s">
-        <v>50</v>
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>123</v>
+      </c>
+      <c r="R15" t="s">
+        <v>125</v>
+      </c>
+      <c r="S15" t="s">
+        <v>120</v>
+      </c>
+      <c r="T15" t="s">
+        <v>121</v>
+      </c>
+      <c r="U15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -2153,225 +2246,340 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" t="s">
+        <v>105</v>
+      </c>
+      <c r="U16" t="s">
+        <v>106</v>
+      </c>
+      <c r="V16" t="s">
+        <v>107</v>
+      </c>
+      <c r="W16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>73</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H18" t="s">
         <v>74</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>75</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J18" t="s">
         <v>76</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K18" t="s">
         <v>77</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L18" t="s">
         <v>78</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M18" t="s">
         <v>79</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N18" t="s">
         <v>80</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O18" t="s">
         <v>81</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P18" t="s">
         <v>82</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q18" t="s">
         <v>83</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R18" t="s">
         <v>84</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S18" t="s">
         <v>85</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T18" t="s">
         <v>86</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U18" t="s">
         <v>87</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V18" t="s">
         <v>88</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>27</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H19" t="s">
         <v>28</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I19" t="s">
         <v>32</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J19" t="s">
         <v>30</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K19" t="s">
         <v>26</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L19" t="s">
         <v>34</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M19" t="s">
         <v>35</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N19" t="s">
         <v>36</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O19" t="s">
         <v>38</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P19" t="s">
         <v>37</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q19" t="s">
         <v>31</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>44</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H20" t="s">
         <v>43</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J20" t="s">
         <v>46</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K20" t="s">
         <v>47</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L20" t="s">
         <v>48</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M20" t="s">
         <v>49</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
         <v>55</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>54</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H21" t="s">
         <v>53</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I21" t="s">
         <v>56</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J21" t="s">
         <v>57</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K21" t="s">
         <v>58</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L21" t="s">
         <v>59</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M21" t="s">
         <v>60</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N21" t="s">
         <v>61</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O21" t="s">
         <v>62</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P21" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q21" t="s">
         <v>64</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R21" t="s">
         <v>65</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S21" t="s">
         <v>66</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T21" t="s">
         <v>67</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U21" t="s">
         <v>68</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V21" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="344">
   <si>
     <t>S.No</t>
   </si>
@@ -946,6 +946,108 @@
   </si>
   <si>
     <t>आप अपने डॉक्यूमेंट किसी भी फर्जी लोगो को ना दे ( गेट पर आकार कॉल जरूर करे)|दस्तावेज- -2फोटो,आधार कार्ड;बैंकपासबुक (10th,12th Graduation ITI diploma)| अगर कोई कॉल न उठाये तो इस नंबर पर कॉल करें Pratima- 9773708919.</t>
+  </si>
+  <si>
+    <t>Bhagwati Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Interview Date – 15.04.2025</t>
+  </si>
+  <si>
+    <t>Time=08:30AM-12:30</t>
+  </si>
+  <si>
+    <t>Contact: Hari Associates9821583804,9821009064,7840002569,7840099803,</t>
+  </si>
+  <si>
+    <t>Interview Address: GG3V+CVF, Makora Village, Greater Noida, Uttar Pradesh 201310 ( Jagat Farm Gol Chakkar Se Auto milega Makoda Village ke liye)</t>
+  </si>
+  <si>
+    <t>Age- 18-32</t>
+  </si>
+  <si>
+    <t>Salary: 16547 Rs For SMT OPERATOR EXPERIENCE HOLDER</t>
+  </si>
+  <si>
+    <t>Unskilled Salary: 10995</t>
+  </si>
+  <si>
+    <t>Semi skilled Salary – 12094</t>
+  </si>
+  <si>
+    <t>Skilled Salary:- 13547</t>
+  </si>
+  <si>
+    <t>GWP Award- 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Overtime – 103 Per Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service Allowance (3,6,12) Month Amount 500,1000,1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education Required: 10th,12th, ITI,Graduate Only </t>
+  </si>
+  <si>
+    <t>Basic English Read &amp; Write is must</t>
+  </si>
+  <si>
+    <t>Aadhar Card/ITI &amp; Diploma/ all Orignal documents is must before interview</t>
+  </si>
+  <si>
+    <t>यह भर्ती पूरी तरह से निशुल्क है, इसीलिए किसी भी प्रकार का कोई भी शुल्क किसी भी ब्यक्ति को न दे, Hari Associates किसी भी प्रकार के रुपए का लेन देन नहीं करता है. अगर आपको रास्ते में कोई भी ठेकेदार रोकता है तो आपको किसी को भी अपने डॉक्यूमेंट नहीं देने हैं। आपको सीधा! इंटरव्यू वाले पत्ते पर ही पहुंचना है और सिर्फ हरि एसोसिएट्स के। को ही अपने डॉक्यूमेंट दे।</t>
+  </si>
+  <si>
+    <t>ILJIN Electronics</t>
+  </si>
+  <si>
+    <t>Gr. Noida</t>
+  </si>
+  <si>
+    <t>Company Location:-  Ecotech 3rd Greater Noida</t>
+  </si>
+  <si>
+    <t>Interview Address -: Gr.noida chouganpur gaolchakkar ILJIN ELECTRONIC IND.PVT.LTD., Plot no-:27,28 Gate no.02 Par hi hoga</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट:- 15/04/2025</t>
+  </si>
+  <si>
+    <t>इंटरव्यू का समय:- 7AM</t>
+  </si>
+  <si>
+    <t>contact: Vipin – 8081855351, Kuldeep 9599323604</t>
+  </si>
+  <si>
+    <t>Qualification-: 10th, 12th, Any Qualification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresher and experienced candidates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th, 12th , Salary-:       10701/-, OVER-TIME -: Double, Night Allowance -: 50 RS Per Night, </t>
+  </si>
+  <si>
+    <t>Lunch/Dinner-: 18 rs. Chargeble</t>
+  </si>
+  <si>
+    <t>Bus-: Available(Bus Route-: Surajpur, Sutiyana, Haldwani, Phase-2 Bhangel, Salarpur, Sec-37)</t>
+  </si>
+  <si>
+    <t>Age Limit:- 18 to 30</t>
+  </si>
+  <si>
+    <t>Local Candidate  Allowed</t>
+  </si>
+  <si>
+    <t>Ducuments Required :- Adhar Card, Qualification,covid Certificate, Resume .4 photo, Bank ki Passbook</t>
+  </si>
+  <si>
+    <t>ILJIN के बारे में।</t>
+  </si>
+  <si>
+    <t>2001 से अपनी भारतीय यात्रा के बाद से, ILJIN मुद्रित सर्किट बोर्ड का एक व्यापक निर्माता बन गया है। प्रतिस्पर्धी लागत पर सर्वोत्तम गुणवत्ता वाले उत्पादों की आपूर्ति के साथ अंतिम ग्राहक संतुष्टि बनाने पर हमारा ध्यान केंद्रित है। हमने अपने ग्राहकों को उच्च मूल्यवर्धित उत्पाद प्रदान किए हैं और रचनात्मक ग्राहक समाधान, त्वरित विकास और उच्च गुणवत्ता वाले उत्पादन प्रदान करने के लिए समर्पित हैं। हम लगातार अपनी मुख्य प्रौद्योगिकियों को बढ़ा रहे हैं और पीसीबी की आपूर्ति कर रहे हैं। ILJIN में हम बाजार की जरूरतों के आधार पर मूल्य निर्माण पर ध्यान केंद्रित करेंगे और अपने ग्राहकों के साथ मिलकर काम करके पीसीबी उत्पादों के मूल्यवान आपूर्तिकर्ता बनने पर ध्यान केंद्रित करना जारी रखेंगे। अपने विकसित होते नए रचनात्मक समाधानों के साथ, हम न केवल अपने ग्राहकों बल्कि अपने विक्रेताओं और कर्मचारियों की अपेक्षाओं को भी पार करने की उम्मीद करते हैं। लगातार बढ़ने और ILJIN में सुधार करने के लिए, हम अपने ग्राहकों को सम्मान और प्रशंसा के माध्यम से समृद्ध करते रहते हैं। हम एक विश्वसनीय कंपनी के रूप में पर्यावरण-अनुकूल और खुशहाल समाज को बढ़ावा देने का भी प्रयास करते हैं। ILJIN न केवल रचनात्मक सोच और नवीन तकनीकों के आधार पर बल्कि संपूर्ण ILJIN टीम के जुनून और चुनौतीपूर्ण भावना के आधार पर ग्राहक संतुष्टि को प्राथमिकता देकर एक विश्व स्तरीय कंपनी बनने का प्रयास करती है।</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,13 +1489,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1402,63 +1504,57 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="H2" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="I2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="J2" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="K2" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="L2" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="M2" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="N2" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="O2" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>339</v>
       </c>
       <c r="Q2" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="R2" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="S2" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="T2" t="s">
-        <v>308</v>
-      </c>
-      <c r="U2" t="s">
-        <v>131</v>
-      </c>
-      <c r="V2" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -1470,63 +1566,69 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="I3" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="K3" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="L3" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="M3" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="N3" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="O3" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="P3" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="Q3" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="R3" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="S3" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="T3" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="U3" t="s">
-        <v>159</v>
+        <v>324</v>
+      </c>
+      <c r="V3" t="s">
+        <v>325</v>
+      </c>
+      <c r="W3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1535,48 +1637,66 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="I4" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="J4" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="K4" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="L4" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="M4" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="N4" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="O4" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="P4" t="s">
-        <v>284</v>
+        <v>138</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>305</v>
+      </c>
+      <c r="R4" t="s">
+        <v>306</v>
+      </c>
+      <c r="S4" t="s">
+        <v>307</v>
+      </c>
+      <c r="T4" t="s">
+        <v>308</v>
+      </c>
+      <c r="U4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1585,45 +1705,60 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="I5" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="J5" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="K5" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="L5" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="M5" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="N5" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="O5" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="P5" t="s">
-        <v>271</v>
+        <v>291</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>292</v>
+      </c>
+      <c r="R5" t="s">
+        <v>293</v>
+      </c>
+      <c r="S5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" t="s">
+        <v>294</v>
+      </c>
+      <c r="U5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -1635,63 +1770,48 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="I6" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="J6" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="K6" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="L6" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M6" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="N6" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="O6" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>255</v>
-      </c>
-      <c r="R6" t="s">
-        <v>256</v>
-      </c>
-      <c r="S6" t="s">
-        <v>258</v>
-      </c>
-      <c r="T6" t="s">
-        <v>259</v>
-      </c>
-      <c r="U6" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1700,48 +1820,48 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="G7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="J7" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="K7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L7" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="M7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="N7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="O7" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1750,54 +1870,63 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="H8" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="I8" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="J8" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="K8" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="L8" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="M8" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="N8" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="O8" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="P8" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="Q8" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="R8" t="s">
-        <v>230</v>
+        <v>256</v>
+      </c>
+      <c r="S8" t="s">
+        <v>258</v>
+      </c>
+      <c r="T8" t="s">
+        <v>259</v>
+      </c>
+      <c r="U8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1806,57 +1935,48 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="I9" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="J9" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="K9" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="L9" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="M9" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="N9" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="O9" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>213</v>
-      </c>
-      <c r="R9" t="s">
-        <v>214</v>
-      </c>
-      <c r="S9" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1865,54 +1985,54 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="H10" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="I10" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="L10" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="M10" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="N10" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="O10" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="Q10" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="R10" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1921,57 +2041,57 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="H11" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="J11" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="K11" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="L11" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="M11" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="N11" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="O11" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="Q11" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="R11" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="S11" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1980,72 +2100,54 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="N12" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="O12" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="Q12" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="R12" t="s">
-        <v>103</v>
-      </c>
-      <c r="S12" t="s">
-        <v>169</v>
-      </c>
-      <c r="T12" t="s">
-        <v>170</v>
-      </c>
-      <c r="U12" t="s">
-        <v>105</v>
-      </c>
-      <c r="V12" t="s">
-        <v>106</v>
-      </c>
-      <c r="W12" t="s">
-        <v>107</v>
-      </c>
-      <c r="X12" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2054,66 +2156,57 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="L13" t="s">
         <v>150</v>
       </c>
       <c r="M13" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="O13" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" t="s">
         <v>153</v>
       </c>
-      <c r="P13" t="s">
-        <v>154</v>
-      </c>
       <c r="Q13" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="R13" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="S13" t="s">
-        <v>157</v>
-      </c>
-      <c r="T13" t="s">
-        <v>158</v>
-      </c>
-      <c r="U13" t="s">
-        <v>159</v>
-      </c>
-      <c r="V13" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2122,57 +2215,72 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="R14" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="S14" t="s">
-        <v>141</v>
+        <v>169</v>
+      </c>
+      <c r="T14" t="s">
+        <v>170</v>
+      </c>
+      <c r="U14" t="s">
+        <v>105</v>
+      </c>
+      <c r="V14" t="s">
+        <v>106</v>
+      </c>
+      <c r="W14" t="s">
+        <v>107</v>
+      </c>
+      <c r="X14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2181,63 +2289,66 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="Q15" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="R15" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="S15" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="T15" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="U15" t="s">
-        <v>122</v>
+        <v>159</v>
+      </c>
+      <c r="V15" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2246,69 +2357,57 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="M16" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="Q16" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="R16" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="S16" t="s">
-        <v>104</v>
-      </c>
-      <c r="T16" t="s">
-        <v>105</v>
-      </c>
-      <c r="U16" t="s">
-        <v>106</v>
-      </c>
-      <c r="V16" t="s">
-        <v>107</v>
-      </c>
-      <c r="W16" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2317,39 +2416,60 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>118</v>
+      </c>
+      <c r="O17" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" t="s">
+        <v>125</v>
+      </c>
+      <c r="S17" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" t="s">
+        <v>121</v>
+      </c>
+      <c r="U17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -2361,69 +2481,69 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="N18" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="Q18" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="R18" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="S18" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="T18" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="U18" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="V18" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="W18" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2432,54 +2552,42 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2488,98 +2596,225 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" t="s">
+        <v>84</v>
+      </c>
+      <c r="S20" t="s">
+        <v>85</v>
+      </c>
+      <c r="T20" t="s">
+        <v>86</v>
+      </c>
+      <c r="U20" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" t="s">
+        <v>88</v>
+      </c>
+      <c r="W20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
         <v>55</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" t="s">
         <v>54</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H23" t="s">
         <v>53</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I23" t="s">
         <v>56</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J23" t="s">
         <v>57</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K23" t="s">
         <v>58</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L23" t="s">
         <v>59</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M23" t="s">
         <v>60</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N23" t="s">
         <v>61</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O23" t="s">
         <v>62</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P23" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q23" t="s">
         <v>64</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R23" t="s">
         <v>65</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S23" t="s">
         <v>66</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T23" t="s">
         <v>67</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U23" t="s">
         <v>68</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V23" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="354">
   <si>
     <t>S.No</t>
   </si>
@@ -1048,6 +1048,36 @@
   </si>
   <si>
     <t>2001 से अपनी भारतीय यात्रा के बाद से, ILJIN मुद्रित सर्किट बोर्ड का एक व्यापक निर्माता बन गया है। प्रतिस्पर्धी लागत पर सर्वोत्तम गुणवत्ता वाले उत्पादों की आपूर्ति के साथ अंतिम ग्राहक संतुष्टि बनाने पर हमारा ध्यान केंद्रित है। हमने अपने ग्राहकों को उच्च मूल्यवर्धित उत्पाद प्रदान किए हैं और रचनात्मक ग्राहक समाधान, त्वरित विकास और उच्च गुणवत्ता वाले उत्पादन प्रदान करने के लिए समर्पित हैं। हम लगातार अपनी मुख्य प्रौद्योगिकियों को बढ़ा रहे हैं और पीसीबी की आपूर्ति कर रहे हैं। ILJIN में हम बाजार की जरूरतों के आधार पर मूल्य निर्माण पर ध्यान केंद्रित करेंगे और अपने ग्राहकों के साथ मिलकर काम करके पीसीबी उत्पादों के मूल्यवान आपूर्तिकर्ता बनने पर ध्यान केंद्रित करना जारी रखेंगे। अपने विकसित होते नए रचनात्मक समाधानों के साथ, हम न केवल अपने ग्राहकों बल्कि अपने विक्रेताओं और कर्मचारियों की अपेक्षाओं को भी पार करने की उम्मीद करते हैं। लगातार बढ़ने और ILJIN में सुधार करने के लिए, हम अपने ग्राहकों को सम्मान और प्रशंसा के माध्यम से समृद्ध करते रहते हैं। हम एक विश्वसनीय कंपनी के रूप में पर्यावरण-अनुकूल और खुशहाल समाज को बढ़ावा देने का भी प्रयास करते हैं। ILJIN न केवल रचनात्मक सोच और नवीन तकनीकों के आधार पर बल्कि संपूर्ण ILJIN टीम के जुनून और चुनौतीपूर्ण भावना के आधार पर ग्राहक संतुष्टि को प्राथमिकता देकर एक विश्व स्तरीय कंपनी बनने का प्रयास करती है।</t>
+  </si>
+  <si>
+    <t>Adarsh Cement Products Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Kasna GB Nagar</t>
+  </si>
+  <si>
+    <t>Plot No: 20,21,22 Site-V Surajpur industrial area jail road kasna, Near-PPAP Company</t>
+  </si>
+  <si>
+    <t>Job Position: Helper</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट:- 16 April Se 20 April</t>
+  </si>
+  <si>
+    <t>इंटरव्यू का समय:- 9AM-6PM</t>
+  </si>
+  <si>
+    <t>Contact: Subham Sachan- 7984785579</t>
+  </si>
+  <si>
+    <t>Salary: 12500 Rs</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ:  Free Room</t>
+  </si>
+  <si>
+    <t>No Qualification required</t>
   </si>
 </sst>
 </file>
@@ -1400,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,13 +1519,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1504,60 +1534,39 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="G2" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="I2" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="J2" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="K2" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="L2" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M2" t="s">
-        <v>336</v>
-      </c>
-      <c r="N2" t="s">
-        <v>337</v>
-      </c>
-      <c r="O2" t="s">
-        <v>338</v>
-      </c>
-      <c r="P2" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>340</v>
-      </c>
-      <c r="R2" t="s">
-        <v>341</v>
-      </c>
-      <c r="S2" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1566,69 +1575,60 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="H3" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="I3" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="J3" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="K3" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="L3" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="M3" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="N3" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="O3" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="P3" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="Q3" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="R3" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="S3" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="T3" t="s">
-        <v>323</v>
-      </c>
-      <c r="U3" t="s">
-        <v>324</v>
-      </c>
-      <c r="V3" t="s">
-        <v>325</v>
-      </c>
-      <c r="W3" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1637,66 +1637,69 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I4" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="J4" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K4" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L4" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M4" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="N4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="O4" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>320</v>
       </c>
       <c r="Q4" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="R4" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="S4" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="T4" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="U4" t="s">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="V4" t="s">
-        <v>309</v>
+        <v>325</v>
+      </c>
+      <c r="W4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1705,60 +1708,63 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>297</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="I5" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="L5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="M5" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N5" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="O5" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="P5" t="s">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="Q5" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="R5" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="S5" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="T5" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="U5" t="s">
-        <v>159</v>
+        <v>131</v>
+      </c>
+      <c r="V5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -1770,48 +1776,63 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I6" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="J6" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="K6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L6" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="N6" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="O6" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="P6" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>292</v>
+      </c>
+      <c r="R6" t="s">
+        <v>293</v>
+      </c>
+      <c r="S6" t="s">
+        <v>153</v>
+      </c>
+      <c r="T6" t="s">
+        <v>294</v>
+      </c>
+      <c r="U6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1820,48 +1841,48 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="J7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="K7" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="M7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="N7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="O7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1870,63 +1891,48 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H8" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="I8" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="J8" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L8" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M8" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="N8" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O8" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P8" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>255</v>
-      </c>
-      <c r="R8" t="s">
-        <v>256</v>
-      </c>
-      <c r="S8" t="s">
-        <v>258</v>
-      </c>
-      <c r="T8" t="s">
-        <v>259</v>
-      </c>
-      <c r="U8" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1935,48 +1941,63 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="I9" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J9" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K9" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L9" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M9" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N9" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O9" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>255</v>
+      </c>
+      <c r="R9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S9" t="s">
+        <v>258</v>
+      </c>
+      <c r="T9" t="s">
+        <v>259</v>
+      </c>
+      <c r="U9" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1985,54 +2006,48 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H10" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I10" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="J10" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K10" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L10" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M10" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N10" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O10" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>229</v>
-      </c>
-      <c r="R10" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2041,57 +2056,54 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I11" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J11" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L11" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M11" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="N11" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O11" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q11" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="R11" t="s">
-        <v>214</v>
-      </c>
-      <c r="S11" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2100,54 +2112,57 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I12" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J12" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K12" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L12" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N12" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O12" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q12" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="R12" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="S12" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2156,57 +2171,54 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I13" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J13" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K13" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M13" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N13" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O13" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q13" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R13" t="s">
-        <v>183</v>
-      </c>
-      <c r="S13" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2215,72 +2227,57 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H14" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N14" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O14" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q14" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R14" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S14" t="s">
-        <v>169</v>
-      </c>
-      <c r="T14" t="s">
-        <v>170</v>
-      </c>
-      <c r="U14" t="s">
-        <v>105</v>
-      </c>
-      <c r="V14" t="s">
-        <v>106</v>
-      </c>
-      <c r="W14" t="s">
-        <v>107</v>
-      </c>
-      <c r="X14" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2289,66 +2286,72 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M15" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q15" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R15" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S15" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T15" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U15" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V15" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W15" t="s">
+        <v>107</v>
+      </c>
+      <c r="X15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2357,57 +2360,66 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q16" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R16" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S16" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T16" t="s">
+        <v>158</v>
+      </c>
+      <c r="U16" t="s">
+        <v>159</v>
+      </c>
+      <c r="V16" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2416,63 +2428,57 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N17" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O17" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R17" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S17" t="s">
-        <v>120</v>
-      </c>
-      <c r="T17" t="s">
-        <v>121</v>
-      </c>
-      <c r="U17" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2481,69 +2487,63 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M18" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P18" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q18" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R18" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S18" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T18" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U18" t="s">
-        <v>106</v>
-      </c>
-      <c r="V18" t="s">
-        <v>107</v>
-      </c>
-      <c r="W18" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2552,42 +2552,69 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N19" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S19" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" t="s">
+        <v>105</v>
+      </c>
+      <c r="U19" t="s">
+        <v>106</v>
+      </c>
+      <c r="V19" t="s">
+        <v>107</v>
+      </c>
+      <c r="W19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2596,69 +2623,42 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>83</v>
-      </c>
-      <c r="R20" t="s">
-        <v>84</v>
-      </c>
-      <c r="S20" t="s">
-        <v>85</v>
-      </c>
-      <c r="T20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
-        <v>87</v>
-      </c>
-      <c r="V20" t="s">
-        <v>88</v>
-      </c>
-      <c r="W20" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2667,54 +2667,69 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M21" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q21" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R21" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S21" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21" t="s">
+        <v>86</v>
+      </c>
+      <c r="U21" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21" t="s">
+        <v>88</v>
+      </c>
+      <c r="W21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2723,98 +2738,154 @@
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
         <v>55</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>54</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>53</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" t="s">
         <v>56</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J24" t="s">
         <v>57</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K24" t="s">
         <v>58</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L24" t="s">
         <v>59</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M24" t="s">
         <v>60</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N24" t="s">
         <v>61</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O24" t="s">
         <v>62</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P24" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q24" t="s">
         <v>64</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R24" t="s">
         <v>65</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S24" t="s">
         <v>66</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T24" t="s">
         <v>67</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U24" t="s">
         <v>68</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V24" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="387">
   <si>
     <t>S.No</t>
   </si>
@@ -1050,44 +1050,151 @@
     <t>2001 से अपनी भारतीय यात्रा के बाद से, ILJIN मुद्रित सर्किट बोर्ड का एक व्यापक निर्माता बन गया है। प्रतिस्पर्धी लागत पर सर्वोत्तम गुणवत्ता वाले उत्पादों की आपूर्ति के साथ अंतिम ग्राहक संतुष्टि बनाने पर हमारा ध्यान केंद्रित है। हमने अपने ग्राहकों को उच्च मूल्यवर्धित उत्पाद प्रदान किए हैं और रचनात्मक ग्राहक समाधान, त्वरित विकास और उच्च गुणवत्ता वाले उत्पादन प्रदान करने के लिए समर्पित हैं। हम लगातार अपनी मुख्य प्रौद्योगिकियों को बढ़ा रहे हैं और पीसीबी की आपूर्ति कर रहे हैं। ILJIN में हम बाजार की जरूरतों के आधार पर मूल्य निर्माण पर ध्यान केंद्रित करेंगे और अपने ग्राहकों के साथ मिलकर काम करके पीसीबी उत्पादों के मूल्यवान आपूर्तिकर्ता बनने पर ध्यान केंद्रित करना जारी रखेंगे। अपने विकसित होते नए रचनात्मक समाधानों के साथ, हम न केवल अपने ग्राहकों बल्कि अपने विक्रेताओं और कर्मचारियों की अपेक्षाओं को भी पार करने की उम्मीद करते हैं। लगातार बढ़ने और ILJIN में सुधार करने के लिए, हम अपने ग्राहकों को सम्मान और प्रशंसा के माध्यम से समृद्ध करते रहते हैं। हम एक विश्वसनीय कंपनी के रूप में पर्यावरण-अनुकूल और खुशहाल समाज को बढ़ावा देने का भी प्रयास करते हैं। ILJIN न केवल रचनात्मक सोच और नवीन तकनीकों के आधार पर बल्कि संपूर्ण ILJIN टीम के जुनून और चुनौतीपूर्ण भावना के आधार पर ग्राहक संतुष्टि को प्राथमिकता देकर एक विश्व स्तरीय कंपनी बनने का प्रयास करती है।</t>
   </si>
   <si>
-    <t>Adarsh Cement Products Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Kasna GB Nagar</t>
-  </si>
-  <si>
-    <t>Plot No: 20,21,22 Site-V Surajpur industrial area jail road kasna, Near-PPAP Company</t>
-  </si>
-  <si>
-    <t>Job Position: Helper</t>
-  </si>
-  <si>
-    <t>इंटरव्यू डेट:- 16 April Se 20 April</t>
-  </si>
-  <si>
-    <t>इंटरव्यू का समय:- 9AM-6PM</t>
-  </si>
-  <si>
-    <t>Contact: Subham Sachan- 7984785579</t>
-  </si>
-  <si>
-    <t>Salary: 12500 Rs</t>
-  </si>
-  <si>
-    <t>अतिरिक्त लाभ:  Free Room</t>
-  </si>
-  <si>
-    <t>No Qualification required</t>
+    <t>Dreamtech Electronics India Pvt Ltd Kasna</t>
+  </si>
+  <si>
+    <t>Greater Noida Kasna</t>
+  </si>
+  <si>
+    <t>Company Location:- Samkwang Company Ke paas Ghanghola Kasna Gr. Noida</t>
+  </si>
+  <si>
+    <t>Interview Time - 8 AM  Experience 1-2- Year In SMT And Assembly Department</t>
+  </si>
+  <si>
+    <t>Education Required &gt; 12th, ITI, Graduation B-Tech Diploma</t>
+  </si>
+  <si>
+    <t>Contact: AKS Associates Pvt.Ltd, 9311776696, 9311740996 https://maps.app.goo.gl/HzykVhpFefLn69CS7</t>
+  </si>
+  <si>
+    <t>न्यूनतम दूरी:- 100 Km सिर्फ़ वो ही लोग आये जिसने Assembly and SMT Department काम किया है</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education Required &gt; 12th, ITI, Graduation B-Tech Diploma  </t>
+  </si>
+  <si>
+    <t>Salary  :- (14000 -22000) As per interview Overtime:- Double Bus &amp; Canteen :- Free</t>
+  </si>
+  <si>
+    <t>Experience : 1-2 year in SMT and Assembly Department Salary  :- (14000 -22000) As per interview Overtime:- Double Bus &amp; Canteen :- Free</t>
+  </si>
+  <si>
+    <t>Come in proper dress code(slippers &amp; lowers etc not allowed 🚫) All the very best for Recruitment</t>
+  </si>
+  <si>
+    <t>Sunwoda Electronics  COMPANY Surajpur, Greater Noida</t>
+  </si>
+  <si>
+    <t>COMPANY Surajpur, Greater Noida</t>
+  </si>
+  <si>
+    <t>INTERVIEW TIME : 08:00AM</t>
+  </si>
+  <si>
+    <t>B-82, Beta-I, Gate No- 1 k pass ,greater noida, Near by, jagatform golchakar https://maps.google.com/maps?q=28.4774068%2C77.5036163&amp;z=17&amp;hl=en</t>
+  </si>
+  <si>
+    <t>LOCATION - https://maps.google.com/maps?q=28.4774068%2C77.5036163&amp;z=17&amp;hl=en</t>
+  </si>
+  <si>
+    <t>documents की फोटोकॉपी और original लेकर आने है  Resume, 2 Passport size photo, Educational Certificates (10th,Marksheet ) Aadhar Card Bank Passbook</t>
+  </si>
+  <si>
+    <t>Salary  :- 12094/- Bonus:- 1007/- Overtime-116/- Attendance award - 900/- Night allowances - 50/night,</t>
+  </si>
+  <si>
+    <t>न्यूनतम दूरी:- 200Km  Education Required-: 10th,12th, ITI, Diploma</t>
+  </si>
+  <si>
+    <t>Ayush Enterprises  CONTACT &gt;  9311776691, 9650495005</t>
+  </si>
+  <si>
+    <t>ONLY BOYS, आयु:-18- 30 वर्ष</t>
+  </si>
+  <si>
+    <t>UIL_Electronics (Apprenticeship profile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interview Date- 18-04-2025</t>
+  </si>
+  <si>
+    <t>Injterview Time &gt; 7AM TO AM</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता :- Ecotec 1 Extension Greater Noida https://maps.app.goo.gl/q9u6zYudW1AZCLaY8?g_st=com.google.maps.preview.copy</t>
+  </si>
+  <si>
+    <t>Qualification:- 12th graduate ITI  or Diploma</t>
+  </si>
+  <si>
+    <t>Salary_11000_Inhand, Overtime_double, Lunch_Dinner_Free, Bus_free</t>
+  </si>
+  <si>
+    <t>Contact person:- Ark_Workforce ,  Vishan - +91 9315473717, Sumit bhati -80764 00824, Lokendra- 9690643861</t>
+  </si>
+  <si>
+    <t>PPAP AUTOMOTIVE LTD phase-2</t>
+  </si>
+  <si>
+    <t>Noida Phase-2</t>
+  </si>
+  <si>
+    <t>INTERVIEW DATE: 19-04-2025  INTERVIEW TIME 8AM</t>
+  </si>
+  <si>
+    <t>PPAP Automotive Limited, B-206, Sector-81, Noida Phase-2</t>
+  </si>
+  <si>
+    <t>salary_INHAND 10800 FOR 10th,12th, graduation &amp;ITI salary_INHAND_14000 (for Diploma) Attendance_Award_850</t>
+  </si>
+  <si>
+    <t>BUS_FREE UNIFORM_FREE, OT_SINGLE Night Allowance 35 Kizen 450 Canteen_22/day</t>
+  </si>
+  <si>
+    <t>CONTACT &gt; Sashi - 9319256091 Ankit- 8477873797</t>
+  </si>
+  <si>
+    <t>TRANSSION (itel)</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :- 19-April-2025</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता :- G-246 Sector 63 G,  https://maps.app.goo.gl/oDywEJJLtvZRMAsN9?g_st=com.google.maps.preview.copy</t>
+  </si>
+  <si>
+    <t>योग्यता-:  12th, Graduation, ITI Diploma ( FRESHER )</t>
+  </si>
+  <si>
+    <t>Salary: Take Home Salary :- 11000/-</t>
+  </si>
+  <si>
+    <t>अतिरिक्त लाभ: Lunch/Dinner Free, 100 ओवरटाइम Double</t>
+  </si>
+  <si>
+    <t>यह भर्ती पूरी तरह से निःशुल्क  है, इसीलिए किसी भी प्रकार का कोई भी शुल्क किसी भी ब्यक्ति को न दे, ARK workforce   और naukripesa.com किसी भी प्रकार के रुपए का लेन देन नही करता है |साक्षात्कार के लिए बहुत  शुभकामनाएं।</t>
+  </si>
+  <si>
+    <t>INTERVIEW DATE-: 19/04/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1122,15 +1229,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1430,17 +1541,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.85546875" customWidth="1"/>
+    <col min="7" max="7" width="121.140625" customWidth="1"/>
+    <col min="8" max="8" width="138.7109375" customWidth="1"/>
+    <col min="9" max="9" width="80.7109375" customWidth="1"/>
+    <col min="10" max="10" width="103.5703125" customWidth="1"/>
+    <col min="11" max="11" width="137.140625" customWidth="1"/>
+    <col min="12" max="12" width="137.28515625" customWidth="1"/>
+    <col min="13" max="13" width="140.140625" customWidth="1"/>
+    <col min="14" max="14" width="127" customWidth="1"/>
+    <col min="15" max="15" width="174.5703125" customWidth="1"/>
+    <col min="16" max="16" width="174.28515625" customWidth="1"/>
+    <col min="17" max="17" width="98" customWidth="1"/>
+    <col min="18" max="18" width="152.7109375" customWidth="1"/>
+    <col min="19" max="19" width="176.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -1519,13 +1646,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1534,39 +1661,48 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="G2" t="s">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="I2" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="K2" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="L2" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="M2" t="s">
-        <v>353</v>
+        <v>240</v>
+      </c>
+      <c r="N2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" t="s">
+        <v>384</v>
+      </c>
+      <c r="P2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1575,60 +1711,33 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="H3" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="I3" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="J3" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="K3" t="s">
-        <v>334</v>
-      </c>
-      <c r="L3" t="s">
-        <v>335</v>
-      </c>
-      <c r="M3" t="s">
-        <v>336</v>
-      </c>
-      <c r="N3" t="s">
-        <v>337</v>
-      </c>
-      <c r="O3" t="s">
-        <v>338</v>
-      </c>
-      <c r="P3" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>340</v>
-      </c>
-      <c r="R3" t="s">
-        <v>341</v>
-      </c>
-      <c r="S3" t="s">
-        <v>342</v>
-      </c>
-      <c r="T3" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1637,69 +1746,42 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>386</v>
       </c>
       <c r="G4" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="H4" t="s">
-        <v>314</v>
-      </c>
-      <c r="I4" t="s">
-        <v>313</v>
+        <v>358</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="J4" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="K4" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="L4" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="M4" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="N4" t="s">
-        <v>319</v>
-      </c>
-      <c r="O4" t="s">
-        <v>250</v>
-      </c>
-      <c r="P4" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>321</v>
-      </c>
-      <c r="R4" t="s">
-        <v>322</v>
-      </c>
-      <c r="S4" t="s">
-        <v>269</v>
-      </c>
-      <c r="T4" t="s">
-        <v>323</v>
-      </c>
-      <c r="U4" t="s">
-        <v>324</v>
-      </c>
-      <c r="V4" t="s">
-        <v>325</v>
-      </c>
-      <c r="W4" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1708,66 +1790,42 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="J5" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K5" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="M5" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="N5" t="s">
-        <v>303</v>
-      </c>
-      <c r="O5" t="s">
-        <v>304</v>
-      </c>
-      <c r="P5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>305</v>
-      </c>
-      <c r="R5" t="s">
-        <v>306</v>
-      </c>
-      <c r="S5" t="s">
-        <v>307</v>
-      </c>
-      <c r="T5" t="s">
-        <v>308</v>
-      </c>
-      <c r="U5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V5" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1776,60 +1834,57 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>329</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="I6" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c r="K6" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="L6" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="M6" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="N6" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="O6" t="s">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="P6" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="Q6" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="R6" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="S6" t="s">
-        <v>153</v>
+        <v>342</v>
       </c>
       <c r="T6" t="s">
-        <v>294</v>
-      </c>
-      <c r="U6" t="s">
-        <v>159</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -1841,48 +1896,69 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="H7" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="J7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="K7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="L7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="M7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="N7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="O7" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="P7" t="s">
-        <v>284</v>
+        <v>320</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>321</v>
+      </c>
+      <c r="R7" t="s">
+        <v>322</v>
+      </c>
+      <c r="S7" t="s">
+        <v>269</v>
+      </c>
+      <c r="T7" t="s">
+        <v>323</v>
+      </c>
+      <c r="U7" t="s">
+        <v>324</v>
+      </c>
+      <c r="V7" t="s">
+        <v>325</v>
+      </c>
+      <c r="W7" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1891,45 +1967,63 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J8" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K8" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="L8" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="M8" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N8" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="O8" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="P8" t="s">
-        <v>271</v>
+        <v>138</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>305</v>
+      </c>
+      <c r="R8" t="s">
+        <v>306</v>
+      </c>
+      <c r="S8" t="s">
+        <v>307</v>
+      </c>
+      <c r="T8" t="s">
+        <v>308</v>
+      </c>
+      <c r="U8" t="s">
+        <v>131</v>
+      </c>
+      <c r="V8" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -1941,63 +2035,63 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="I9" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="J9" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="K9" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="L9" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="M9" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="N9" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="O9" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="Q9" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="R9" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="S9" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="T9" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="U9" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -2006,48 +2100,48 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="H10" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="I10" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="J10" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="K10" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="L10" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="M10" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="N10" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="O10" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="P10" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2056,54 +2150,48 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="H11" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="I11" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="J11" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="K11" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="L11" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="M11" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="N11" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="O11" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>229</v>
-      </c>
-      <c r="R11" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2112,57 +2200,63 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="J12" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="L12" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="M12" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="N12" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="O12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="Q12" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="R12" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="S12" t="s">
-        <v>215</v>
+        <v>258</v>
+      </c>
+      <c r="T12" t="s">
+        <v>259</v>
+      </c>
+      <c r="U12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2171,54 +2265,48 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="H13" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="I13" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="J13" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="K13" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="L13" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="M13" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="N13" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="O13" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>198</v>
-      </c>
-      <c r="R13" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2227,57 +2315,54 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="H14" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="I14" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="J14" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="M14" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="N14" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="O14" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="Q14" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="R14" t="s">
-        <v>183</v>
-      </c>
-      <c r="S14" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2286,500 +2371,503 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="O15" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="Q15" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="R15" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="S15" t="s">
-        <v>169</v>
-      </c>
-      <c r="T15" t="s">
-        <v>170</v>
-      </c>
-      <c r="U15" t="s">
-        <v>105</v>
-      </c>
-      <c r="V15" t="s">
-        <v>106</v>
-      </c>
-      <c r="W15" t="s">
-        <v>107</v>
-      </c>
-      <c r="X15" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>198</v>
+      </c>
+      <c r="R16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="s">
+        <v>179</v>
+      </c>
+      <c r="N17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>182</v>
+      </c>
+      <c r="R17" t="s">
+        <v>183</v>
+      </c>
+      <c r="S17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S18" t="s">
+        <v>169</v>
+      </c>
+      <c r="T18" t="s">
+        <v>170</v>
+      </c>
+      <c r="U18" t="s">
+        <v>105</v>
+      </c>
+      <c r="V18" t="s">
+        <v>106</v>
+      </c>
+      <c r="W18" t="s">
+        <v>107</v>
+      </c>
+      <c r="X18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>142</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>143</v>
       </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
         <v>144</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G19" t="s">
         <v>145</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H19" t="s">
         <v>146</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I19" t="s">
         <v>147</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J19" t="s">
         <v>148</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K19" t="s">
         <v>149</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L19" t="s">
         <v>150</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M19" t="s">
         <v>151</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N19" t="s">
         <v>152</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O19" t="s">
         <v>153</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P19" t="s">
         <v>154</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q19" t="s">
         <v>155</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R19" t="s">
         <v>156</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S19" t="s">
         <v>157</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T19" t="s">
         <v>158</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U19" t="s">
         <v>159</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>126</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
         <v>129</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H20" t="s">
         <v>130</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I20" t="s">
         <v>132</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J20" t="s">
         <v>131</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K20" t="s">
         <v>133</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L20" t="s">
         <v>134</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M20" t="s">
         <v>136</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N20" t="s">
         <v>135</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O20" t="s">
         <v>137</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P20" t="s">
         <v>138</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q20" t="s">
         <v>139</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R20" t="s">
         <v>140</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>111</v>
       </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
         <v>110</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G21" t="s">
         <v>112</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H21" t="s">
         <v>113</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I21" t="s">
         <v>114</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J21" t="s">
         <v>115</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L21" t="s">
         <v>116</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M21" t="s">
         <v>117</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N21" t="s">
         <v>118</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O21" t="s">
         <v>119</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P21" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q21" t="s">
         <v>123</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R21" t="s">
         <v>125</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S21" t="s">
         <v>120</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T21" t="s">
         <v>121</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>90</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
         <v>91</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G22" t="s">
         <v>92</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I22" t="s">
         <v>94</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J22" t="s">
         <v>95</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K22" t="s">
         <v>96</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L22" t="s">
         <v>97</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M22" t="s">
         <v>98</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N22" t="s">
         <v>99</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O22" t="s">
         <v>100</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P22" t="s">
         <v>101</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q22" t="s">
         <v>102</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R22" t="s">
         <v>103</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S22" t="s">
         <v>104</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T22" t="s">
         <v>105</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U22" t="s">
         <v>106</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V22" t="s">
         <v>107</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" t="s">
-        <v>80</v>
-      </c>
-      <c r="O21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>83</v>
-      </c>
-      <c r="R21" t="s">
-        <v>84</v>
-      </c>
-      <c r="S21" t="s">
-        <v>85</v>
-      </c>
-      <c r="T21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U21" t="s">
-        <v>87</v>
-      </c>
-      <c r="V21" t="s">
-        <v>88</v>
-      </c>
-      <c r="W21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -2797,7 +2885,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s">
         <v>43</v>
@@ -2821,77 +2909,289 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" t="s">
+        <v>85</v>
+      </c>
+      <c r="T24" t="s">
+        <v>86</v>
+      </c>
+      <c r="U24" t="s">
+        <v>87</v>
+      </c>
+      <c r="V24" t="s">
+        <v>88</v>
+      </c>
+      <c r="W24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>52</v>
       </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
         <v>55</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G27" t="s">
         <v>54</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H27" t="s">
         <v>53</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I27" t="s">
         <v>56</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J27" t="s">
         <v>57</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K27" t="s">
         <v>58</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L27" t="s">
         <v>59</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M27" t="s">
         <v>60</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N27" t="s">
         <v>61</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O27" t="s">
         <v>62</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P27" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q27" t="s">
         <v>64</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R27" t="s">
         <v>65</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S27" t="s">
         <v>66</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T27" t="s">
         <v>67</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U27" t="s">
         <v>68</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V27" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" t="s">
+        <v>367</v>
+      </c>
+      <c r="H28" t="s">
+        <v>368</v>
+      </c>
+      <c r="I28" t="s">
+        <v>371</v>
+      </c>
+      <c r="J28" t="s">
+        <v>369</v>
+      </c>
+      <c r="K28" t="s">
+        <v>370</v>
+      </c>
+      <c r="L28" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" display="https://maps.google.com/maps?q=28.4774068%2C77.5036163&amp;z=17&amp;hl=en"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -1543,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>379</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>372</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>355</v>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="C5" t="s">
         <v>345</v>
@@ -1789,43 +1789,37 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>346</v>
+      <c r="F5" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="G5" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="H5" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="J5" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="K5" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="L5" t="s">
-        <v>352</v>
-      </c>
-      <c r="M5" t="s">
-        <v>353</v>
-      </c>
-      <c r="N5" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1834,60 +1828,42 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="G6" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="H6" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="I6" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="J6" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="K6" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="L6" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M6" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="N6" t="s">
-        <v>337</v>
-      </c>
-      <c r="O6" t="s">
-        <v>338</v>
-      </c>
-      <c r="P6" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>340</v>
-      </c>
-      <c r="R6" t="s">
-        <v>341</v>
-      </c>
-      <c r="S6" t="s">
-        <v>342</v>
-      </c>
-      <c r="T6" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1896,69 +1872,60 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="G7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="I7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="J7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="K7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="L7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="M7" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="N7" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="O7" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="P7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="Q7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="R7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="S7" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="T7" t="s">
-        <v>323</v>
-      </c>
-      <c r="U7" t="s">
-        <v>324</v>
-      </c>
-      <c r="V7" t="s">
-        <v>325</v>
-      </c>
-      <c r="W7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1967,66 +1934,69 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I8" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="J8" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K8" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L8" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M8" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="N8" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="O8" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>320</v>
       </c>
       <c r="Q8" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="R8" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="S8" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="T8" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="U8" t="s">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="V8" t="s">
-        <v>309</v>
+        <v>325</v>
+      </c>
+      <c r="W8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -2035,60 +2005,63 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>297</v>
       </c>
       <c r="H9" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="I9" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="J9" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="K9" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="L9" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="M9" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N9" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="O9" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="P9" t="s">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="Q9" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="R9" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="S9" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="T9" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="U9" t="s">
-        <v>159</v>
+        <v>131</v>
+      </c>
+      <c r="V9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
@@ -2100,48 +2073,63 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I10" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="J10" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="K10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M10" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="N10" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="O10" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="P10" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>292</v>
+      </c>
+      <c r="R10" t="s">
+        <v>293</v>
+      </c>
+      <c r="S10" t="s">
+        <v>153</v>
+      </c>
+      <c r="T10" t="s">
+        <v>294</v>
+      </c>
+      <c r="U10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2150,48 +2138,48 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G11" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H11" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I11" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="J11" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="K11" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L11" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="M11" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="N11" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="O11" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P11" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2200,63 +2188,48 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="J12" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L12" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M12" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="N12" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O12" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P12" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>255</v>
-      </c>
-      <c r="R12" t="s">
-        <v>256</v>
-      </c>
-      <c r="S12" t="s">
-        <v>258</v>
-      </c>
-      <c r="T12" t="s">
-        <v>259</v>
-      </c>
-      <c r="U12" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2265,48 +2238,63 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H13" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="I13" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J13" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K13" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L13" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M13" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N13" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O13" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P13" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>255</v>
+      </c>
+      <c r="R13" t="s">
+        <v>256</v>
+      </c>
+      <c r="S13" t="s">
+        <v>258</v>
+      </c>
+      <c r="T13" t="s">
+        <v>259</v>
+      </c>
+      <c r="U13" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2315,54 +2303,48 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G14" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H14" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I14" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="J14" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K14" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L14" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M14" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N14" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O14" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>229</v>
-      </c>
-      <c r="R14" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2371,57 +2353,54 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H15" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I15" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J15" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K15" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L15" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M15" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="N15" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O15" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q15" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="R15" t="s">
-        <v>214</v>
-      </c>
-      <c r="S15" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2430,54 +2409,57 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G16" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I16" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J16" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K16" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L16" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M16" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N16" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O16" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q16" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="R16" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="S16" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2486,57 +2468,54 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R17" t="s">
-        <v>183</v>
-      </c>
-      <c r="S17" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2545,72 +2524,57 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q18" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R18" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S18" t="s">
-        <v>169</v>
-      </c>
-      <c r="T18" t="s">
-        <v>170</v>
-      </c>
-      <c r="U18" t="s">
-        <v>105</v>
-      </c>
-      <c r="V18" t="s">
-        <v>106</v>
-      </c>
-      <c r="W18" t="s">
-        <v>107</v>
-      </c>
-      <c r="X18" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2619,66 +2583,72 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M19" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q19" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R19" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S19" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T19" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U19" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V19" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W19" t="s">
+        <v>107</v>
+      </c>
+      <c r="X19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2687,57 +2657,66 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O20" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q20" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R20" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S20" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T20" t="s">
+        <v>158</v>
+      </c>
+      <c r="U20" t="s">
+        <v>159</v>
+      </c>
+      <c r="V20" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2746,63 +2725,57 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N21" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O21" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q21" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R21" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S21" t="s">
-        <v>120</v>
-      </c>
-      <c r="T21" t="s">
-        <v>121</v>
-      </c>
-      <c r="U21" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2811,69 +2784,63 @@
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M22" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N22" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P22" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q22" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R22" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S22" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T22" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U22" t="s">
-        <v>106</v>
-      </c>
-      <c r="V22" t="s">
-        <v>107</v>
-      </c>
-      <c r="W22" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2882,42 +2849,69 @@
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M23" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N23" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" t="s">
+        <v>103</v>
+      </c>
+      <c r="S23" t="s">
+        <v>104</v>
+      </c>
+      <c r="T23" t="s">
+        <v>105</v>
+      </c>
+      <c r="U23" t="s">
+        <v>106</v>
+      </c>
+      <c r="V23" t="s">
+        <v>107</v>
+      </c>
+      <c r="W23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -2926,69 +2920,42 @@
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>83</v>
-      </c>
-      <c r="R24" t="s">
-        <v>84</v>
-      </c>
-      <c r="S24" t="s">
-        <v>85</v>
-      </c>
-      <c r="T24" t="s">
-        <v>86</v>
-      </c>
-      <c r="U24" t="s">
-        <v>87</v>
-      </c>
-      <c r="V24" t="s">
-        <v>88</v>
-      </c>
-      <c r="W24" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -2997,54 +2964,69 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N25" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q25" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R25" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S25" t="s">
+        <v>85</v>
+      </c>
+      <c r="T25" t="s">
+        <v>86</v>
+      </c>
+      <c r="U25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V25" t="s">
+        <v>88</v>
+      </c>
+      <c r="W25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -3053,42 +3035,54 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L26" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N26" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -3097,66 +3091,42 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L27" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
-      </c>
-      <c r="O27" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R27" t="s">
-        <v>65</v>
-      </c>
-      <c r="S27" t="s">
-        <v>66</v>
-      </c>
-      <c r="T27" t="s">
-        <v>67</v>
-      </c>
-      <c r="U27" t="s">
-        <v>68</v>
-      </c>
-      <c r="V27" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3164,26 +3134,56 @@
       <c r="E28" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>366</v>
+      <c r="F28" t="s">
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>367</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>368</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>371</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>369</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s">
-        <v>370</v>
+        <v>58</v>
       </c>
       <c r="L28" t="s">
-        <v>360</v>
+        <v>59</v>
+      </c>
+      <c r="M28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S28" t="s">
+        <v>66</v>
+      </c>
+      <c r="T28" t="s">
+        <v>67</v>
+      </c>
+      <c r="U28" t="s">
+        <v>68</v>
+      </c>
+      <c r="V28" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="402">
   <si>
     <t>S.No</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>Sunwoda Electronics  COMPANY Surajpur, Greater Noida</t>
   </si>
   <si>
-    <t>COMPANY Surajpur, Greater Noida</t>
-  </si>
-  <si>
     <t>INTERVIEW TIME : 08:00AM</t>
   </si>
   <si>
@@ -1177,6 +1174,54 @@
   </si>
   <si>
     <t>INTERVIEW DATE-: 19/04/2025</t>
+  </si>
+  <si>
+    <t>Surajpur, Greater Noida</t>
+  </si>
+  <si>
+    <t>BJD Company</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Loins workforce pvt Ltd के मध्यम से</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!! भर्ती है “Charger बनाने वाली ” कंपनी में !! </t>
+  </si>
+  <si>
+    <t>Day शिफ्ट के लिए।।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Vacancy: 50Day  shift </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department: packing </t>
+  </si>
+  <si>
+    <t>Salary: Rs11000/-</t>
+  </si>
+  <si>
+    <t>Overtime: Rs60/-</t>
+  </si>
+  <si>
+    <t>Attendance: Rs200/-</t>
+  </si>
+  <si>
+    <t>आवश्यक योग्यता*: 10th, 12th</t>
+  </si>
+  <si>
+    <t>ओरिगेनल आधार कार्ड  लाना अनिवार्य  है,डॉक्यूमेंट के साथ बैंक अकाउंट, दो फोटो  लाना अनिवार्य है</t>
+  </si>
+  <si>
+    <t>इंटरव्यू टाइम :-सुबह 08:00 बजे</t>
+  </si>
+  <si>
+    <t>Contact: Happy yadav- 9354138226, Ajeet-78272 28258‬</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता-: B-5 Sec-65 Noida, इंटरव्यू डेट :-  23-04-2025</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,13 +1691,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1661,48 +1706,54 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
+        <v>399</v>
       </c>
       <c r="H2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="J2" t="s">
-        <v>237</v>
+        <v>391</v>
       </c>
       <c r="K2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M2" t="s">
-        <v>240</v>
+        <v>394</v>
       </c>
       <c r="N2" t="s">
-        <v>241</v>
+        <v>395</v>
       </c>
       <c r="O2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="P2" t="s">
-        <v>385</v>
+        <v>397</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>398</v>
+      </c>
+      <c r="R2" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1711,33 +1762,48 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G3" t="s">
-        <v>375</v>
+        <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I3" t="s">
-        <v>378</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>376</v>
+        <v>237</v>
       </c>
       <c r="K3" t="s">
-        <v>377</v>
+        <v>381</v>
+      </c>
+      <c r="L3" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O3" t="s">
+        <v>383</v>
+      </c>
+      <c r="P3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1746,42 +1812,33 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G4" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="H4" t="s">
-        <v>358</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>359</v>
+        <v>374</v>
+      </c>
+      <c r="I4" t="s">
+        <v>377</v>
       </c>
       <c r="J4" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="K4" t="s">
-        <v>363</v>
-      </c>
-      <c r="L4" t="s">
-        <v>360</v>
-      </c>
-      <c r="M4" t="s">
-        <v>361</v>
-      </c>
-      <c r="N4" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1789,34 +1846,40 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>366</v>
+      <c r="F5" t="s">
+        <v>385</v>
       </c>
       <c r="G5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="H5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I5" t="s">
-        <v>371</v>
+        <v>357</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="J5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L5" t="s">
+        <v>359</v>
+      </c>
+      <c r="M5" t="s">
         <v>360</v>
+      </c>
+      <c r="N5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
         <v>345</v>
@@ -1827,43 +1890,37 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>346</v>
+      <c r="F6" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="G6" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="H6" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="I6" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="J6" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="K6" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="L6" t="s">
-        <v>352</v>
-      </c>
-      <c r="M6" t="s">
-        <v>353</v>
-      </c>
-      <c r="N6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1872,60 +1929,42 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="G7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="I7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="J7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="K7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="N7" t="s">
-        <v>337</v>
-      </c>
-      <c r="O7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>340</v>
-      </c>
-      <c r="R7" t="s">
-        <v>341</v>
-      </c>
-      <c r="S7" t="s">
-        <v>342</v>
-      </c>
-      <c r="T7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1934,69 +1973,60 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="G8" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="H8" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="J8" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="K8" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="L8" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="M8" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="N8" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="O8" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="P8" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="Q8" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="R8" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="S8" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="T8" t="s">
-        <v>323</v>
-      </c>
-      <c r="U8" t="s">
-        <v>324</v>
-      </c>
-      <c r="V8" t="s">
-        <v>325</v>
-      </c>
-      <c r="W8" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -2005,66 +2035,69 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G9" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I9" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="J9" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K9" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L9" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M9" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="N9" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="O9" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>320</v>
       </c>
       <c r="Q9" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="R9" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="S9" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="T9" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="U9" t="s">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="V9" t="s">
-        <v>309</v>
+        <v>325</v>
+      </c>
+      <c r="W9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -2073,60 +2106,63 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="K10" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="L10" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="M10" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N10" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="O10" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="P10" t="s">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="Q10" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="R10" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="S10" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="T10" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="U10" t="s">
-        <v>159</v>
+        <v>131</v>
+      </c>
+      <c r="V10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -2138,48 +2174,63 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I11" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="J11" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="K11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M11" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="N11" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="O11" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="P11" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>292</v>
+      </c>
+      <c r="R11" t="s">
+        <v>293</v>
+      </c>
+      <c r="S11" t="s">
+        <v>153</v>
+      </c>
+      <c r="T11" t="s">
+        <v>294</v>
+      </c>
+      <c r="U11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2188,48 +2239,48 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I12" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="J12" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="K12" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L12" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="M12" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="N12" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="O12" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P12" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2238,63 +2289,48 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="J13" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L13" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M13" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="N13" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O13" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P13" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>255</v>
-      </c>
-      <c r="R13" t="s">
-        <v>256</v>
-      </c>
-      <c r="S13" t="s">
-        <v>258</v>
-      </c>
-      <c r="T13" t="s">
-        <v>259</v>
-      </c>
-      <c r="U13" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2303,48 +2339,63 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H14" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="I14" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J14" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K14" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L14" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M14" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N14" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O14" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P14" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>255</v>
+      </c>
+      <c r="R14" t="s">
+        <v>256</v>
+      </c>
+      <c r="S14" t="s">
+        <v>258</v>
+      </c>
+      <c r="T14" t="s">
+        <v>259</v>
+      </c>
+      <c r="U14" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2353,54 +2404,48 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G15" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H15" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I15" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="J15" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K15" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L15" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M15" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N15" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O15" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P15" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>229</v>
-      </c>
-      <c r="R15" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2409,57 +2454,54 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H16" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I16" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J16" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L16" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M16" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="N16" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O16" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q16" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="R16" t="s">
-        <v>214</v>
-      </c>
-      <c r="S16" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2468,54 +2510,57 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K17" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O17" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q17" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="R17" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="S17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2524,57 +2569,54 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q18" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R18" t="s">
-        <v>183</v>
-      </c>
-      <c r="S18" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2583,72 +2625,57 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q19" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R19" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S19" t="s">
-        <v>169</v>
-      </c>
-      <c r="T19" t="s">
-        <v>170</v>
-      </c>
-      <c r="U19" t="s">
-        <v>105</v>
-      </c>
-      <c r="V19" t="s">
-        <v>106</v>
-      </c>
-      <c r="W19" t="s">
-        <v>107</v>
-      </c>
-      <c r="X19" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2657,66 +2684,72 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q20" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R20" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S20" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T20" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U20" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V20" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W20" t="s">
+        <v>107</v>
+      </c>
+      <c r="X20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2725,57 +2758,66 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K21" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M21" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N21" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q21" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R21" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S21" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T21" t="s">
+        <v>158</v>
+      </c>
+      <c r="U21" t="s">
+        <v>159</v>
+      </c>
+      <c r="V21" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2784,63 +2826,57 @@
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M22" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N22" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O22" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q22" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R22" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S22" t="s">
-        <v>120</v>
-      </c>
-      <c r="T22" t="s">
-        <v>121</v>
-      </c>
-      <c r="U22" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2849,69 +2885,63 @@
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N23" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P23" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q23" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R23" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S23" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T23" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U23" t="s">
-        <v>106</v>
-      </c>
-      <c r="V23" t="s">
-        <v>107</v>
-      </c>
-      <c r="W23" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -2920,42 +2950,69 @@
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L24" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M24" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N24" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>102</v>
+      </c>
+      <c r="R24" t="s">
+        <v>103</v>
+      </c>
+      <c r="S24" t="s">
+        <v>104</v>
+      </c>
+      <c r="T24" t="s">
+        <v>105</v>
+      </c>
+      <c r="U24" t="s">
+        <v>106</v>
+      </c>
+      <c r="V24" t="s">
+        <v>107</v>
+      </c>
+      <c r="W24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -2964,69 +3021,42 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>83</v>
-      </c>
-      <c r="R25" t="s">
-        <v>84</v>
-      </c>
-      <c r="S25" t="s">
-        <v>85</v>
-      </c>
-      <c r="T25" t="s">
-        <v>86</v>
-      </c>
-      <c r="U25" t="s">
-        <v>87</v>
-      </c>
-      <c r="V25" t="s">
-        <v>88</v>
-      </c>
-      <c r="W25" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -3035,54 +3065,69 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N26" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P26" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q26" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R26" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S26" t="s">
+        <v>85</v>
+      </c>
+      <c r="T26" t="s">
+        <v>86</v>
+      </c>
+      <c r="U26" t="s">
+        <v>87</v>
+      </c>
+      <c r="V26" t="s">
+        <v>88</v>
+      </c>
+      <c r="W26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -3091,104 +3136,160 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N27" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O27" t="s">
+        <v>38</v>
+      </c>
+      <c r="P27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>52</v>
       </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>54</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>53</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>56</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J29" t="s">
         <v>57</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K29" t="s">
         <v>58</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L29" t="s">
         <v>59</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M29" t="s">
         <v>60</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N29" t="s">
         <v>61</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O29" t="s">
         <v>62</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P29" t="s">
         <v>63</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q29" t="s">
         <v>64</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R29" t="s">
         <v>65</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S29" t="s">
         <v>66</v>
       </c>
-      <c r="T28" t="s">
+      <c r="T29" t="s">
         <v>67</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U29" t="s">
         <v>68</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V29" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="https://maps.google.com/maps?q=28.4774068%2C77.5036163&amp;z=17&amp;hl=en"/>
+    <hyperlink ref="I5" r:id="rId1" display="https://maps.google.com/maps?q=28.4774068%2C77.5036163&amp;z=17&amp;hl=en"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="417">
   <si>
     <t>S.No</t>
   </si>
@@ -1222,6 +1222,52 @@
   </si>
   <si>
     <t>इंटरव्यू पता-: B-5 Sec-65 Noida, इंटरव्यू डेट :-  23-04-2025</t>
+  </si>
+  <si>
+    <t>BPL MOBILE COMPANY (Old Vivo)</t>
+  </si>
+  <si>
+    <t>Kasna, Gr. Noida</t>
+  </si>
+  <si>
+    <t>Interview Date: 23rd April 2025</t>
+  </si>
+  <si>
+    <t>Time: 09:00 AM - 02:30 PM</t>
+  </si>
+  <si>
+    <t>F-20, Site 4, Kasna, Near Grand Venice Mall</t>
+  </si>
+  <si>
+    <t>Contact to HSC MANPOWER TEAM : 9536846742 | 8279447224 | 9927489658 | 9411840527</t>
+  </si>
+  <si>
+    <t>No fee required for this recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualification: 10th, 12th, BA, BSc, B.Com, ITI, Diploma
+</t>
+  </si>
+  <si>
+    <t>Salary: Skilled: ₹13,579, Semi-skilled: ₹12,122, Unskilled: ₹11,020</t>
+  </si>
+  <si>
+    <t>Additional Benefits: OT - Double, Attendance Award: ₹2,000, GWP Award: ₹1,000</t>
+  </si>
+  <si>
+    <t>Service Allowance: ₹500, ₹1,000, ₹1,500</t>
+  </si>
+  <si>
+    <t>Free Bus &amp; Canteen</t>
+  </si>
+  <si>
+    <t>Age: 18-32 years</t>
+  </si>
+  <si>
+    <t>Join us on WhatsApp: https://chat.whatsapp.com/Kr7SFjCgBre8FBvPjLLPf2</t>
+  </si>
+  <si>
+    <t>Join us on Facebook page: https://www.facebook.com/share/16EZwzGGNK/</t>
   </si>
 </sst>
 </file>
@@ -1586,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,13 +1737,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1706,54 +1752,54 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H2" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="I2" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="J2" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K2" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L2" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M2" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="N2" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="O2" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="P2" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="Q2" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="R2" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1762,48 +1808,54 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>399</v>
       </c>
       <c r="H3" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="J3" t="s">
-        <v>237</v>
+        <v>391</v>
       </c>
       <c r="K3" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="L3" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="M3" t="s">
-        <v>240</v>
+        <v>394</v>
       </c>
       <c r="N3" t="s">
-        <v>241</v>
+        <v>395</v>
       </c>
       <c r="O3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="P3" t="s">
-        <v>384</v>
+        <v>397</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>398</v>
+      </c>
+      <c r="R3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1812,33 +1864,48 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G4" t="s">
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="H4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="I4" t="s">
-        <v>377</v>
+        <v>233</v>
       </c>
       <c r="J4" t="s">
-        <v>375</v>
+        <v>237</v>
       </c>
       <c r="K4" t="s">
-        <v>376</v>
+        <v>381</v>
+      </c>
+      <c r="L4" t="s">
+        <v>382</v>
+      </c>
+      <c r="M4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O4" t="s">
+        <v>383</v>
+      </c>
+      <c r="P4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1847,42 +1914,33 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G5" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="H5" t="s">
-        <v>357</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>358</v>
+        <v>374</v>
+      </c>
+      <c r="I5" t="s">
+        <v>377</v>
       </c>
       <c r="J5" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="K5" t="s">
-        <v>362</v>
-      </c>
-      <c r="L5" t="s">
-        <v>359</v>
-      </c>
-      <c r="M5" t="s">
-        <v>360</v>
-      </c>
-      <c r="N5" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1890,34 +1948,40 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>365</v>
+      <c r="F6" t="s">
+        <v>385</v>
       </c>
       <c r="G6" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="H6" t="s">
-        <v>367</v>
-      </c>
-      <c r="I6" t="s">
-        <v>370</v>
+        <v>357</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="J6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L6" t="s">
         <v>359</v>
+      </c>
+      <c r="M6" t="s">
+        <v>360</v>
+      </c>
+      <c r="N6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
         <v>345</v>
@@ -1928,43 +1992,37 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>346</v>
+      <c r="F7" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="G7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="H7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="I7" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="J7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="K7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="L7" t="s">
-        <v>352</v>
-      </c>
-      <c r="M7" t="s">
-        <v>353</v>
-      </c>
-      <c r="N7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1973,60 +2031,42 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="G8" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="H8" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="J8" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="K8" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="L8" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M8" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="N8" t="s">
-        <v>337</v>
-      </c>
-      <c r="O8" t="s">
-        <v>338</v>
-      </c>
-      <c r="P8" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>340</v>
-      </c>
-      <c r="R8" t="s">
-        <v>341</v>
-      </c>
-      <c r="S8" t="s">
-        <v>342</v>
-      </c>
-      <c r="T8" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -2035,69 +2075,60 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="G9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="H9" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="I9" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="J9" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="K9" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="L9" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="M9" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="N9" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="O9" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="P9" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="Q9" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="R9" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="S9" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="T9" t="s">
-        <v>323</v>
-      </c>
-      <c r="U9" t="s">
-        <v>324</v>
-      </c>
-      <c r="V9" t="s">
-        <v>325</v>
-      </c>
-      <c r="W9" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -2106,66 +2137,69 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I10" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="J10" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K10" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L10" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M10" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="N10" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="O10" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>320</v>
       </c>
       <c r="Q10" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="R10" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="S10" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="T10" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="U10" t="s">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="V10" t="s">
-        <v>309</v>
+        <v>325</v>
+      </c>
+      <c r="W10" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2174,60 +2208,63 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="I11" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="J11" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="K11" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="L11" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="M11" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N11" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="O11" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="P11" t="s">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="Q11" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="R11" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="S11" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="T11" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="U11" t="s">
-        <v>159</v>
+        <v>131</v>
+      </c>
+      <c r="V11" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
@@ -2239,48 +2276,63 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="H12" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I12" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="J12" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="K12" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L12" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M12" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="N12" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="O12" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="P12" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>292</v>
+      </c>
+      <c r="R12" t="s">
+        <v>293</v>
+      </c>
+      <c r="S12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T12" t="s">
+        <v>294</v>
+      </c>
+      <c r="U12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2289,48 +2341,48 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H13" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I13" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="J13" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="K13" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L13" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="M13" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="N13" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="O13" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P13" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2339,63 +2391,48 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G14" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="I14" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="J14" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L14" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M14" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="N14" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O14" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P14" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>255</v>
-      </c>
-      <c r="R14" t="s">
-        <v>256</v>
-      </c>
-      <c r="S14" t="s">
-        <v>258</v>
-      </c>
-      <c r="T14" t="s">
-        <v>259</v>
-      </c>
-      <c r="U14" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2404,48 +2441,63 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H15" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="I15" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J15" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K15" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L15" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M15" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N15" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O15" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P15" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>255</v>
+      </c>
+      <c r="R15" t="s">
+        <v>256</v>
+      </c>
+      <c r="S15" t="s">
+        <v>258</v>
+      </c>
+      <c r="T15" t="s">
+        <v>259</v>
+      </c>
+      <c r="U15" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2454,54 +2506,48 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G16" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H16" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="J16" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K16" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L16" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M16" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N16" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O16" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>229</v>
-      </c>
-      <c r="R16" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2510,57 +2556,54 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H17" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I17" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="J17" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L17" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M17" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="N17" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="O17" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="Q17" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="R17" t="s">
-        <v>214</v>
-      </c>
-      <c r="S17" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2569,54 +2612,57 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O18" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q18" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="R18" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="S18" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2625,57 +2671,54 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q19" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R19" t="s">
-        <v>183</v>
-      </c>
-      <c r="S19" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2684,72 +2727,57 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H20" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q20" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="R20" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="S20" t="s">
-        <v>169</v>
-      </c>
-      <c r="T20" t="s">
-        <v>170</v>
-      </c>
-      <c r="U20" t="s">
-        <v>105</v>
-      </c>
-      <c r="V20" t="s">
-        <v>106</v>
-      </c>
-      <c r="W20" t="s">
-        <v>107</v>
-      </c>
-      <c r="X20" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2758,66 +2786,72 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="M21" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N21" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q21" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="R21" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="S21" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T21" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U21" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="V21" t="s">
-        <v>160</v>
+        <v>106</v>
+      </c>
+      <c r="W21" t="s">
+        <v>107</v>
+      </c>
+      <c r="X21" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2826,57 +2860,66 @@
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J22" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K22" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="N22" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q22" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R22" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S22" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="T22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U22" t="s">
+        <v>159</v>
+      </c>
+      <c r="V22" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2885,63 +2928,57 @@
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J23" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O23" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q23" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="R23" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="S23" t="s">
-        <v>120</v>
-      </c>
-      <c r="T23" t="s">
-        <v>121</v>
-      </c>
-      <c r="U23" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -2950,69 +2987,63 @@
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L24" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M24" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N24" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O24" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="P24" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q24" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R24" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S24" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="T24" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U24" t="s">
-        <v>106</v>
-      </c>
-      <c r="V24" t="s">
-        <v>107</v>
-      </c>
-      <c r="W24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -3021,42 +3052,69 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" t="s">
+        <v>103</v>
+      </c>
+      <c r="S25" t="s">
+        <v>104</v>
+      </c>
+      <c r="T25" t="s">
+        <v>105</v>
+      </c>
+      <c r="U25" t="s">
+        <v>106</v>
+      </c>
+      <c r="V25" t="s">
+        <v>107</v>
+      </c>
+      <c r="W25" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -3065,69 +3123,42 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" t="s">
-        <v>81</v>
-      </c>
-      <c r="P26" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>83</v>
-      </c>
-      <c r="R26" t="s">
-        <v>84</v>
-      </c>
-      <c r="S26" t="s">
-        <v>85</v>
-      </c>
-      <c r="T26" t="s">
-        <v>86</v>
-      </c>
-      <c r="U26" t="s">
-        <v>87</v>
-      </c>
-      <c r="V26" t="s">
-        <v>88</v>
-      </c>
-      <c r="W26" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -3136,54 +3167,69 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q27" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="R27" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="S27" t="s">
+        <v>85</v>
+      </c>
+      <c r="T27" t="s">
+        <v>86</v>
+      </c>
+      <c r="U27" t="s">
+        <v>87</v>
+      </c>
+      <c r="V27" t="s">
+        <v>88</v>
+      </c>
+      <c r="W27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3192,104 +3238,160 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N28" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="O28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>52</v>
       </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>54</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>53</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>56</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J30" t="s">
         <v>57</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K30" t="s">
         <v>58</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L30" t="s">
         <v>59</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M30" t="s">
         <v>60</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N30" t="s">
         <v>61</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O30" t="s">
         <v>62</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P30" t="s">
         <v>63</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q30" t="s">
         <v>64</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R30" t="s">
         <v>65</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S30" t="s">
         <v>66</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T30" t="s">
         <v>67</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U30" t="s">
         <v>68</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V30" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" display="https://maps.google.com/maps?q=28.4774068%2C77.5036163&amp;z=17&amp;hl=en"/>
+    <hyperlink ref="I6" r:id="rId1" display="https://maps.google.com/maps?q=28.4774068%2C77.5036163&amp;z=17&amp;hl=en"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="468">
   <si>
     <t>S.No</t>
   </si>
@@ -1268,24 +1268,169 @@
   </si>
   <si>
     <t>Join us on Facebook page: https://www.facebook.com/share/16EZwzGGNK/</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :- 25/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> इंटरव्यू टाइम :- 08 - 11 AM</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता :- ARK Workforce Plot Number - 246 Block - G Sector-63 Noida</t>
+  </si>
+  <si>
+    <t>ARK_WORK_FORCE में #TRANSSION(Itel) कंपनी (मैन्युफैक्चरिंग) के लिए भर्ती है जिसकी जानकारी निन्मलिखित है-</t>
+  </si>
+  <si>
+    <t>Total Quantity :- 100(Only Boys)</t>
+  </si>
+  <si>
+    <t>Qualification:-10th 12th graduate ITI  or Diploma,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary_11000_Inhand </t>
+  </si>
+  <si>
+    <t>attendance_award_1000</t>
+  </si>
+  <si>
+    <t>Night_Alowance_50_Per_Night #Overtime_100_Per_Hour</t>
+  </si>
+  <si>
+    <t>Lunch_Dinner_Free</t>
+  </si>
+  <si>
+    <t>Contact person:- Ankit - 8477873797, Vishan- 9315473717</t>
+  </si>
+  <si>
+    <t>Location: https://maps.app.goo.gl/oDywEJJLtvZRMAsN9?g_st=com.google.maps.preview.copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XIHI Technology PVT.LTD</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :-    25/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morning- 7:00am to 8:00am </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> joining - evening       6:30pm</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता :- noida sector 63 plot 53 block J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!! भर्ती है XIHI Technology PVT.LTD company -charge banane wali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator- total 50 requirements </t>
+  </si>
+  <si>
+    <t>#Qualification- only ITI</t>
+  </si>
+  <si>
+    <t>Age -18-to-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengo Orange pvt.Ltd se Bharti *Noida sector 63 J53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paid canteen, No bus </t>
+  </si>
+  <si>
+    <t>Daily duty timing - 7:50pm to 6:30am</t>
+  </si>
+  <si>
+    <t>Salary_  13623, 12123+ 1500(DBT)inhand, #OT: per_hour -130</t>
+  </si>
+  <si>
+    <t>Attandance Award (on 22 duty 1000),  #Night Alawance per night rs 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Best employee award -1000 rs , #Weekly -Saturday Sunday off </t>
+  </si>
+  <si>
+    <t>Contact person:-Sagar - 7084457567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सभी को सूचित किया जाता हैं, सीही टेक्नोलॉजी प्राइवेट लिमिट j53 सेक्टर 63 नॉएडा में नाईट में अब कैंटीन  चालू हो गयी हैं।, जो की आपके नाईट अल्लोउंस से  paid होंगी। </t>
+  </si>
+  <si>
+    <t>कॉल करके ही डाक्यूमेंट दें, कॉल ना उठने पर व्हाट्सप्प में cv भेजे</t>
+  </si>
+  <si>
+    <t>Kimbal</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट-: 25/04/2025 समय : 8:00 AM</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता-: Kimbal company knowledge park 3 plot no 20 Near sharda hospital Gol chakkar Greater Noida</t>
+  </si>
+  <si>
+    <t>Contact: Lokesh -9690643861, Sumit- 8076400824</t>
+  </si>
+  <si>
+    <t>आपको सूचित किया जाता है कि दिनांक 25/04/2025को #ARK_Workforce से #only_apprenticeship_job</t>
+  </si>
+  <si>
+    <t>#Kimbal_Company Job Greater Noida Company के लिए भर्ती है जिसकी जानकारी निन्मलिखित है</t>
+  </si>
+  <si>
+    <t>1-Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Qualification- ITI diploma &amp; Graduate </t>
+  </si>
+  <si>
+    <t>#Salary_14300( for 8hrs)</t>
+  </si>
+  <si>
+    <t>2- SPM_Operator</t>
+  </si>
+  <si>
+    <t>#Experiance_17000(for 8hrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#OT_double, #canteen_free #Bus_free, #Attendance_award_1500, #Night_allowance_100/nigh, </t>
+  </si>
+  <si>
+    <t>documents-Resume, passport size photo, Educational Certificates, Aadhar Card, Bank Passbook</t>
+  </si>
+  <si>
+    <t>KHVatec_India_Pvt_Ltd.</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट-: 24/04/2025 समय : 8:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact: Yogesh- 79839 61240 </t>
+  </si>
+  <si>
+    <t>Phone na Uthane per Resume ko whatsapp kre</t>
+  </si>
+  <si>
+    <t>ADD:- KHVatec India Pvt. Ltd. Kasna greater Noida (G.B  Nagar) UP, near Asian paint company</t>
+  </si>
+  <si>
+    <t>#salary_11020 #Att_award_1000</t>
+  </si>
+  <si>
+    <t>#Overtime_105per hours #Canteen_free #Transport_free</t>
+  </si>
+  <si>
+    <t>#Education_Required_12th_Graduate_ITI #original_Documents_leke_aaye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1320,19 +1465,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1632,33 +1777,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" customWidth="1"/>
-    <col min="7" max="7" width="121.140625" customWidth="1"/>
-    <col min="8" max="8" width="138.7109375" customWidth="1"/>
-    <col min="9" max="9" width="80.7109375" customWidth="1"/>
-    <col min="10" max="10" width="103.5703125" customWidth="1"/>
-    <col min="11" max="11" width="137.140625" customWidth="1"/>
-    <col min="12" max="12" width="137.28515625" customWidth="1"/>
-    <col min="13" max="13" width="140.140625" customWidth="1"/>
-    <col min="14" max="14" width="127" customWidth="1"/>
-    <col min="15" max="15" width="174.5703125" customWidth="1"/>
-    <col min="16" max="16" width="174.28515625" customWidth="1"/>
-    <col min="17" max="17" width="98" customWidth="1"/>
-    <col min="18" max="18" width="152.7109375" customWidth="1"/>
-    <col min="19" max="19" width="176.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -1737,13 +1879,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1752,51 +1894,51 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="G2" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="H2" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="I2" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="J2" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="K2" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L2" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M2" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="N2" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="O2" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="P2" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="Q2" t="s">
-        <v>415</v>
+        <v>50</v>
       </c>
       <c r="R2" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="C3" t="s">
         <v>388</v>
@@ -1808,54 +1950,66 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="G3" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="H3" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="I3" t="s">
-        <v>390</v>
-      </c>
-      <c r="J3" t="s">
-        <v>391</v>
+        <v>433</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="K3" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="L3" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="M3" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="N3" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="O3" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="P3" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="Q3" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="R3" t="s">
-        <v>400</v>
+        <v>439</v>
+      </c>
+      <c r="S3" t="s">
+        <v>440</v>
+      </c>
+      <c r="T3" t="s">
+        <v>444</v>
+      </c>
+      <c r="U3" t="s">
+        <v>445</v>
+      </c>
+      <c r="V3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1864,48 +2018,54 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>379</v>
+        <v>448</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>449</v>
       </c>
       <c r="H4" t="s">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="I4" t="s">
-        <v>233</v>
+        <v>451</v>
       </c>
       <c r="J4" t="s">
-        <v>237</v>
+        <v>452</v>
       </c>
       <c r="K4" t="s">
-        <v>381</v>
+        <v>453</v>
       </c>
       <c r="L4" t="s">
-        <v>382</v>
+        <v>454</v>
       </c>
       <c r="M4" t="s">
-        <v>240</v>
+        <v>455</v>
       </c>
       <c r="N4" t="s">
-        <v>241</v>
+        <v>456</v>
       </c>
       <c r="O4" t="s">
-        <v>383</v>
+        <v>455</v>
       </c>
       <c r="P4" t="s">
-        <v>384</v>
+        <v>457</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>458</v>
+      </c>
+      <c r="R4" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1914,33 +2074,36 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>373</v>
+        <v>461</v>
       </c>
       <c r="G5" t="s">
-        <v>374</v>
+        <v>462</v>
       </c>
       <c r="H5" t="s">
-        <v>374</v>
+        <v>463</v>
       </c>
       <c r="I5" t="s">
-        <v>377</v>
+        <v>464</v>
       </c>
       <c r="J5" t="s">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="K5" t="s">
-        <v>376</v>
+        <v>466</v>
+      </c>
+      <c r="L5" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1949,42 +2112,54 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="G6" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="H6" t="s">
-        <v>357</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>358</v>
+        <v>406</v>
+      </c>
+      <c r="I6" t="s">
+        <v>407</v>
       </c>
       <c r="J6" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="K6" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="L6" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="M6" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="N6" t="s">
-        <v>363</v>
+        <v>412</v>
+      </c>
+      <c r="O6" t="s">
+        <v>413</v>
+      </c>
+      <c r="P6" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>415</v>
+      </c>
+      <c r="R6" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1992,37 +2167,55 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>365</v>
+      <c r="F7" t="s">
+        <v>401</v>
       </c>
       <c r="G7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="H7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="I7" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="J7" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="K7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="L7" t="s">
-        <v>359</v>
+        <v>393</v>
+      </c>
+      <c r="M7" t="s">
+        <v>394</v>
+      </c>
+      <c r="N7" t="s">
+        <v>395</v>
+      </c>
+      <c r="O7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>398</v>
+      </c>
+      <c r="R7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -2031,42 +2224,48 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="H8" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="I8" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="J8" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="K8" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="L8" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="M8" t="s">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="N8" t="s">
-        <v>354</v>
+        <v>241</v>
+      </c>
+      <c r="O8" t="s">
+        <v>383</v>
+      </c>
+      <c r="P8" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -2075,60 +2274,33 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="G9" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="H9" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="I9" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="J9" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="K9" t="s">
-        <v>334</v>
-      </c>
-      <c r="L9" t="s">
-        <v>335</v>
-      </c>
-      <c r="M9" t="s">
-        <v>336</v>
-      </c>
-      <c r="N9" t="s">
-        <v>337</v>
-      </c>
-      <c r="O9" t="s">
-        <v>338</v>
-      </c>
-      <c r="P9" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>340</v>
-      </c>
-      <c r="R9" t="s">
-        <v>341</v>
-      </c>
-      <c r="S9" t="s">
-        <v>342</v>
-      </c>
-      <c r="T9" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>386</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -2137,69 +2309,42 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
       <c r="G10" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="H10" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="I10" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="J10" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="K10" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="L10" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="M10" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="N10" t="s">
-        <v>319</v>
-      </c>
-      <c r="O10" t="s">
-        <v>250</v>
-      </c>
-      <c r="P10" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>321</v>
-      </c>
-      <c r="R10" t="s">
-        <v>322</v>
-      </c>
-      <c r="S10" t="s">
-        <v>269</v>
-      </c>
-      <c r="T10" t="s">
-        <v>323</v>
-      </c>
-      <c r="U10" t="s">
-        <v>324</v>
-      </c>
-      <c r="V10" t="s">
-        <v>325</v>
-      </c>
-      <c r="W10" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2207,67 +2352,37 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
-        <v>296</v>
+      <c r="F11" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="I11" t="s">
-        <v>299</v>
+        <v>370</v>
       </c>
       <c r="J11" t="s">
-        <v>300</v>
+        <v>368</v>
       </c>
       <c r="K11" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="L11" t="s">
-        <v>302</v>
-      </c>
-      <c r="M11" t="s">
-        <v>296</v>
-      </c>
-      <c r="N11" t="s">
-        <v>303</v>
-      </c>
-      <c r="O11" t="s">
-        <v>304</v>
-      </c>
-      <c r="P11" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>305</v>
-      </c>
-      <c r="R11" t="s">
-        <v>306</v>
-      </c>
-      <c r="S11" t="s">
-        <v>307</v>
-      </c>
-      <c r="T11" t="s">
-        <v>308</v>
-      </c>
-      <c r="U11" t="s">
-        <v>131</v>
-      </c>
-      <c r="V11" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2276,63 +2391,42 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>347</v>
       </c>
       <c r="H12" t="s">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="I12" t="s">
-        <v>286</v>
+        <v>349</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>350</v>
       </c>
       <c r="K12" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
       <c r="L12" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="M12" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="N12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O12" t="s">
-        <v>181</v>
-      </c>
-      <c r="P12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>292</v>
-      </c>
-      <c r="R12" t="s">
-        <v>293</v>
-      </c>
-      <c r="S12" t="s">
-        <v>153</v>
-      </c>
-      <c r="T12" t="s">
-        <v>294</v>
-      </c>
-      <c r="U12" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2341,48 +2435,60 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="G13" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="H13" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="I13" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="J13" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="K13" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="L13" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="M13" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="N13" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="O13" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="P13" t="s">
-        <v>284</v>
+        <v>339</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>340</v>
+      </c>
+      <c r="R13" t="s">
+        <v>341</v>
+      </c>
+      <c r="S13" t="s">
+        <v>342</v>
+      </c>
+      <c r="T13" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2391,48 +2497,69 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="I14" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="J14" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="K14" t="s">
+        <v>316</v>
+      </c>
+      <c r="L14" t="s">
+        <v>317</v>
+      </c>
+      <c r="M14" t="s">
+        <v>318</v>
+      </c>
+      <c r="N14" t="s">
+        <v>319</v>
+      </c>
+      <c r="O14" t="s">
         <v>250</v>
       </c>
-      <c r="L14" t="s">
-        <v>267</v>
-      </c>
-      <c r="M14" t="s">
-        <v>268</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>321</v>
+      </c>
+      <c r="R14" t="s">
+        <v>322</v>
+      </c>
+      <c r="S14" t="s">
         <v>269</v>
       </c>
-      <c r="O14" t="s">
-        <v>270</v>
-      </c>
-      <c r="P14" t="s">
-        <v>271</v>
+      <c r="T14" t="s">
+        <v>323</v>
+      </c>
+      <c r="U14" t="s">
+        <v>324</v>
+      </c>
+      <c r="V14" t="s">
+        <v>325</v>
+      </c>
+      <c r="W14" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2441,63 +2568,66 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="G15" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="H15" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="I15" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="J15" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="K15" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="L15" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="M15" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="N15" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="O15" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="P15" t="s">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="Q15" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="R15" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="S15" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="T15" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="U15" t="s">
-        <v>260</v>
+        <v>131</v>
+      </c>
+      <c r="V15" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2506,48 +2636,63 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="H16" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="I16" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="J16" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="L16" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="M16" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="N16" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="O16" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="P16" t="s">
-        <v>243</v>
+        <v>291</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>292</v>
+      </c>
+      <c r="R16" t="s">
+        <v>293</v>
+      </c>
+      <c r="S16" t="s">
+        <v>153</v>
+      </c>
+      <c r="T16" t="s">
+        <v>294</v>
+      </c>
+      <c r="U16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2556,54 +2701,48 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="G17" t="s">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="H17" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="I17" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="J17" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="K17" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="L17" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="M17" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="N17" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="O17" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>229</v>
-      </c>
-      <c r="R17" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2612,57 +2751,48 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="H18" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="J18" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="K18" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="L18" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="M18" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="N18" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="O18" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>213</v>
-      </c>
-      <c r="R18" t="s">
-        <v>214</v>
-      </c>
-      <c r="S18" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2671,54 +2801,63 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="G19" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="H19" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="M19" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="O19" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="Q19" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="R19" t="s">
-        <v>199</v>
+        <v>256</v>
+      </c>
+      <c r="S19" t="s">
+        <v>258</v>
+      </c>
+      <c r="T19" t="s">
+        <v>259</v>
+      </c>
+      <c r="U19" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2727,57 +2866,48 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="O20" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>182</v>
-      </c>
-      <c r="R20" t="s">
-        <v>183</v>
-      </c>
-      <c r="S20" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2786,72 +2916,54 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="H21" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="O21" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="Q21" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="R21" t="s">
-        <v>103</v>
-      </c>
-      <c r="S21" t="s">
-        <v>169</v>
-      </c>
-      <c r="T21" t="s">
-        <v>170</v>
-      </c>
-      <c r="U21" t="s">
-        <v>105</v>
-      </c>
-      <c r="V21" t="s">
-        <v>106</v>
-      </c>
-      <c r="W21" t="s">
-        <v>107</v>
-      </c>
-      <c r="X21" t="s">
-        <v>108</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2860,66 +2972,57 @@
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="I22" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="Q22" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="R22" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="S22" t="s">
-        <v>157</v>
-      </c>
-      <c r="T22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U22" t="s">
-        <v>159</v>
-      </c>
-      <c r="V22" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2928,57 +3031,54 @@
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="H23" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="Q23" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="R23" t="s">
-        <v>140</v>
-      </c>
-      <c r="S23" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -2987,63 +3087,57 @@
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="N24" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="Q24" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="R24" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="S24" t="s">
-        <v>120</v>
-      </c>
-      <c r="T24" t="s">
-        <v>121</v>
-      </c>
-      <c r="U24" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -3055,34 +3149,34 @@
         <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="I25" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" t="s">
         <v>94</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>96</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="M25" t="s">
-        <v>98</v>
-      </c>
       <c r="N25" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="Q25" t="s">
         <v>102</v>
@@ -3091,30 +3185,33 @@
         <v>103</v>
       </c>
       <c r="S25" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="T25" t="s">
+        <v>170</v>
+      </c>
+      <c r="U25" t="s">
         <v>105</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>106</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>107</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -3123,42 +3220,66 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="M26" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="N26" t="s">
-        <v>50</v>
+        <v>152</v>
+      </c>
+      <c r="O26" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>155</v>
+      </c>
+      <c r="R26" t="s">
+        <v>156</v>
+      </c>
+      <c r="S26" t="s">
+        <v>157</v>
+      </c>
+      <c r="T26" t="s">
+        <v>158</v>
+      </c>
+      <c r="U26" t="s">
+        <v>159</v>
+      </c>
+      <c r="V26" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -3167,69 +3288,57 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="P27" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="Q27" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="R27" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="S27" t="s">
-        <v>85</v>
-      </c>
-      <c r="T27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U27" t="s">
-        <v>87</v>
-      </c>
-      <c r="V27" t="s">
-        <v>88</v>
-      </c>
-      <c r="W27" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3238,54 +3347,63 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="P28" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="Q28" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="R28" t="s">
-        <v>39</v>
+        <v>125</v>
+      </c>
+      <c r="S28" t="s">
+        <v>120</v>
+      </c>
+      <c r="T28" t="s">
+        <v>121</v>
+      </c>
+      <c r="U28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -3294,107 +3412,346 @@
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M29" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N29" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="O29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>102</v>
+      </c>
+      <c r="R29" t="s">
+        <v>103</v>
+      </c>
+      <c r="S29" t="s">
+        <v>104</v>
+      </c>
+      <c r="T29" t="s">
+        <v>105</v>
+      </c>
+      <c r="U29" t="s">
+        <v>106</v>
+      </c>
+      <c r="V29" t="s">
+        <v>107</v>
+      </c>
+      <c r="W29" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>83</v>
+      </c>
+      <c r="R31" t="s">
+        <v>84</v>
+      </c>
+      <c r="S31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T31" t="s">
+        <v>86</v>
+      </c>
+      <c r="U31" t="s">
+        <v>87</v>
+      </c>
+      <c r="V31" t="s">
+        <v>88</v>
+      </c>
+      <c r="W31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>52</v>
       </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
         <v>55</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G34" t="s">
         <v>54</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H34" t="s">
         <v>53</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I34" t="s">
         <v>56</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J34" t="s">
         <v>57</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K34" t="s">
         <v>58</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L34" t="s">
         <v>59</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M34" t="s">
         <v>60</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N34" t="s">
         <v>61</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O34" t="s">
         <v>62</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P34" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q34" t="s">
         <v>64</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R34" t="s">
         <v>65</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S34" t="s">
         <v>66</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T34" t="s">
         <v>67</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U34" t="s">
         <v>68</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V34" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" display="https://maps.google.com/maps?q=28.4774068%2C77.5036163&amp;z=17&amp;hl=en"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="526">
   <si>
     <t>S.No</t>
   </si>
@@ -1421,6 +1421,180 @@
   </si>
   <si>
     <t>#Education_Required_12th_Graduate_ITI #original_Documents_leke_aaye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimbal_Company </t>
+  </si>
+  <si>
+    <t>Greater Noida Surajpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interview Date- 25-04-2025</t>
+  </si>
+  <si>
+    <t>Injterview Time &gt; 7AM TO AM to 9 AM</t>
+  </si>
+  <si>
+    <t>Kimbal company knowledge park 3 plot no 20 Near sharda hospital Gol chakkar Greater Noida</t>
+  </si>
+  <si>
+    <t>Lokesh -9690643861, Sumit- 8076400824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualification- ITI diploma &amp; Graduate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary_14300( for 8hrs) 2- SPM_Operator Salary_14300( for 8hrs) xperiance_17000(for 8hrs) OT_double canteen_free #Bus_free </t>
+  </si>
+  <si>
+    <t>ARK_Workforce से only_apprenticeship_job</t>
+  </si>
+  <si>
+    <t>Attendance_award_1500 Night_allowance_100/night</t>
+  </si>
+  <si>
+    <t>BPL Mobile_MNC_Gr,Noida</t>
+  </si>
+  <si>
+    <t>इंटरव्यू  टाइम:- 8 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Location :- कासना ग्रेटर नॉएडा </t>
+  </si>
+  <si>
+    <t>Rahul Kushwaha 954053114 , 9560834827</t>
+  </si>
+  <si>
+    <t>Qualification- 10th/12th/ITI</t>
+  </si>
+  <si>
+    <t>10th/12th, Salary -: 12094 Gross  Overtime - 106₹ per hour Attendance Award :- 2000 (Montly) GWP Award :- 1000  Canteen - Free (Lunch,2 time tea,snack)</t>
+  </si>
+  <si>
+    <t>TRANSSION (itel) MNC</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :- 25-April-2025</t>
+  </si>
+  <si>
+    <t>इंटरव्यू टाइम :- 07:30 AM TO 11 AM</t>
+  </si>
+  <si>
+    <t>Vacancy: 100 (Only for Boys)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendance award :- 1000/- </t>
+  </si>
+  <si>
+    <t>Injterview Time &gt; 7AM TO 10 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPPO Mobile Company Kasna, Greater Noida </t>
+  </si>
+  <si>
+    <t>Kasna, Greater Noida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview location= कासना बस स्टैंड यूनिवर्सिटी रोड काशीराम हॉस्पिटल वाली रोड पर गुर्जर कॉलोनी (बढ़ा तिरंगा ) वाली गली के पास आकर </t>
+  </si>
+  <si>
+    <t>Satish ji 7417352069, Rocky 9927613359</t>
+  </si>
+  <si>
+    <t>Educational Certificates 10th ,12th,Diploma  Marksheet)</t>
+  </si>
+  <si>
+    <t>Salary: - 12000/- IN Hand For 8 hour's 26 day's Overtime डबल है 116 रुपए hour's डैली चलता है 3 hour's Attendance award - 2000/-</t>
+  </si>
+  <si>
+    <t>कृपया वही लड़का आए  जिसका घर  ग्रेटर-नोएडा  से 100 Km दूर  हो।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night allowances - 50/night, NAPS Award=1500 Rupe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPPO MOBILE india pvt ltd </t>
+  </si>
+  <si>
+    <t>समय:-दोपहर 01:00 PM starting time</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता:- Greno Enterprises Dadha farm house ecotech ext 1 Greater Noida mirza international gate no. 4 Sirsa golchakkar Akar mirza company punch Lena</t>
+  </si>
+  <si>
+    <t>9953756276, 9650935099, 8882829930, 9650578940</t>
+  </si>
+  <si>
+    <t>CTC SALARY = 16407/- OVER-TIME= DOUBLE  BUS= FREE CANTEEN= FREE ATTENDANCE AWARD= 2000/- NIGHT ALLOWANCE=50/-per night</t>
+  </si>
+  <si>
+    <t>इंटरव्यू के लिए अपना ओरिजिनल डाक्यूमेंट्स, आधार कार्ड और पैन कार्ड लेकर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guru amar das pvt ltd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phess 2 sec 80 Dixon कंपनी के पास </t>
+  </si>
+  <si>
+    <t>Injterview Time &gt; 8: 30 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Location📌 phess 2 sec 80 Dixon कंपनी के पास </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveen ji   7417405703 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualification 🗞 *10th 12th *  आधार कार्ड वाले भी आ सकते हैं </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selry 💵 12000 in ✋ 8hr +3 Hr OT daily </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> लोकल भी अप्लाई करें आधार कार्ड वाले भी आ सकते हैं </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus 🚌 free🆓Canteen 🍱Avaliable </t>
+  </si>
+  <si>
+    <t>Sunwoda Electronic, Sector - 63</t>
+  </si>
+  <si>
+    <t>Noida sector 63</t>
+  </si>
+  <si>
+    <t>इंटरवयू की जगह: WP-04, C Block, Sector-71, Noida, Uttar Pradesh - 201301.</t>
+  </si>
+  <si>
+    <t>Qualification 🗞 *10th 12th * ITI</t>
+  </si>
+  <si>
+    <t>ग्रॉस सैलरी - 14047/- रुपए। काम करने के घंटे - 8 घंटे प्रतिदिन तथा ओवरटाइम अलग से। ओवरटाइम - ग्रॉस सैलरी पर डबल। रात्रि भत्ता - 50/- रुपए प्रति रात्रि।</t>
+  </si>
+  <si>
+    <t>उपस्थिति पुरस्कार - 500 रुपए से 1000/- रुपए तक उपस्थिति के अनुसार। लंच / डिनर - 10/- रुपए प्रति लंच / डिनर।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">कंपनी:-सिरमा एसजीएस इलेक्ट्रॉनिक प्राइवेट लिमिटेड </t>
+  </si>
+  <si>
+    <t>पता:-सेक्टर 5 प्लॉट नंबर 22 आईएमटी मानेसर</t>
+  </si>
+  <si>
+    <t>संपर्क नंबर:-9084313572</t>
+  </si>
+  <si>
+    <t>योग्यता:-8वी/10वीं और 12वीं तथा आईटीआई और डिप्लोमा</t>
+  </si>
+  <si>
+    <t>वेतन:-10+2वीं 11258 -8 घंटे के लिए आईटीआई ऑल ट्रेड 11802 - 8 घंटे के लिए डिप्लोमा 12402- 8 घंटे के लिए</t>
+  </si>
+  <si>
+    <t>सोल्डरिंग और विजुअल वेतन 12000-15000 साक्षात्कार के अनुसार 8 घंटे के लिए टीआरसी एल-3 और एल-4 वेतन:-20000-25000 8 घंटे के लिए</t>
+  </si>
+  <si>
+    <t>उपस्थिति:-1500 रुपये/माह उपस्थिति पुरस्कार और 1000रूपये बोनस प्रति माह ओटी:- प्रतिदिन 3 घंटे ओवरटाइम सैलरी के अनुसार</t>
   </si>
 </sst>
 </file>
@@ -1777,9 +1951,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1879,13 +2055,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1893,55 +2069,43 @@
       <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>417</v>
+      <c r="F2" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G2" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="H2" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="I2" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="J2" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="K2" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="L2" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="M2" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="N2" t="s">
-        <v>425</v>
-      </c>
-      <c r="O2" t="s">
-        <v>426</v>
-      </c>
-      <c r="P2" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="C3" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1949,67 +2113,34 @@
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>430</v>
+      <c r="F3" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G3" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="H3" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="I3" t="s">
-        <v>433</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>438</v>
+        <v>481</v>
+      </c>
+      <c r="J3" t="s">
+        <v>482</v>
       </c>
       <c r="K3" t="s">
-        <v>434</v>
-      </c>
-      <c r="L3" t="s">
-        <v>435</v>
-      </c>
-      <c r="M3" t="s">
-        <v>436</v>
-      </c>
-      <c r="N3" t="s">
-        <v>437</v>
-      </c>
-      <c r="O3" t="s">
-        <v>441</v>
-      </c>
-      <c r="P3" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>443</v>
-      </c>
-      <c r="R3" t="s">
-        <v>439</v>
-      </c>
-      <c r="S3" t="s">
-        <v>440</v>
-      </c>
-      <c r="T3" t="s">
-        <v>444</v>
-      </c>
-      <c r="U3" t="s">
-        <v>445</v>
-      </c>
-      <c r="V3" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -2018,54 +2149,48 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="G4" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="H4" t="s">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="I4" t="s">
-        <v>451</v>
+        <v>233</v>
       </c>
       <c r="J4" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="K4" t="s">
-        <v>453</v>
+        <v>381</v>
       </c>
       <c r="L4" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="M4" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="N4" t="s">
-        <v>456</v>
+        <v>241</v>
       </c>
       <c r="O4" t="s">
-        <v>455</v>
+        <v>383</v>
       </c>
       <c r="P4" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>458</v>
-      </c>
-      <c r="R4" t="s">
-        <v>459</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="C5" t="s">
-        <v>388</v>
+        <v>491</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -2073,37 +2198,40 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>461</v>
+      <c r="F5" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G5" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="H5" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="I5" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="J5" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="K5" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="L5" t="s">
-        <v>467</v>
+        <v>496</v>
+      </c>
+      <c r="M5" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>498</v>
       </c>
       <c r="C6" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -2111,55 +2239,37 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>404</v>
+      <c r="F6" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G6" t="s">
-        <v>405</v>
+        <v>499</v>
       </c>
       <c r="H6" t="s">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="I6" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="J6" t="s">
-        <v>408</v>
+        <v>494</v>
       </c>
       <c r="K6" t="s">
-        <v>409</v>
+        <v>502</v>
       </c>
       <c r="L6" t="s">
-        <v>410</v>
-      </c>
-      <c r="M6" t="s">
-        <v>411</v>
-      </c>
-      <c r="N6" t="s">
-        <v>412</v>
-      </c>
-      <c r="O6" t="s">
-        <v>413</v>
-      </c>
-      <c r="P6" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>415</v>
-      </c>
-      <c r="R6" t="s">
-        <v>416</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>505</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -2167,55 +2277,40 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>401</v>
+      <c r="F7" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>506</v>
       </c>
       <c r="H7" t="s">
-        <v>389</v>
+        <v>507</v>
       </c>
       <c r="I7" t="s">
-        <v>390</v>
+        <v>508</v>
       </c>
       <c r="J7" t="s">
-        <v>391</v>
+        <v>509</v>
       </c>
       <c r="K7" t="s">
-        <v>392</v>
+        <v>510</v>
       </c>
       <c r="L7" t="s">
-        <v>393</v>
+        <v>511</v>
       </c>
       <c r="M7" t="s">
-        <v>394</v>
-      </c>
-      <c r="N7" t="s">
-        <v>395</v>
-      </c>
-      <c r="O7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>398</v>
-      </c>
-      <c r="R7" t="s">
-        <v>400</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>513</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>514</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -2223,49 +2318,34 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>379</v>
+      <c r="F8" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>506</v>
       </c>
       <c r="H8" t="s">
-        <v>380</v>
-      </c>
-      <c r="I8" t="s">
-        <v>233</v>
+        <v>515</v>
       </c>
       <c r="J8" t="s">
-        <v>237</v>
+        <v>516</v>
       </c>
       <c r="K8" t="s">
-        <v>381</v>
-      </c>
-      <c r="L8" t="s">
-        <v>382</v>
+        <v>517</v>
       </c>
       <c r="M8" t="s">
-        <v>240</v>
-      </c>
-      <c r="N8" t="s">
-        <v>241</v>
-      </c>
-      <c r="O8" t="s">
-        <v>383</v>
-      </c>
-      <c r="P8" t="s">
-        <v>384</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>519</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>520</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -2273,34 +2353,40 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>373</v>
+      <c r="F9" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G9" t="s">
-        <v>374</v>
+        <v>506</v>
       </c>
       <c r="H9" t="s">
-        <v>374</v>
+        <v>520</v>
       </c>
       <c r="I9" t="s">
-        <v>377</v>
+        <v>521</v>
       </c>
       <c r="J9" t="s">
-        <v>375</v>
+        <v>522</v>
       </c>
       <c r="K9" t="s">
-        <v>376</v>
+        <v>523</v>
+      </c>
+      <c r="L9" t="s">
+        <v>524</v>
+      </c>
+      <c r="M9" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -2309,42 +2395,54 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="G10" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="H10" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="I10" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="J10" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="K10" t="s">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="L10" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="M10" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="N10" t="s">
-        <v>363</v>
+        <v>425</v>
+      </c>
+      <c r="O10" t="s">
+        <v>426</v>
+      </c>
+      <c r="P10" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2352,37 +2450,67 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>365</v>
+      <c r="F11" t="s">
+        <v>430</v>
       </c>
       <c r="G11" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="H11" t="s">
-        <v>367</v>
+        <v>432</v>
       </c>
       <c r="I11" t="s">
-        <v>370</v>
-      </c>
-      <c r="J11" t="s">
-        <v>368</v>
+        <v>433</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="K11" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="L11" t="s">
-        <v>359</v>
+        <v>435</v>
+      </c>
+      <c r="M11" t="s">
+        <v>436</v>
+      </c>
+      <c r="N11" t="s">
+        <v>437</v>
+      </c>
+      <c r="O11" t="s">
+        <v>441</v>
+      </c>
+      <c r="P11" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>443</v>
+      </c>
+      <c r="R11" t="s">
+        <v>439</v>
+      </c>
+      <c r="S11" t="s">
+        <v>440</v>
+      </c>
+      <c r="T11" t="s">
+        <v>444</v>
+      </c>
+      <c r="U11" t="s">
+        <v>445</v>
+      </c>
+      <c r="V11" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2391,42 +2519,54 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>346</v>
+        <v>448</v>
       </c>
       <c r="G12" t="s">
-        <v>347</v>
+        <v>449</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>450</v>
       </c>
       <c r="I12" t="s">
-        <v>349</v>
+        <v>451</v>
       </c>
       <c r="J12" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="K12" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="L12" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="M12" t="s">
-        <v>353</v>
+        <v>455</v>
       </c>
       <c r="N12" t="s">
-        <v>354</v>
+        <v>456</v>
+      </c>
+      <c r="O12" t="s">
+        <v>455</v>
+      </c>
+      <c r="P12" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>458</v>
+      </c>
+      <c r="R12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>460</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2435,60 +2575,36 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>329</v>
+        <v>461</v>
       </c>
       <c r="G13" t="s">
-        <v>330</v>
+        <v>462</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>463</v>
       </c>
       <c r="I13" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="J13" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="K13" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="L13" t="s">
-        <v>335</v>
-      </c>
-      <c r="M13" t="s">
-        <v>336</v>
-      </c>
-      <c r="N13" t="s">
-        <v>337</v>
-      </c>
-      <c r="O13" t="s">
-        <v>338</v>
-      </c>
-      <c r="P13" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>340</v>
-      </c>
-      <c r="R13" t="s">
-        <v>341</v>
-      </c>
-      <c r="S13" t="s">
-        <v>342</v>
-      </c>
-      <c r="T13" t="s">
-        <v>343</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>403</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2497,69 +2613,54 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="G14" t="s">
-        <v>312</v>
+        <v>405</v>
       </c>
       <c r="H14" t="s">
-        <v>314</v>
+        <v>406</v>
       </c>
       <c r="I14" t="s">
-        <v>313</v>
+        <v>407</v>
       </c>
       <c r="J14" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="K14" t="s">
-        <v>316</v>
+        <v>409</v>
       </c>
       <c r="L14" t="s">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="M14" t="s">
-        <v>318</v>
+        <v>411</v>
       </c>
       <c r="N14" t="s">
-        <v>319</v>
+        <v>412</v>
       </c>
       <c r="O14" t="s">
-        <v>250</v>
+        <v>413</v>
       </c>
       <c r="P14" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
       <c r="Q14" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
       <c r="R14" t="s">
-        <v>322</v>
-      </c>
-      <c r="S14" t="s">
-        <v>269</v>
-      </c>
-      <c r="T14" t="s">
-        <v>323</v>
-      </c>
-      <c r="U14" t="s">
-        <v>324</v>
-      </c>
-      <c r="V14" t="s">
-        <v>325</v>
-      </c>
-      <c r="W14" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>387</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>388</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2568,1184 +2669,1584 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>296</v>
+        <v>401</v>
       </c>
       <c r="G15" t="s">
-        <v>297</v>
+        <v>399</v>
       </c>
       <c r="H15" t="s">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="I15" t="s">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="J15" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="K15" t="s">
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="L15" t="s">
-        <v>302</v>
+        <v>393</v>
       </c>
       <c r="M15" t="s">
-        <v>296</v>
+        <v>394</v>
       </c>
       <c r="N15" t="s">
-        <v>303</v>
+        <v>395</v>
       </c>
       <c r="O15" t="s">
-        <v>304</v>
+        <v>396</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>397</v>
       </c>
       <c r="Q15" t="s">
-        <v>305</v>
+        <v>398</v>
       </c>
       <c r="R15" t="s">
-        <v>306</v>
-      </c>
-      <c r="S15" t="s">
-        <v>307</v>
-      </c>
-      <c r="T15" t="s">
-        <v>308</v>
-      </c>
-      <c r="U15" t="s">
-        <v>131</v>
-      </c>
-      <c r="V15" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>379</v>
+      </c>
+      <c r="G16" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" t="s">
+        <v>380</v>
+      </c>
+      <c r="I16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" t="s">
+        <v>381</v>
+      </c>
+      <c r="L16" t="s">
+        <v>382</v>
+      </c>
+      <c r="M16" t="s">
+        <v>240</v>
+      </c>
+      <c r="N16" t="s">
+        <v>241</v>
+      </c>
+      <c r="O16" t="s">
+        <v>383</v>
+      </c>
+      <c r="P16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G17" t="s">
+        <v>374</v>
+      </c>
+      <c r="H17" t="s">
+        <v>374</v>
+      </c>
+      <c r="I17" t="s">
+        <v>377</v>
+      </c>
+      <c r="J17" t="s">
+        <v>375</v>
+      </c>
+      <c r="K17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>385</v>
+      </c>
+      <c r="G18" t="s">
+        <v>356</v>
+      </c>
+      <c r="H18" t="s">
+        <v>357</v>
+      </c>
+      <c r="I18" t="s">
+        <v>358</v>
+      </c>
+      <c r="J18" t="s">
+        <v>361</v>
+      </c>
+      <c r="K18" t="s">
+        <v>362</v>
+      </c>
+      <c r="L18" t="s">
+        <v>359</v>
+      </c>
+      <c r="M18" t="s">
+        <v>360</v>
+      </c>
+      <c r="N18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G19" t="s">
+        <v>366</v>
+      </c>
+      <c r="H19" t="s">
+        <v>367</v>
+      </c>
+      <c r="I19" t="s">
+        <v>370</v>
+      </c>
+      <c r="J19" t="s">
+        <v>368</v>
+      </c>
+      <c r="K19" t="s">
+        <v>369</v>
+      </c>
+      <c r="L19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G20" t="s">
+        <v>347</v>
+      </c>
+      <c r="H20" t="s">
+        <v>348</v>
+      </c>
+      <c r="I20" t="s">
+        <v>349</v>
+      </c>
+      <c r="J20" t="s">
+        <v>350</v>
+      </c>
+      <c r="K20" t="s">
+        <v>351</v>
+      </c>
+      <c r="L20" t="s">
+        <v>352</v>
+      </c>
+      <c r="M20" t="s">
+        <v>353</v>
+      </c>
+      <c r="N20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21" t="s">
+        <v>330</v>
+      </c>
+      <c r="H21" t="s">
+        <v>331</v>
+      </c>
+      <c r="I21" t="s">
+        <v>332</v>
+      </c>
+      <c r="J21" t="s">
+        <v>333</v>
+      </c>
+      <c r="K21" t="s">
+        <v>334</v>
+      </c>
+      <c r="L21" t="s">
+        <v>335</v>
+      </c>
+      <c r="M21" t="s">
+        <v>336</v>
+      </c>
+      <c r="N21" t="s">
+        <v>337</v>
+      </c>
+      <c r="O21" t="s">
+        <v>338</v>
+      </c>
+      <c r="P21" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>340</v>
+      </c>
+      <c r="R21" t="s">
+        <v>341</v>
+      </c>
+      <c r="S21" t="s">
+        <v>342</v>
+      </c>
+      <c r="T21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G22" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" t="s">
+        <v>314</v>
+      </c>
+      <c r="I22" t="s">
+        <v>313</v>
+      </c>
+      <c r="J22" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" t="s">
+        <v>316</v>
+      </c>
+      <c r="L22" t="s">
+        <v>317</v>
+      </c>
+      <c r="M22" t="s">
+        <v>318</v>
+      </c>
+      <c r="N22" t="s">
+        <v>319</v>
+      </c>
+      <c r="O22" t="s">
+        <v>250</v>
+      </c>
+      <c r="P22" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>321</v>
+      </c>
+      <c r="R22" t="s">
+        <v>322</v>
+      </c>
+      <c r="S22" t="s">
+        <v>269</v>
+      </c>
+      <c r="T22" t="s">
+        <v>323</v>
+      </c>
+      <c r="U22" t="s">
+        <v>324</v>
+      </c>
+      <c r="V22" t="s">
+        <v>325</v>
+      </c>
+      <c r="W22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" t="s">
+        <v>298</v>
+      </c>
+      <c r="I23" t="s">
+        <v>299</v>
+      </c>
+      <c r="J23" t="s">
+        <v>300</v>
+      </c>
+      <c r="K23" t="s">
+        <v>301</v>
+      </c>
+      <c r="L23" t="s">
+        <v>302</v>
+      </c>
+      <c r="M23" t="s">
+        <v>296</v>
+      </c>
+      <c r="N23" t="s">
+        <v>303</v>
+      </c>
+      <c r="O23" t="s">
+        <v>304</v>
+      </c>
+      <c r="P23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>305</v>
+      </c>
+      <c r="R23" t="s">
+        <v>306</v>
+      </c>
+      <c r="S23" t="s">
+        <v>307</v>
+      </c>
+      <c r="T23" t="s">
+        <v>308</v>
+      </c>
+      <c r="U23" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" t="s">
         <v>142</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
         <v>144</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G24" t="s">
         <v>145</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H24" t="s">
         <v>285</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I24" t="s">
         <v>286</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J24" t="s">
         <v>156</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K24" t="s">
         <v>287</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L24" t="s">
         <v>288</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M24" t="s">
         <v>289</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N24" t="s">
         <v>290</v>
-      </c>
-      <c r="O16" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>292</v>
-      </c>
-      <c r="R16" t="s">
-        <v>293</v>
-      </c>
-      <c r="S16" t="s">
-        <v>153</v>
-      </c>
-      <c r="T16" t="s">
-        <v>294</v>
-      </c>
-      <c r="U16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" t="s">
-        <v>275</v>
-      </c>
-      <c r="H17" t="s">
-        <v>276</v>
-      </c>
-      <c r="I17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J17" t="s">
-        <v>278</v>
-      </c>
-      <c r="K17" t="s">
-        <v>279</v>
-      </c>
-      <c r="L17" t="s">
-        <v>280</v>
-      </c>
-      <c r="M17" t="s">
-        <v>281</v>
-      </c>
-      <c r="N17" t="s">
-        <v>282</v>
-      </c>
-      <c r="O17" t="s">
-        <v>283</v>
-      </c>
-      <c r="P17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>263</v>
-      </c>
-      <c r="H18" t="s">
-        <v>264</v>
-      </c>
-      <c r="I18" t="s">
-        <v>265</v>
-      </c>
-      <c r="J18" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" t="s">
-        <v>250</v>
-      </c>
-      <c r="L18" t="s">
-        <v>267</v>
-      </c>
-      <c r="M18" t="s">
-        <v>268</v>
-      </c>
-      <c r="N18" t="s">
-        <v>269</v>
-      </c>
-      <c r="O18" t="s">
-        <v>270</v>
-      </c>
-      <c r="P18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" t="s">
-        <v>246</v>
-      </c>
-      <c r="H19" t="s">
-        <v>257</v>
-      </c>
-      <c r="I19" t="s">
-        <v>248</v>
-      </c>
-      <c r="J19" t="s">
-        <v>247</v>
-      </c>
-      <c r="K19" t="s">
-        <v>249</v>
-      </c>
-      <c r="L19" t="s">
-        <v>250</v>
-      </c>
-      <c r="M19" t="s">
-        <v>251</v>
-      </c>
-      <c r="N19" t="s">
-        <v>252</v>
-      </c>
-      <c r="O19" t="s">
-        <v>253</v>
-      </c>
-      <c r="P19" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>255</v>
-      </c>
-      <c r="R19" t="s">
-        <v>256</v>
-      </c>
-      <c r="S19" t="s">
-        <v>258</v>
-      </c>
-      <c r="T19" t="s">
-        <v>259</v>
-      </c>
-      <c r="U19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" t="s">
-        <v>235</v>
-      </c>
-      <c r="H20" t="s">
-        <v>236</v>
-      </c>
-      <c r="I20" t="s">
-        <v>233</v>
-      </c>
-      <c r="J20" t="s">
-        <v>237</v>
-      </c>
-      <c r="K20" t="s">
-        <v>238</v>
-      </c>
-      <c r="L20" t="s">
-        <v>239</v>
-      </c>
-      <c r="M20" t="s">
-        <v>240</v>
-      </c>
-      <c r="N20" t="s">
-        <v>241</v>
-      </c>
-      <c r="O20" t="s">
-        <v>242</v>
-      </c>
-      <c r="P20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" t="s">
-        <v>219</v>
-      </c>
-      <c r="H21" t="s">
-        <v>220</v>
-      </c>
-      <c r="I21" t="s">
-        <v>221</v>
-      </c>
-      <c r="J21" t="s">
-        <v>222</v>
-      </c>
-      <c r="K21" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" t="s">
-        <v>224</v>
-      </c>
-      <c r="M21" t="s">
-        <v>225</v>
-      </c>
-      <c r="N21" t="s">
-        <v>226</v>
-      </c>
-      <c r="O21" t="s">
-        <v>227</v>
-      </c>
-      <c r="P21" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>229</v>
-      </c>
-      <c r="R21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" t="s">
-        <v>203</v>
-      </c>
-      <c r="H22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J22" t="s">
-        <v>206</v>
-      </c>
-      <c r="K22" t="s">
-        <v>207</v>
-      </c>
-      <c r="L22" t="s">
-        <v>208</v>
-      </c>
-      <c r="M22" t="s">
-        <v>209</v>
-      </c>
-      <c r="N22" t="s">
-        <v>210</v>
-      </c>
-      <c r="O22" t="s">
-        <v>211</v>
-      </c>
-      <c r="P22" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>213</v>
-      </c>
-      <c r="R22" t="s">
-        <v>214</v>
-      </c>
-      <c r="S22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" t="s">
-        <v>189</v>
-      </c>
-      <c r="I23" t="s">
-        <v>190</v>
-      </c>
-      <c r="J23" t="s">
-        <v>191</v>
-      </c>
-      <c r="K23" t="s">
-        <v>192</v>
-      </c>
-      <c r="L23" t="s">
-        <v>193</v>
-      </c>
-      <c r="M23" t="s">
-        <v>195</v>
-      </c>
-      <c r="N23" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" t="s">
-        <v>196</v>
-      </c>
-      <c r="P23" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>198</v>
-      </c>
-      <c r="R23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" t="s">
-        <v>176</v>
-      </c>
-      <c r="J24" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" t="s">
-        <v>150</v>
-      </c>
-      <c r="M24" t="s">
-        <v>179</v>
-      </c>
-      <c r="N24" t="s">
-        <v>180</v>
       </c>
       <c r="O24" t="s">
         <v>181</v>
       </c>
       <c r="P24" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>292</v>
+      </c>
+      <c r="R24" t="s">
+        <v>293</v>
+      </c>
+      <c r="S24" t="s">
         <v>153</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="T24" t="s">
+        <v>294</v>
+      </c>
+      <c r="U24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" t="s">
+        <v>276</v>
+      </c>
+      <c r="I25" t="s">
+        <v>277</v>
+      </c>
+      <c r="J25" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" t="s">
+        <v>281</v>
+      </c>
+      <c r="N25" t="s">
+        <v>282</v>
+      </c>
+      <c r="O25" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>274</v>
+      </c>
+      <c r="G26" t="s">
+        <v>263</v>
+      </c>
+      <c r="H26" t="s">
+        <v>264</v>
+      </c>
+      <c r="I26" t="s">
+        <v>265</v>
+      </c>
+      <c r="J26" t="s">
+        <v>266</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>267</v>
+      </c>
+      <c r="M26" t="s">
+        <v>268</v>
+      </c>
+      <c r="N26" t="s">
+        <v>269</v>
+      </c>
+      <c r="O26" t="s">
+        <v>270</v>
+      </c>
+      <c r="P26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>246</v>
+      </c>
+      <c r="H27" t="s">
+        <v>257</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" t="s">
+        <v>251</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s">
+        <v>253</v>
+      </c>
+      <c r="P27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>255</v>
+      </c>
+      <c r="R27" t="s">
+        <v>256</v>
+      </c>
+      <c r="S27" t="s">
+        <v>258</v>
+      </c>
+      <c r="T27" t="s">
+        <v>259</v>
+      </c>
+      <c r="U27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" t="s">
+        <v>236</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" t="s">
+        <v>240</v>
+      </c>
+      <c r="N28" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" t="s">
+        <v>242</v>
+      </c>
+      <c r="P28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="s">
+        <v>225</v>
+      </c>
+      <c r="N29" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" t="s">
+        <v>227</v>
+      </c>
+      <c r="P29" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>229</v>
+      </c>
+      <c r="R29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" t="s">
+        <v>209</v>
+      </c>
+      <c r="N30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O30" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>213</v>
+      </c>
+      <c r="R30" t="s">
+        <v>214</v>
+      </c>
+      <c r="S30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" t="s">
+        <v>193</v>
+      </c>
+      <c r="M31" t="s">
+        <v>195</v>
+      </c>
+      <c r="N31" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" t="s">
+        <v>196</v>
+      </c>
+      <c r="P31" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>198</v>
+      </c>
+      <c r="R31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" t="s">
+        <v>176</v>
+      </c>
+      <c r="J32" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32" t="s">
+        <v>178</v>
+      </c>
+      <c r="L32" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" t="s">
+        <v>179</v>
+      </c>
+      <c r="N32" t="s">
+        <v>180</v>
+      </c>
+      <c r="O32" t="s">
+        <v>181</v>
+      </c>
+      <c r="P32" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q32" t="s">
         <v>182</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R32" t="s">
         <v>183</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S32" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>10</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B33" t="s">
         <v>161</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C33" t="s">
         <v>162</v>
       </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
         <v>91</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G33" t="s">
         <v>163</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H33" t="s">
         <v>164</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I33" t="s">
         <v>165</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J33" t="s">
         <v>94</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K33" t="s">
         <v>95</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L33" t="s">
         <v>96</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M33" t="s">
         <v>97</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N33" t="s">
         <v>166</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O33" t="s">
         <v>167</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P33" t="s">
         <v>168</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q33" t="s">
         <v>102</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R33" t="s">
         <v>103</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S33" t="s">
         <v>169</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T33" t="s">
         <v>170</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U33" t="s">
         <v>105</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V33" t="s">
         <v>106</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W33" t="s">
         <v>107</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B34" t="s">
         <v>142</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C34" t="s">
         <v>143</v>
       </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
         <v>144</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G34" t="s">
         <v>145</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H34" t="s">
         <v>146</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I34" t="s">
         <v>147</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J34" t="s">
         <v>148</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K34" t="s">
         <v>149</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L34" t="s">
         <v>150</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M34" t="s">
         <v>151</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N34" t="s">
         <v>152</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O34" t="s">
         <v>153</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P34" t="s">
         <v>154</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q34" t="s">
         <v>155</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R34" t="s">
         <v>156</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S34" t="s">
         <v>157</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T34" t="s">
         <v>158</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U34" t="s">
         <v>159</v>
       </c>
-      <c r="V26" t="s">
+      <c r="V34" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B35" t="s">
         <v>126</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C35" t="s">
         <v>127</v>
       </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
         <v>128</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G35" t="s">
         <v>129</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H35" t="s">
         <v>130</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I35" t="s">
         <v>132</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J35" t="s">
         <v>131</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K35" t="s">
         <v>133</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L35" t="s">
         <v>134</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M35" t="s">
         <v>136</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N35" t="s">
         <v>135</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O35" t="s">
         <v>137</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P35" t="s">
         <v>138</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q35" t="s">
         <v>139</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R35" t="s">
         <v>140</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C36" t="s">
         <v>111</v>
       </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
         <v>110</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G36" t="s">
         <v>112</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H36" t="s">
         <v>113</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I36" t="s">
         <v>114</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J36" t="s">
         <v>115</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K36" t="s">
         <v>31</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L36" t="s">
         <v>116</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M36" t="s">
         <v>117</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N36" t="s">
         <v>118</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O36" t="s">
         <v>119</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P36" t="s">
         <v>124</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q36" t="s">
         <v>123</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R36" t="s">
         <v>125</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S36" t="s">
         <v>120</v>
       </c>
-      <c r="T28" t="s">
+      <c r="T36" t="s">
         <v>121</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
         <v>91</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G37" t="s">
         <v>92</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H37" t="s">
         <v>93</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I37" t="s">
         <v>94</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J37" t="s">
         <v>95</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K37" t="s">
         <v>96</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L37" t="s">
         <v>97</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M37" t="s">
         <v>98</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N37" t="s">
         <v>99</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O37" t="s">
         <v>100</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P37" t="s">
         <v>101</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q37" t="s">
         <v>102</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R37" t="s">
         <v>103</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S37" t="s">
         <v>104</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T37" t="s">
         <v>105</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U37" t="s">
         <v>106</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V37" t="s">
         <v>107</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
         <v>42</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G38" t="s">
         <v>109</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H38" t="s">
         <v>43</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I38" t="s">
         <v>45</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J38" t="s">
         <v>46</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K38" t="s">
         <v>47</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L38" t="s">
         <v>48</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M38" t="s">
         <v>49</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>5</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C39" t="s">
         <v>71</v>
       </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
         <v>72</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G39" t="s">
         <v>73</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H39" t="s">
         <v>74</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I39" t="s">
         <v>75</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J39" t="s">
         <v>76</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K39" t="s">
         <v>77</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L39" t="s">
         <v>78</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M39" t="s">
         <v>79</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N39" t="s">
         <v>80</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O39" t="s">
         <v>81</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P39" t="s">
         <v>82</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q39" t="s">
         <v>83</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R39" t="s">
         <v>84</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S39" t="s">
         <v>85</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T39" t="s">
         <v>86</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U39" t="s">
         <v>87</v>
       </c>
-      <c r="V31" t="s">
+      <c r="V39" t="s">
         <v>88</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C40" t="s">
         <v>25</v>
       </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
         <v>29</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G40" t="s">
         <v>27</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H40" t="s">
         <v>28</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I40" t="s">
         <v>32</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J40" t="s">
         <v>30</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K40" t="s">
         <v>26</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L40" t="s">
         <v>34</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M40" t="s">
         <v>35</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N40" t="s">
         <v>36</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O40" t="s">
         <v>38</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P40" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q40" t="s">
         <v>31</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
         <v>42</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G41" t="s">
         <v>44</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H41" t="s">
         <v>43</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I41" t="s">
         <v>45</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J41" t="s">
         <v>46</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K41" t="s">
         <v>47</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L41" t="s">
         <v>48</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M41" t="s">
         <v>49</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>8</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C42" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
         <v>55</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G42" t="s">
         <v>54</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H42" t="s">
         <v>53</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I42" t="s">
         <v>56</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J42" t="s">
         <v>57</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K42" t="s">
         <v>58</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L42" t="s">
         <v>59</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M42" t="s">
         <v>60</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N42" t="s">
         <v>61</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O42" t="s">
         <v>62</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P42" t="s">
         <v>63</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q42" t="s">
         <v>64</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R42" t="s">
         <v>65</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S42" t="s">
         <v>66</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T42" t="s">
         <v>67</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U42" t="s">
         <v>68</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V42" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="485">
   <si>
     <t>S.No</t>
   </si>
@@ -1086,6 +1086,9 @@
     <t>Sunwoda Electronics  COMPANY Surajpur, Greater Noida</t>
   </si>
   <si>
+    <t>COMPANY Surajpur, Greater Noida</t>
+  </si>
+  <si>
     <t>INTERVIEW TIME : 08:00AM</t>
   </si>
   <si>
@@ -1113,24 +1116,6 @@
     <t>UIL_Electronics (Apprenticeship profile)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Interview Date- 18-04-2025</t>
-  </si>
-  <si>
-    <t>Injterview Time &gt; 7AM TO AM</t>
-  </si>
-  <si>
-    <t>इंटरव्यू पता :- Ecotec 1 Extension Greater Noida https://maps.app.goo.gl/q9u6zYudW1AZCLaY8?g_st=com.google.maps.preview.copy</t>
-  </si>
-  <si>
-    <t>Qualification:- 12th graduate ITI  or Diploma</t>
-  </si>
-  <si>
-    <t>Salary_11000_Inhand, Overtime_double, Lunch_Dinner_Free, Bus_free</t>
-  </si>
-  <si>
-    <t>Contact person:- Ark_Workforce ,  Vishan - +91 9315473717, Sumit bhati -80764 00824, Lokendra- 9690643861</t>
-  </si>
-  <si>
     <t>PPAP AUTOMOTIVE LTD phase-2</t>
   </si>
   <si>
@@ -1176,283 +1161,48 @@
     <t>INTERVIEW DATE-: 19/04/2025</t>
   </si>
   <si>
-    <t>Surajpur, Greater Noida</t>
-  </si>
-  <si>
-    <t>BJD Company</t>
-  </si>
-  <si>
-    <t>Noida</t>
-  </si>
-  <si>
-    <t>Loins workforce pvt Ltd के मध्यम से</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!! भर्ती है “Charger बनाने वाली ” कंपनी में !! </t>
-  </si>
-  <si>
-    <t>Day शिफ्ट के लिए।।</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Vacancy: 50Day  shift </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department: packing </t>
-  </si>
-  <si>
-    <t>Salary: Rs11000/-</t>
-  </si>
-  <si>
-    <t>Overtime: Rs60/-</t>
-  </si>
-  <si>
-    <t>Attendance: Rs200/-</t>
-  </si>
-  <si>
-    <t>आवश्यक योग्यता*: 10th, 12th</t>
-  </si>
-  <si>
-    <t>ओरिगेनल आधार कार्ड  लाना अनिवार्य  है,डॉक्यूमेंट के साथ बैंक अकाउंट, दो फोटो  लाना अनिवार्य है</t>
-  </si>
-  <si>
-    <t>इंटरव्यू टाइम :-सुबह 08:00 बजे</t>
-  </si>
-  <si>
-    <t>Contact: Happy yadav- 9354138226, Ajeet-78272 28258‬</t>
-  </si>
-  <si>
-    <t>इंटरव्यू पता-: B-5 Sec-65 Noida, इंटरव्यू डेट :-  23-04-2025</t>
-  </si>
-  <si>
-    <t>BPL MOBILE COMPANY (Old Vivo)</t>
-  </si>
-  <si>
-    <t>Kasna, Gr. Noida</t>
-  </si>
-  <si>
-    <t>Interview Date: 23rd April 2025</t>
-  </si>
-  <si>
-    <t>Time: 09:00 AM - 02:30 PM</t>
-  </si>
-  <si>
-    <t>F-20, Site 4, Kasna, Near Grand Venice Mall</t>
-  </si>
-  <si>
-    <t>Contact to HSC MANPOWER TEAM : 9536846742 | 8279447224 | 9927489658 | 9411840527</t>
-  </si>
-  <si>
-    <t>No fee required for this recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualification: 10th, 12th, BA, BSc, B.Com, ITI, Diploma
-</t>
-  </si>
-  <si>
-    <t>Salary: Skilled: ₹13,579, Semi-skilled: ₹12,122, Unskilled: ₹11,020</t>
-  </si>
-  <si>
-    <t>Additional Benefits: OT - Double, Attendance Award: ₹2,000, GWP Award: ₹1,000</t>
-  </si>
-  <si>
-    <t>Service Allowance: ₹500, ₹1,000, ₹1,500</t>
-  </si>
-  <si>
-    <t>Free Bus &amp; Canteen</t>
-  </si>
-  <si>
-    <t>Age: 18-32 years</t>
-  </si>
-  <si>
-    <t>Join us on WhatsApp: https://chat.whatsapp.com/Kr7SFjCgBre8FBvPjLLPf2</t>
-  </si>
-  <si>
-    <t>Join us on Facebook page: https://www.facebook.com/share/16EZwzGGNK/</t>
-  </si>
-  <si>
-    <t>इंटरव्यू डेट :- 25/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> इंटरव्यू टाइम :- 08 - 11 AM</t>
-  </si>
-  <si>
-    <t>इंटरव्यू पता :- ARK Workforce Plot Number - 246 Block - G Sector-63 Noida</t>
-  </si>
-  <si>
-    <t>ARK_WORK_FORCE में #TRANSSION(Itel) कंपनी (मैन्युफैक्चरिंग) के लिए भर्ती है जिसकी जानकारी निन्मलिखित है-</t>
-  </si>
-  <si>
-    <t>Total Quantity :- 100(Only Boys)</t>
-  </si>
-  <si>
-    <t>Qualification:-10th 12th graduate ITI  or Diploma,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salary_11000_Inhand </t>
-  </si>
-  <si>
-    <t>attendance_award_1000</t>
-  </si>
-  <si>
-    <t>Night_Alowance_50_Per_Night #Overtime_100_Per_Hour</t>
-  </si>
-  <si>
-    <t>Lunch_Dinner_Free</t>
-  </si>
-  <si>
-    <t>Contact person:- Ankit - 8477873797, Vishan- 9315473717</t>
-  </si>
-  <si>
-    <t>Location: https://maps.app.goo.gl/oDywEJJLtvZRMAsN9?g_st=com.google.maps.preview.copy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> XIHI Technology PVT.LTD</t>
-  </si>
-  <si>
-    <t>इंटरव्यू डेट :-    25/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morning- 7:00am to 8:00am </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> joining - evening       6:30pm</t>
-  </si>
-  <si>
-    <t>इंटरव्यू पता :- noida sector 63 plot 53 block J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!! भर्ती है XIHI Technology PVT.LTD company -charge banane wali </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator- total 50 requirements </t>
-  </si>
-  <si>
-    <t>#Qualification- only ITI</t>
-  </si>
-  <si>
-    <t>Age -18-to-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengo Orange pvt.Ltd se Bharti *Noida sector 63 J53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">paid canteen, No bus </t>
-  </si>
-  <si>
-    <t>Daily duty timing - 7:50pm to 6:30am</t>
-  </si>
-  <si>
-    <t>Salary_  13623, 12123+ 1500(DBT)inhand, #OT: per_hour -130</t>
-  </si>
-  <si>
-    <t>Attandance Award (on 22 duty 1000),  #Night Alawance per night rs 95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Best employee award -1000 rs , #Weekly -Saturday Sunday off </t>
-  </si>
-  <si>
-    <t>Contact person:-Sagar - 7084457567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सभी को सूचित किया जाता हैं, सीही टेक्नोलॉजी प्राइवेट लिमिट j53 सेक्टर 63 नॉएडा में नाईट में अब कैंटीन  चालू हो गयी हैं।, जो की आपके नाईट अल्लोउंस से  paid होंगी। </t>
-  </si>
-  <si>
-    <t>कॉल करके ही डाक्यूमेंट दें, कॉल ना उठने पर व्हाट्सप्प में cv भेजे</t>
-  </si>
-  <si>
-    <t>Kimbal</t>
-  </si>
-  <si>
-    <t>इंटरव्यू डेट-: 25/04/2025 समय : 8:00 AM</t>
-  </si>
-  <si>
-    <t>इंटरव्यू पता-: Kimbal company knowledge park 3 plot no 20 Near sharda hospital Gol chakkar Greater Noida</t>
-  </si>
-  <si>
-    <t>Contact: Lokesh -9690643861, Sumit- 8076400824</t>
-  </si>
-  <si>
-    <t>आपको सूचित किया जाता है कि दिनांक 25/04/2025को #ARK_Workforce से #only_apprenticeship_job</t>
-  </si>
-  <si>
-    <t>#Kimbal_Company Job Greater Noida Company के लिए भर्ती है जिसकी जानकारी निन्मलिखित है</t>
-  </si>
-  <si>
-    <t>1-Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Qualification- ITI diploma &amp; Graduate </t>
-  </si>
-  <si>
-    <t>#Salary_14300( for 8hrs)</t>
-  </si>
-  <si>
-    <t>2- SPM_Operator</t>
-  </si>
-  <si>
-    <t>#Experiance_17000(for 8hrs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#OT_double, #canteen_free #Bus_free, #Attendance_award_1500, #Night_allowance_100/nigh, </t>
+    <t>TRANSSION (itel) MNC</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :- 25-April-2025</t>
+  </si>
+  <si>
+    <t>इंटरव्यू टाइम :- 07:30 AM TO 11 AM</t>
+  </si>
+  <si>
+    <t>Vacancy: 100 (Only for Boys)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendance award :- 1000/- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimbal_Company </t>
+  </si>
+  <si>
+    <t>Greater Noida Surajpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interview Date- 25-04-2025</t>
+  </si>
+  <si>
+    <t>Injterview Time &gt; 7AM TO AM to 9 AM</t>
+  </si>
+  <si>
+    <t>Kimbal company knowledge park 3 plot no 20 Near sharda hospital Gol chakkar Greater Noida</t>
+  </si>
+  <si>
+    <t>ARK_Workforce से only_apprenticeship_job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary_14300( for 8hrs) 2- SPM_Operator Salary_14300( for 8hrs) xperiance_17000(for 8hrs) OT_double canteen_free #Bus_free </t>
+  </si>
+  <si>
+    <t>Attendance_award_1500 Night_allowance_100/night</t>
   </si>
   <si>
     <t>documents-Resume, passport size photo, Educational Certificates, Aadhar Card, Bank Passbook</t>
   </si>
   <si>
-    <t>KHVatec_India_Pvt_Ltd.</t>
-  </si>
-  <si>
-    <t>इंटरव्यू डेट-: 24/04/2025 समय : 8:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact: Yogesh- 79839 61240 </t>
-  </si>
-  <si>
-    <t>Phone na Uthane per Resume ko whatsapp kre</t>
-  </si>
-  <si>
-    <t>ADD:- KHVatec India Pvt. Ltd. Kasna greater Noida (G.B  Nagar) UP, near Asian paint company</t>
-  </si>
-  <si>
-    <t>#salary_11020 #Att_award_1000</t>
-  </si>
-  <si>
-    <t>#Overtime_105per hours #Canteen_free #Transport_free</t>
-  </si>
-  <si>
-    <t>#Education_Required_12th_Graduate_ITI #original_Documents_leke_aaye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimbal_Company </t>
-  </si>
-  <si>
-    <t>Greater Noida Surajpur</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Interview Date- 25-04-2025</t>
-  </si>
-  <si>
-    <t>Injterview Time &gt; 7AM TO AM to 9 AM</t>
-  </si>
-  <si>
-    <t>Kimbal company knowledge park 3 plot no 20 Near sharda hospital Gol chakkar Greater Noida</t>
-  </si>
-  <si>
-    <t>Lokesh -9690643861, Sumit- 8076400824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualification- ITI diploma &amp; Graduate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salary_14300( for 8hrs) 2- SPM_Operator Salary_14300( for 8hrs) xperiance_17000(for 8hrs) OT_double canteen_free #Bus_free </t>
-  </si>
-  <si>
-    <t>ARK_Workforce से only_apprenticeship_job</t>
-  </si>
-  <si>
-    <t>Attendance_award_1500 Night_allowance_100/night</t>
-  </si>
-  <si>
     <t>BPL Mobile_MNC_Gr,Noida</t>
   </si>
   <si>
@@ -1471,48 +1221,54 @@
     <t>10th/12th, Salary -: 12094 Gross  Overtime - 106₹ per hour Attendance Award :- 2000 (Montly) GWP Award :- 1000  Canteen - Free (Lunch,2 time tea,snack)</t>
   </si>
   <si>
-    <t>TRANSSION (itel) MNC</t>
-  </si>
-  <si>
-    <t>इंटरव्यू डेट :- 25-April-2025</t>
-  </si>
-  <si>
-    <t>इंटरव्यू टाइम :- 07:30 AM TO 11 AM</t>
-  </si>
-  <si>
-    <t>Vacancy: 100 (Only for Boys)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attendance award :- 1000/- </t>
+    <t xml:space="preserve">भर्ती है लडको और लड़कियों के लिए </t>
+  </si>
+  <si>
+    <t xml:space="preserve">देवला साइड भी ईस्ट इंडिया कंपनी के बराबर में है </t>
   </si>
   <si>
     <t>Injterview Time &gt; 7AM TO 10 AM</t>
   </si>
   <si>
+    <t xml:space="preserve">कंपनी लोकेशन= देवला साइड भी ईस्ट इंडिया कंपनी के बराबर में है </t>
+  </si>
+  <si>
+    <t>अनपढ़ लड़के भी आ सकते हैं</t>
+  </si>
+  <si>
+    <t>Pooja ma'am,  8447932394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सैलरी= 16000  in hand for 12 hour's 26 day's Overtime सिंगल है डेली 3.5 hour's  500 Attandance Award </t>
+  </si>
+  <si>
+    <t>सभी जगह के लड़के और लड़कियां आ सकते है</t>
+  </si>
+  <si>
     <t xml:space="preserve">OPPO Mobile Company Kasna, Greater Noida </t>
   </si>
   <si>
+    <t>Satish ji 7417352069, Rocky 9927613359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview location= कासना बस स्टैंड यूनिवर्सिटी रोड काशीराम हॉस्पिटल वाली रोड पर गुर्जर कॉलोनी (बढ़ा तिरंगा ) वाली गली के पास आकर </t>
+  </si>
+  <si>
     <t>Kasna, Greater Noida</t>
   </si>
   <si>
-    <t xml:space="preserve">Interview location= कासना बस स्टैंड यूनिवर्सिटी रोड काशीराम हॉस्पिटल वाली रोड पर गुर्जर कॉलोनी (बढ़ा तिरंगा ) वाली गली के पास आकर </t>
-  </si>
-  <si>
-    <t>Satish ji 7417352069, Rocky 9927613359</t>
+    <t>Salary: - 12000/- IN Hand For 8 hour's 26 day's Overtime डबल है 116 रुपए hour's डैली चलता है 3 hour's Attendance award - 2000/-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night allowances - 50/night, NAPS Award=1500 Rupe  </t>
+  </si>
+  <si>
+    <t>कृपया वही लड़का आए  जिसका घर  ग्रेटर-नोएडा  से 100 Km दूर  हो।</t>
   </si>
   <si>
     <t>Educational Certificates 10th ,12th,Diploma  Marksheet)</t>
   </si>
   <si>
-    <t>Salary: - 12000/- IN Hand For 8 hour's 26 day's Overtime डबल है 116 रुपए hour's डैली चलता है 3 hour's Attendance award - 2000/-</t>
-  </si>
-  <si>
-    <t>कृपया वही लड़का आए  जिसका घर  ग्रेटर-नोएडा  से 100 Km दूर  हो।</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night allowances - 50/night, NAPS Award=1500 Rupe  </t>
-  </si>
-  <si>
     <t xml:space="preserve">OPPO MOBILE india pvt ltd </t>
   </si>
   <si>
@@ -1525,15 +1281,15 @@
     <t>9953756276, 9650935099, 8882829930, 9650578940</t>
   </si>
   <si>
+    <t xml:space="preserve">Guru amar das pvt ltd </t>
+  </si>
+  <si>
     <t>CTC SALARY = 16407/- OVER-TIME= DOUBLE  BUS= FREE CANTEEN= FREE ATTENDANCE AWARD= 2000/- NIGHT ALLOWANCE=50/-per night</t>
   </si>
   <si>
     <t>इंटरव्यू के लिए अपना ओरिजिनल डाक्यूमेंट्स, आधार कार्ड और पैन कार्ड लेकर</t>
   </si>
   <si>
-    <t xml:space="preserve">Guru amar das pvt ltd </t>
-  </si>
-  <si>
     <t xml:space="preserve">phess 2 sec 80 Dixon कंपनी के पास </t>
   </si>
   <si>
@@ -1543,6 +1299,9 @@
     <t xml:space="preserve"> Location📌 phess 2 sec 80 Dixon कंपनी के पास </t>
   </si>
   <si>
+    <t xml:space="preserve"> लोकल भी अप्लाई करें आधार कार्ड वाले भी आ सकते हैं </t>
+  </si>
+  <si>
     <t xml:space="preserve">Naveen ji   7417405703 </t>
   </si>
   <si>
@@ -1552,9 +1311,6 @@
     <t xml:space="preserve">Selry 💵 12000 in ✋ 8hr +3 Hr OT daily </t>
   </si>
   <si>
-    <t xml:space="preserve"> लोकल भी अप्लाई करें आधार कार्ड वाले भी आ सकते हैं </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bus 🚌 free🆓Canteen 🍱Avaliable </t>
   </si>
   <si>
@@ -1567,15 +1323,15 @@
     <t>इंटरवयू की जगह: WP-04, C Block, Sector-71, Noida, Uttar Pradesh - 201301.</t>
   </si>
   <si>
+    <t>ग्रॉस सैलरी - 14047/- रुपए। काम करने के घंटे - 8 घंटे प्रतिदिन तथा ओवरटाइम अलग से। ओवरटाइम - ग्रॉस सैलरी पर डबल। रात्रि भत्ता - 50/- रुपए प्रति रात्रि।</t>
+  </si>
+  <si>
+    <t>उपस्थिति पुरस्कार - 500 रुपए से 1000/- रुपए तक उपस्थिति के अनुसार। लंच / डिनर - 10/- रुपए प्रति लंच / डिनर।</t>
+  </si>
+  <si>
     <t>Qualification 🗞 *10th 12th * ITI</t>
   </si>
   <si>
-    <t>ग्रॉस सैलरी - 14047/- रुपए। काम करने के घंटे - 8 घंटे प्रतिदिन तथा ओवरटाइम अलग से। ओवरटाइम - ग्रॉस सैलरी पर डबल। रात्रि भत्ता - 50/- रुपए प्रति रात्रि।</t>
-  </si>
-  <si>
-    <t>उपस्थिति पुरस्कार - 500 रुपए से 1000/- रुपए तक उपस्थिति के अनुसार। लंच / डिनर - 10/- रुपए प्रति लंच / डिनर।</t>
-  </si>
-  <si>
     <t xml:space="preserve">कंपनी:-सिरमा एसजीएस इलेक्ट्रॉनिक प्राइवेट लिमिटेड </t>
   </si>
   <si>
@@ -1595,16 +1351,144 @@
   </si>
   <si>
     <t>उपस्थिति:-1500 रुपये/माह उपस्थिति पुरस्कार और 1000रूपये बोनस प्रति माह ओटी:- प्रतिदिन 3 घंटे ओवरटाइम सैलरी के अनुसार</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualification- diploma &amp; Graduate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interview Date- 30-04-2025</t>
+  </si>
+  <si>
+    <t>Ecotec 1 Extension Greater Noida</t>
+  </si>
+  <si>
+    <t>Vishan-9315473717, Ankit- 8477873797, 7983961240</t>
+  </si>
+  <si>
+    <t>Salary_11000 Double Over time, Canteen Free Bud Free</t>
+  </si>
+  <si>
+    <t>khvatec India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Kasna greater Noida (G.B  Nagar) UP, near Asian paint company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogesh- 7983961240 </t>
+  </si>
+  <si>
+    <t>Lokesh -9690643861</t>
+  </si>
+  <si>
+    <t>Saalry_ 11020, Double OT Attendance Awars- 1000, canteen_free, Bud_free</t>
+  </si>
+  <si>
+    <t>Attendance_award_1000 Night_allowance_100/night</t>
+  </si>
+  <si>
+    <t>BJD Electronics</t>
+  </si>
+  <si>
+    <t>B-005, B Block, Sector 65, Noida, Uttar Pradesh 201301</t>
+  </si>
+  <si>
+    <t>Vishan-9315473717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlyITI </t>
+  </si>
+  <si>
+    <t>Saalry_17000 Ot_60/hrs Attendance award_200</t>
+  </si>
+  <si>
+    <t>JTI Technology Noida Pahse-2</t>
+  </si>
+  <si>
+    <t>Noida Pahse -2 Noida</t>
+  </si>
+  <si>
+    <t>Santosh-8800517053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMC Department </t>
+  </si>
+  <si>
+    <t>Saalry_17000 se 18000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBG TECHNOLOGY  (India) Pvt Ltd   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sector 8 plot no 2 Bawal Haryana. </t>
+  </si>
+  <si>
+    <t>Parmod:-+919053509320</t>
+  </si>
+  <si>
+    <t>12 hrs in hand salary20500/-</t>
+  </si>
+  <si>
+    <t>IMI Norgren Herion PVT LTD</t>
+  </si>
+  <si>
+    <t>ector 85 Noida UP</t>
+  </si>
+  <si>
+    <t>Suraj-9761660625</t>
+  </si>
+  <si>
+    <t>Diploma Me. EL. :- 15000 In Hand, ITI Fitter:- 12800 In Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGPEL Precision Engineering Limited </t>
+  </si>
+  <si>
+    <t>Address - A - 27 , Sector - 68 , Noida</t>
+  </si>
+  <si>
+    <t>Sachin-  87561 18092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department -  production </t>
+  </si>
+  <si>
+    <t>Salary- ITI 14388</t>
+  </si>
+  <si>
+    <t>Dayco Power Transmission Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Sector 6, Plot no 12,13 IMT Manesar Gurgaon Haryana</t>
+  </si>
+  <si>
+    <t>Graduation.. BSc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department - Production </t>
+  </si>
+  <si>
+    <t>Gross Salary: Rs. 18750 per month</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OLD VIVO (BHAGWATI PRODUCT LIMITED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1639,19 +1523,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1659,6 +1543,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1951,35 +1838,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="76.85546875" customWidth="1"/>
+    <col min="7" max="7" width="121.140625" customWidth="1"/>
+    <col min="8" max="8" width="144" customWidth="1"/>
+    <col min="9" max="9" width="80.7109375" customWidth="1"/>
+    <col min="10" max="10" width="103.5703125" customWidth="1"/>
+    <col min="11" max="11" width="137.140625" customWidth="1"/>
+    <col min="12" max="12" width="137.28515625" customWidth="1"/>
+    <col min="13" max="13" width="140.140625" customWidth="1"/>
+    <col min="14" max="14" width="127" customWidth="1"/>
+    <col min="15" max="15" width="174.5703125" customWidth="1"/>
+    <col min="16" max="16" width="174.28515625" customWidth="1"/>
+    <col min="17" max="17" width="98" customWidth="1"/>
+    <col min="18" max="18" width="152.7109375" customWidth="1"/>
+    <col min="19" max="19" width="176.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2055,13 +1943,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -2069,43 +1957,40 @@
       <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>470</v>
+      <c r="F2" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G2" t="s">
-        <v>471</v>
+        <v>396</v>
       </c>
       <c r="H2" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="I2" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="J2" t="s">
-        <v>474</v>
+        <v>399</v>
       </c>
       <c r="K2" t="s">
-        <v>475</v>
-      </c>
-      <c r="L2" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="M2" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="N2" t="s">
-        <v>459</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -2113,34 +1998,40 @@
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>470</v>
+      <c r="F3" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G3" t="s">
-        <v>479</v>
+        <v>396</v>
       </c>
       <c r="H3" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="I3" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="J3" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="K3" t="s">
-        <v>483</v>
+        <v>449</v>
+      </c>
+      <c r="L3" t="s">
+        <v>391</v>
+      </c>
+      <c r="N3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>457</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -2148,49 +2039,37 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>485</v>
+      <c r="F4" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G4" t="s">
-        <v>486</v>
+        <v>396</v>
       </c>
       <c r="H4" t="s">
-        <v>380</v>
+        <v>457</v>
       </c>
       <c r="I4" t="s">
-        <v>233</v>
+        <v>458</v>
       </c>
       <c r="J4" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="K4" t="s">
-        <v>381</v>
-      </c>
-      <c r="L4" t="s">
-        <v>382</v>
-      </c>
-      <c r="M4" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="N4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O4" t="s">
-        <v>383</v>
-      </c>
-      <c r="P4" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
-        <v>491</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -2198,40 +2077,43 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>470</v>
+      <c r="F5" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G5" t="s">
-        <v>489</v>
+        <v>389</v>
       </c>
       <c r="H5" t="s">
-        <v>492</v>
+        <v>390</v>
       </c>
       <c r="I5" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="J5" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="K5" t="s">
-        <v>495</v>
+        <v>392</v>
       </c>
       <c r="L5" t="s">
-        <v>496</v>
+        <v>391</v>
       </c>
       <c r="M5" t="s">
-        <v>497</v>
+        <v>393</v>
+      </c>
+      <c r="N5" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -2239,37 +2121,34 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>470</v>
+      <c r="F6" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G6" t="s">
-        <v>499</v>
+        <v>396</v>
       </c>
       <c r="H6" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="I6" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="J6" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="K6" t="s">
-        <v>502</v>
-      </c>
-      <c r="L6" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="C7" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -2277,40 +2156,34 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>470</v>
+      <c r="F7" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G7" t="s">
-        <v>506</v>
+        <v>396</v>
       </c>
       <c r="H7" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="I7" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="J7" t="s">
-        <v>509</v>
+        <v>399</v>
       </c>
       <c r="K7" t="s">
-        <v>510</v>
-      </c>
-      <c r="L7" t="s">
-        <v>511</v>
-      </c>
-      <c r="M7" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="C8" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -2318,34 +2191,34 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>470</v>
+      <c r="F8" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G8" t="s">
-        <v>506</v>
+        <v>396</v>
       </c>
       <c r="H8" t="s">
-        <v>515</v>
+        <v>471</v>
+      </c>
+      <c r="I8" t="s">
+        <v>472</v>
       </c>
       <c r="J8" t="s">
-        <v>516</v>
+        <v>399</v>
       </c>
       <c r="K8" t="s">
-        <v>517</v>
-      </c>
-      <c r="M8" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -2353,40 +2226,37 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>470</v>
+      <c r="F9" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G9" t="s">
-        <v>506</v>
+        <v>396</v>
       </c>
       <c r="H9" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="I9" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="J9" t="s">
-        <v>522</v>
+        <v>399</v>
       </c>
       <c r="K9" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="L9" t="s">
-        <v>524</v>
-      </c>
-      <c r="M9" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
       <c r="C10" t="s">
-        <v>388</v>
+        <v>480</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -2394,55 +2264,37 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>417</v>
+      <c r="F10" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G10" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="H10" t="s">
-        <v>419</v>
-      </c>
-      <c r="I10" t="s">
-        <v>420</v>
+        <v>480</v>
+      </c>
+      <c r="I10">
+        <v>8750249715</v>
       </c>
       <c r="J10" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="K10" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="L10" t="s">
-        <v>423</v>
-      </c>
-      <c r="M10" t="s">
-        <v>424</v>
-      </c>
-      <c r="N10" t="s">
-        <v>425</v>
-      </c>
-      <c r="O10" t="s">
-        <v>426</v>
-      </c>
-      <c r="P10" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2450,67 +2302,34 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
-        <v>430</v>
+      <c r="F11" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G11" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="H11" t="s">
-        <v>432</v>
-      </c>
-      <c r="I11" t="s">
-        <v>433</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>438</v>
+        <v>451</v>
+      </c>
+      <c r="I11">
+        <v>7827689943</v>
+      </c>
+      <c r="J11" t="s">
+        <v>399</v>
       </c>
       <c r="K11" t="s">
-        <v>434</v>
-      </c>
-      <c r="L11" t="s">
-        <v>435</v>
-      </c>
-      <c r="M11" t="s">
-        <v>436</v>
-      </c>
-      <c r="N11" t="s">
-        <v>437</v>
-      </c>
-      <c r="O11" t="s">
-        <v>441</v>
-      </c>
-      <c r="P11" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>443</v>
-      </c>
-      <c r="R11" t="s">
-        <v>439</v>
-      </c>
-      <c r="S11" t="s">
-        <v>440</v>
-      </c>
-      <c r="T11" t="s">
-        <v>444</v>
-      </c>
-      <c r="U11" t="s">
-        <v>445</v>
-      </c>
-      <c r="V11" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2518,55 +2337,34 @@
       <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
-        <v>448</v>
+      <c r="F12" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="G12" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="H12" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="I12" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="J12" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="K12" t="s">
-        <v>453</v>
-      </c>
-      <c r="L12" t="s">
-        <v>454</v>
-      </c>
-      <c r="M12" t="s">
-        <v>455</v>
-      </c>
-      <c r="N12" t="s">
-        <v>456</v>
-      </c>
-      <c r="O12" t="s">
-        <v>455</v>
-      </c>
-      <c r="P12" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>458</v>
-      </c>
-      <c r="R12" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2575,148 +2373,127 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>461</v>
+        <v>382</v>
       </c>
       <c r="G13" t="s">
-        <v>462</v>
+        <v>383</v>
       </c>
       <c r="H13" t="s">
-        <v>463</v>
+        <v>375</v>
       </c>
       <c r="I13" t="s">
-        <v>464</v>
+        <v>233</v>
       </c>
       <c r="J13" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="K13" t="s">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="L13" t="s">
-        <v>467</v>
+        <v>377</v>
+      </c>
+      <c r="M13" t="s">
+        <v>385</v>
+      </c>
+      <c r="N13" t="s">
+        <v>241</v>
+      </c>
+      <c r="O13" t="s">
+        <v>378</v>
+      </c>
+      <c r="P13" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
         <v>402</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" t="s">
         <v>403</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>404</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
+        <v>406</v>
+      </c>
+      <c r="J14" t="s">
         <v>405</v>
       </c>
-      <c r="H14" t="s">
-        <v>406</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>407</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>408</v>
-      </c>
-      <c r="K14" t="s">
-        <v>409</v>
-      </c>
-      <c r="L14" t="s">
-        <v>410</v>
-      </c>
-      <c r="M14" t="s">
-        <v>411</v>
-      </c>
-      <c r="N14" t="s">
-        <v>412</v>
-      </c>
-      <c r="O14" t="s">
-        <v>413</v>
-      </c>
-      <c r="P14" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>415</v>
-      </c>
-      <c r="R14" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="C15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>401</v>
-      </c>
       <c r="G15" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H15" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="I15" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="J15" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="K15" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="L15" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="M15" t="s">
-        <v>394</v>
-      </c>
-      <c r="N15" t="s">
-        <v>395</v>
-      </c>
-      <c r="O15" t="s">
-        <v>396</v>
-      </c>
-      <c r="P15" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>398</v>
-      </c>
-      <c r="R15" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2724,49 +2501,37 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" t="s">
-        <v>379</v>
+      <c r="F16" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>418</v>
       </c>
       <c r="H16" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="I16" t="s">
-        <v>233</v>
+        <v>420</v>
       </c>
       <c r="J16" t="s">
-        <v>237</v>
+        <v>416</v>
       </c>
       <c r="K16" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="L16" t="s">
-        <v>382</v>
-      </c>
-      <c r="M16" t="s">
-        <v>240</v>
-      </c>
-      <c r="N16" t="s">
-        <v>241</v>
-      </c>
-      <c r="O16" t="s">
-        <v>383</v>
-      </c>
-      <c r="P16" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2774,34 +2539,40 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>373</v>
+      <c r="F17" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="G17" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="H17" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="I17" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="J17" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="K17" t="s">
-        <v>376</v>
+        <v>430</v>
+      </c>
+      <c r="L17" t="s">
+        <v>427</v>
+      </c>
+      <c r="M17" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
       <c r="C18" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2809,43 +2580,34 @@
       <c r="E18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" t="s">
-        <v>385</v>
+      <c r="F18" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="G18" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="H18" t="s">
-        <v>357</v>
-      </c>
-      <c r="I18" t="s">
-        <v>358</v>
+        <v>434</v>
       </c>
       <c r="J18" t="s">
-        <v>361</v>
+        <v>437</v>
       </c>
       <c r="K18" t="s">
-        <v>362</v>
-      </c>
-      <c r="L18" t="s">
-        <v>359</v>
+        <v>435</v>
       </c>
       <c r="M18" t="s">
-        <v>360</v>
-      </c>
-      <c r="N18" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="C19" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2853,37 +2615,40 @@
       <c r="E19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>365</v>
+      <c r="F19" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="G19" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="H19" t="s">
-        <v>367</v>
+        <v>439</v>
       </c>
       <c r="I19" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="J19" t="s">
-        <v>368</v>
+        <v>441</v>
       </c>
       <c r="K19" t="s">
-        <v>369</v>
+        <v>442</v>
       </c>
       <c r="L19" t="s">
-        <v>359</v>
+        <v>443</v>
+      </c>
+      <c r="M19" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2892,42 +2657,48 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="G20" t="s">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="H20" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="I20" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="J20" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="K20" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="L20" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="M20" t="s">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s">
-        <v>354</v>
+        <v>241</v>
+      </c>
+      <c r="O20" t="s">
+        <v>378</v>
+      </c>
+      <c r="P20" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2936,60 +2707,33 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="G21" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="H21" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="I21" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="J21" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="K21" t="s">
-        <v>334</v>
-      </c>
-      <c r="L21" t="s">
-        <v>335</v>
-      </c>
-      <c r="M21" t="s">
-        <v>336</v>
-      </c>
-      <c r="N21" t="s">
-        <v>337</v>
-      </c>
-      <c r="O21" t="s">
-        <v>338</v>
-      </c>
-      <c r="P21" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>340</v>
-      </c>
-      <c r="R21" t="s">
-        <v>341</v>
-      </c>
-      <c r="S21" t="s">
-        <v>342</v>
-      </c>
-      <c r="T21" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>356</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2998,69 +2742,42 @@
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="G22" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="H22" t="s">
-        <v>314</v>
-      </c>
-      <c r="I22" t="s">
-        <v>313</v>
+        <v>358</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="J22" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="K22" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="L22" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="M22" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="N22" t="s">
-        <v>319</v>
-      </c>
-      <c r="O22" t="s">
-        <v>250</v>
-      </c>
-      <c r="P22" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>321</v>
-      </c>
-      <c r="R22" t="s">
-        <v>322</v>
-      </c>
-      <c r="S22" t="s">
-        <v>269</v>
-      </c>
-      <c r="T22" t="s">
-        <v>323</v>
-      </c>
-      <c r="U22" t="s">
-        <v>324</v>
-      </c>
-      <c r="V22" t="s">
-        <v>325</v>
-      </c>
-      <c r="W22" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -3069,66 +2786,42 @@
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="G23" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="H23" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="I23" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="J23" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K23" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="L23" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="M23" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="N23" t="s">
-        <v>303</v>
-      </c>
-      <c r="O23" t="s">
-        <v>304</v>
-      </c>
-      <c r="P23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>305</v>
-      </c>
-      <c r="R23" t="s">
-        <v>306</v>
-      </c>
-      <c r="S23" t="s">
-        <v>307</v>
-      </c>
-      <c r="T23" t="s">
-        <v>308</v>
-      </c>
-      <c r="U23" t="s">
-        <v>131</v>
-      </c>
-      <c r="V23" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -3137,60 +2830,57 @@
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>329</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="H24" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="I24" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="J24" t="s">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c r="K24" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="L24" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="M24" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="N24" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="O24" t="s">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="P24" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="Q24" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="R24" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="S24" t="s">
-        <v>153</v>
+        <v>342</v>
       </c>
       <c r="T24" t="s">
-        <v>294</v>
-      </c>
-      <c r="U24" t="s">
-        <v>159</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -3202,48 +2892,69 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="G25" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="H25" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="I25" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="J25" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="K25" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="L25" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="M25" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="N25" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="O25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="P25" t="s">
-        <v>284</v>
+        <v>320</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>321</v>
+      </c>
+      <c r="R25" t="s">
+        <v>322</v>
+      </c>
+      <c r="S25" t="s">
+        <v>269</v>
+      </c>
+      <c r="T25" t="s">
+        <v>323</v>
+      </c>
+      <c r="U25" t="s">
+        <v>324</v>
+      </c>
+      <c r="V25" t="s">
+        <v>325</v>
+      </c>
+      <c r="W25" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -3252,45 +2963,63 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G26" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="H26" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="I26" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J26" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="L26" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="M26" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N26" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="O26" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="P26" t="s">
-        <v>271</v>
+        <v>138</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>305</v>
+      </c>
+      <c r="R26" t="s">
+        <v>306</v>
+      </c>
+      <c r="S26" t="s">
+        <v>307</v>
+      </c>
+      <c r="T26" t="s">
+        <v>308</v>
+      </c>
+      <c r="U26" t="s">
+        <v>131</v>
+      </c>
+      <c r="V26" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -3302,63 +3031,63 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="H27" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="O27" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="P27" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="Q27" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="R27" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="S27" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="T27" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="U27" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3367,48 +3096,48 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="H28" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="P28" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -3417,54 +3146,48 @@
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="H29" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="N29" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>229</v>
-      </c>
-      <c r="R29" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -3473,57 +3196,63 @@
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="H30" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="I30" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="N30" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="Q30" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="R30" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="S30" t="s">
-        <v>215</v>
+        <v>258</v>
+      </c>
+      <c r="T30" t="s">
+        <v>259</v>
+      </c>
+      <c r="U30" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -3532,54 +3261,48 @@
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="I31" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="N31" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>198</v>
-      </c>
-      <c r="R31" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -3588,57 +3311,54 @@
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="H32" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="I32" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="J32" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="M32" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="N32" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="Q32" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="R32" t="s">
-        <v>183</v>
-      </c>
-      <c r="S32" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -3647,72 +3367,57 @@
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="I33" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="K33" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="L33" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="M33" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="N33" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="O33" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="Q33" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="R33" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="S33" t="s">
-        <v>169</v>
-      </c>
-      <c r="T33" t="s">
-        <v>170</v>
-      </c>
-      <c r="U33" t="s">
-        <v>105</v>
-      </c>
-      <c r="V33" t="s">
-        <v>106</v>
-      </c>
-      <c r="W33" t="s">
-        <v>107</v>
-      </c>
-      <c r="X33" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -3721,66 +3426,54 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="I34" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="J34" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="K34" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M34" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="N34" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="O34" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="Q34" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="R34" t="s">
-        <v>156</v>
-      </c>
-      <c r="S34" t="s">
-        <v>157</v>
-      </c>
-      <c r="T34" t="s">
-        <v>158</v>
-      </c>
-      <c r="U34" t="s">
-        <v>159</v>
-      </c>
-      <c r="V34" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -3789,57 +3482,57 @@
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="G35" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="H35" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="I35" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="J35" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="K35" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M35" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="N35" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="O35" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="Q35" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="R35" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="S35" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -3848,63 +3541,72 @@
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="H36" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="I36" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="L36" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="N36" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="O36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="P36" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="Q36" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="R36" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="S36" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="T36" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="U36" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="V36" t="s">
+        <v>106</v>
+      </c>
+      <c r="W36" t="s">
+        <v>107</v>
+      </c>
+      <c r="X36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
@@ -3913,69 +3615,66 @@
         <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="I37" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="K37" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="M37" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="N37" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="O37" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="P37" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="Q37" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="R37" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="S37" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="T37" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="U37" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="V37" t="s">
-        <v>107</v>
-      </c>
-      <c r="W37" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
@@ -3984,42 +3683,57 @@
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="M38" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="N38" t="s">
-        <v>50</v>
+        <v>135</v>
+      </c>
+      <c r="O38" t="s">
+        <v>137</v>
+      </c>
+      <c r="P38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>139</v>
+      </c>
+      <c r="R38" t="s">
+        <v>140</v>
+      </c>
+      <c r="S38" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
@@ -4028,69 +3742,63 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="J39" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K39" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="M39" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="N39" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="Q39" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="R39" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="S39" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="T39" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="U39" t="s">
-        <v>87</v>
-      </c>
-      <c r="V39" t="s">
-        <v>88</v>
-      </c>
-      <c r="W39" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
@@ -4099,48 +3807,63 @@
         <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J40" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="L40" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="M40" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N40" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="O40" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="Q40" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="R40" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="S40" t="s">
+        <v>104</v>
+      </c>
+      <c r="T40" t="s">
+        <v>105</v>
+      </c>
+      <c r="U40" t="s">
+        <v>106</v>
+      </c>
+      <c r="V40" t="s">
+        <v>107</v>
+      </c>
+      <c r="W40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
@@ -4158,7 +3881,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
@@ -4184,75 +3907,249 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" t="s">
+        <v>78</v>
+      </c>
+      <c r="M42" t="s">
+        <v>79</v>
+      </c>
+      <c r="N42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>83</v>
+      </c>
+      <c r="R42" t="s">
+        <v>84</v>
+      </c>
+      <c r="S42" t="s">
+        <v>85</v>
+      </c>
+      <c r="T42" t="s">
+        <v>86</v>
+      </c>
+      <c r="U42" t="s">
+        <v>87</v>
+      </c>
+      <c r="V42" t="s">
+        <v>88</v>
+      </c>
+      <c r="W42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" t="s">
+        <v>49</v>
+      </c>
+      <c r="N44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
         <v>55</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G45" t="s">
         <v>54</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H45" t="s">
         <v>53</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I45" t="s">
         <v>56</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J45" t="s">
         <v>57</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K45" t="s">
         <v>58</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L45" t="s">
         <v>59</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M45" t="s">
         <v>60</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N45" t="s">
         <v>61</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O45" t="s">
         <v>62</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P45" t="s">
         <v>63</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q45" t="s">
         <v>64</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R45" t="s">
         <v>65</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S45" t="s">
         <v>66</v>
       </c>
-      <c r="T42" t="s">
+      <c r="T45" t="s">
         <v>67</v>
       </c>
-      <c r="U42" t="s">
+      <c r="U45" t="s">
         <v>68</v>
       </c>
-      <c r="V42" t="s">
+      <c r="V45" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I22" r:id="rId1" display="https://maps.google.com/maps?q=28.4774068%2C77.5036163&amp;z=17&amp;hl=en"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Jobs/HomeJobs.xlsx
+++ b/Jobs/HomeJobs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="566">
   <si>
     <t>S.No</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>Sunwoda Electronics  COMPANY Surajpur, Greater Noida</t>
   </si>
   <si>
-    <t>COMPANY Surajpur, Greater Noida</t>
-  </si>
-  <si>
     <t>INTERVIEW TIME : 08:00AM</t>
   </si>
   <si>
@@ -1116,6 +1113,24 @@
     <t>UIL_Electronics (Apprenticeship profile)</t>
   </si>
   <si>
+    <t xml:space="preserve"> Interview Date- 18-04-2025</t>
+  </si>
+  <si>
+    <t>Injterview Time &gt; 7AM TO AM</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता :- Ecotec 1 Extension Greater Noida https://maps.app.goo.gl/q9u6zYudW1AZCLaY8?g_st=com.google.maps.preview.copy</t>
+  </si>
+  <si>
+    <t>Qualification:- 12th graduate ITI  or Diploma</t>
+  </si>
+  <si>
+    <t>Salary_11000_Inhand, Overtime_double, Lunch_Dinner_Free, Bus_free</t>
+  </si>
+  <si>
+    <t>Contact person:- Ark_Workforce ,  Vishan - +91 9315473717, Sumit bhati -80764 00824, Lokendra- 9690643861</t>
+  </si>
+  <si>
     <t>PPAP AUTOMOTIVE LTD phase-2</t>
   </si>
   <si>
@@ -1161,6 +1176,301 @@
     <t>INTERVIEW DATE-: 19/04/2025</t>
   </si>
   <si>
+    <t>Surajpur, Greater Noida</t>
+  </si>
+  <si>
+    <t>BJD Company</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Loins workforce pvt Ltd के मध्यम से</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!! भर्ती है “Charger बनाने वाली ” कंपनी में !! </t>
+  </si>
+  <si>
+    <t>Day शिफ्ट के लिए।।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Vacancy: 50Day  shift </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department: packing </t>
+  </si>
+  <si>
+    <t>Salary: Rs11000/-</t>
+  </si>
+  <si>
+    <t>Overtime: Rs60/-</t>
+  </si>
+  <si>
+    <t>Attendance: Rs200/-</t>
+  </si>
+  <si>
+    <t>आवश्यक योग्यता*: 10th, 12th</t>
+  </si>
+  <si>
+    <t>ओरिगेनल आधार कार्ड  लाना अनिवार्य  है,डॉक्यूमेंट के साथ बैंक अकाउंट, दो फोटो  लाना अनिवार्य है</t>
+  </si>
+  <si>
+    <t>इंटरव्यू टाइम :-सुबह 08:00 बजे</t>
+  </si>
+  <si>
+    <t>Contact: Happy yadav- 9354138226, Ajeet-78272 28258‬</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता-: B-5 Sec-65 Noida, इंटरव्यू डेट :-  23-04-2025</t>
+  </si>
+  <si>
+    <t>BPL MOBILE COMPANY (Old Vivo)</t>
+  </si>
+  <si>
+    <t>Kasna, Gr. Noida</t>
+  </si>
+  <si>
+    <t>Interview Date: 23rd April 2025</t>
+  </si>
+  <si>
+    <t>Time: 09:00 AM - 02:30 PM</t>
+  </si>
+  <si>
+    <t>F-20, Site 4, Kasna, Near Grand Venice Mall</t>
+  </si>
+  <si>
+    <t>Contact to HSC MANPOWER TEAM : 9536846742 | 8279447224 | 9927489658 | 9411840527</t>
+  </si>
+  <si>
+    <t>No fee required for this recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualification: 10th, 12th, BA, BSc, B.Com, ITI, Diploma
+</t>
+  </si>
+  <si>
+    <t>Salary: Skilled: ₹13,579, Semi-skilled: ₹12,122, Unskilled: ₹11,020</t>
+  </si>
+  <si>
+    <t>Additional Benefits: OT - Double, Attendance Award: ₹2,000, GWP Award: ₹1,000</t>
+  </si>
+  <si>
+    <t>Service Allowance: ₹500, ₹1,000, ₹1,500</t>
+  </si>
+  <si>
+    <t>Free Bus &amp; Canteen</t>
+  </si>
+  <si>
+    <t>Age: 18-32 years</t>
+  </si>
+  <si>
+    <t>Join us on WhatsApp: https://chat.whatsapp.com/Kr7SFjCgBre8FBvPjLLPf2</t>
+  </si>
+  <si>
+    <t>Join us on Facebook page: https://www.facebook.com/share/16EZwzGGNK/</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :- 25/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> इंटरव्यू टाइम :- 08 - 11 AM</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता :- ARK Workforce Plot Number - 246 Block - G Sector-63 Noida</t>
+  </si>
+  <si>
+    <t>ARK_WORK_FORCE में #TRANSSION(Itel) कंपनी (मैन्युफैक्चरिंग) के लिए भर्ती है जिसकी जानकारी निन्मलिखित है-</t>
+  </si>
+  <si>
+    <t>Total Quantity :- 100(Only Boys)</t>
+  </si>
+  <si>
+    <t>Qualification:-10th 12th graduate ITI  or Diploma,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary_11000_Inhand </t>
+  </si>
+  <si>
+    <t>attendance_award_1000</t>
+  </si>
+  <si>
+    <t>Night_Alowance_50_Per_Night #Overtime_100_Per_Hour</t>
+  </si>
+  <si>
+    <t>Lunch_Dinner_Free</t>
+  </si>
+  <si>
+    <t>Contact person:- Ankit - 8477873797, Vishan- 9315473717</t>
+  </si>
+  <si>
+    <t>Location: https://maps.app.goo.gl/oDywEJJLtvZRMAsN9?g_st=com.google.maps.preview.copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XIHI Technology PVT.LTD</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट :-    25/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morning- 7:00am to 8:00am </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> joining - evening       6:30pm</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता :- noida sector 63 plot 53 block J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!! भर्ती है XIHI Technology PVT.LTD company -charge banane wali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator- total 50 requirements </t>
+  </si>
+  <si>
+    <t>#Qualification- only ITI</t>
+  </si>
+  <si>
+    <t>Age -18-to-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengo Orange pvt.Ltd se Bharti *Noida sector 63 J53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paid canteen, No bus </t>
+  </si>
+  <si>
+    <t>Daily duty timing - 7:50pm to 6:30am</t>
+  </si>
+  <si>
+    <t>Salary_  13623, 12123+ 1500(DBT)inhand, #OT: per_hour -130</t>
+  </si>
+  <si>
+    <t>Attandance Award (on 22 duty 1000),  #Night Alawance per night rs 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Best employee award -1000 rs , #Weekly -Saturday Sunday off </t>
+  </si>
+  <si>
+    <t>Contact person:-Sagar - 7084457567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सभी को सूचित किया जाता हैं, सीही टेक्नोलॉजी प्राइवेट लिमिट j53 सेक्टर 63 नॉएडा में नाईट में अब कैंटीन  चालू हो गयी हैं।, जो की आपके नाईट अल्लोउंस से  paid होंगी। </t>
+  </si>
+  <si>
+    <t>कॉल करके ही डाक्यूमेंट दें, कॉल ना उठने पर व्हाट्सप्प में cv भेजे</t>
+  </si>
+  <si>
+    <t>Kimbal</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट-: 25/04/2025 समय : 8:00 AM</t>
+  </si>
+  <si>
+    <t>इंटरव्यू पता-: Kimbal company knowledge park 3 plot no 20 Near sharda hospital Gol chakkar Greater Noida</t>
+  </si>
+  <si>
+    <t>Contact: Lokesh -9690643861, Sumit- 8076400824</t>
+  </si>
+  <si>
+    <t>आपको सूचित किया जाता है कि दिनांक 25/04/2025को #ARK_Workforce से #only_apprenticeship_job</t>
+  </si>
+  <si>
+    <t>#Kimbal_Company Job Greater Noida Company के लिए भर्ती है जिसकी जानकारी निन्मलिखित है</t>
+  </si>
+  <si>
+    <t>1-Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Qualification- ITI diploma &amp; Graduate </t>
+  </si>
+  <si>
+    <t>#Salary_14300( for 8hrs)</t>
+  </si>
+  <si>
+    <t>2- SPM_Operator</t>
+  </si>
+  <si>
+    <t>#Experiance_17000(for 8hrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#OT_double, #canteen_free #Bus_free, #Attendance_award_1500, #Night_allowance_100/nigh, </t>
+  </si>
+  <si>
+    <t>documents-Resume, passport size photo, Educational Certificates, Aadhar Card, Bank Passbook</t>
+  </si>
+  <si>
+    <t>KHVatec_India_Pvt_Ltd.</t>
+  </si>
+  <si>
+    <t>इंटरव्यू डेट-: 24/04/2025 समय : 8:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact: Yogesh- 79839 61240 </t>
+  </si>
+  <si>
+    <t>Phone na Uthane per Resume ko whatsapp kre</t>
+  </si>
+  <si>
+    <t>ADD:- KHVatec India Pvt. Ltd. Kasna greater Noida (G.B  Nagar) UP, near Asian paint company</t>
+  </si>
+  <si>
+    <t>#salary_11020 #Att_award_1000</t>
+  </si>
+  <si>
+    <t>#Overtime_105per hours #Canteen_free #Transport_free</t>
+  </si>
+  <si>
+    <t>#Education_Required_12th_Graduate_ITI #original_Documents_leke_aaye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimbal_Company </t>
+  </si>
+  <si>
+    <t>Greater Noida Surajpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interview Date- 25-04-2025</t>
+  </si>
+  <si>
+    <t>Injterview Time &gt; 7AM TO AM to 9 AM</t>
+  </si>
+  <si>
+    <t>Kimbal company knowledge park 3 plot no 20 Near sharda hospital Gol chakkar Greater Noida</t>
+  </si>
+  <si>
+    <t>Lokesh -9690643861, Sumit- 8076400824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualification- ITI diploma &amp; Graduate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary_14300( for 8hrs) 2- SPM_Operator Salary_14300( for 8hrs) xperiance_17000(for 8hrs) OT_double canteen_free #Bus_free </t>
+  </si>
+  <si>
+    <t>ARK_Workforce से only_apprenticeship_job</t>
+  </si>
+  <si>
+    <t>Attendance_award_1500 Night_allowance_100/night</t>
+  </si>
+  <si>
+    <t>BPL Mobile_MNC_Gr,Noida</t>
+  </si>
+  <si>
+    <t>इंटरव्यू  टाइम:- 8 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Location :- कासना ग्रेटर नॉएडा </t>
+  </si>
+  <si>
+    <t>Rahul Kushwaha 954053114 , 9560834827</t>
+  </si>
+  <si>
+    <t>Qualification- 10th/12th/ITI</t>
+  </si>
+  <si>
+    <t>10th/12th, Salary -: 12094 Gross  Overtime - 106₹ per hour Attendance Award :- 2000 (Montly) GWP Award :- 1000  Canteen - Free (Lunch,2 time tea,snack)</t>
+  </si>
+  <si>
     <t>TRANSSION (itel) MNC</t>
   </si>
   <si>
@@ -1176,99 +1486,33 @@
     <t xml:space="preserve">Attendance award :- 1000/- </t>
   </si>
   <si>
-    <t xml:space="preserve">Kimbal_Company </t>
-  </si>
-  <si>
-    <t>Greater Noida Surajpur</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Interview Date- 25-04-2025</t>
-  </si>
-  <si>
-    <t>Injterview Time &gt; 7AM TO AM to 9 AM</t>
-  </si>
-  <si>
-    <t>Kimbal company knowledge park 3 plot no 20 Near sharda hospital Gol chakkar Greater Noida</t>
-  </si>
-  <si>
-    <t>ARK_Workforce से only_apprenticeship_job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salary_14300( for 8hrs) 2- SPM_Operator Salary_14300( for 8hrs) xperiance_17000(for 8hrs) OT_double canteen_free #Bus_free </t>
-  </si>
-  <si>
-    <t>Attendance_award_1500 Night_allowance_100/night</t>
-  </si>
-  <si>
-    <t>documents-Resume, passport size photo, Educational Certificates, Aadhar Card, Bank Passbook</t>
-  </si>
-  <si>
-    <t>BPL Mobile_MNC_Gr,Noida</t>
-  </si>
-  <si>
-    <t>इंटरव्यू  टाइम:- 8 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Location :- कासना ग्रेटर नॉएडा </t>
-  </si>
-  <si>
-    <t>Rahul Kushwaha 954053114 , 9560834827</t>
-  </si>
-  <si>
-    <t>Qualification- 10th/12th/ITI</t>
-  </si>
-  <si>
-    <t>10th/12th, Salary -: 12094 Gross  Overtime - 106₹ per hour Attendance Award :- 2000 (Montly) GWP Award :- 1000  Canteen - Free (Lunch,2 time tea,snack)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">भर्ती है लडको और लड़कियों के लिए </t>
-  </si>
-  <si>
-    <t xml:space="preserve">देवला साइड भी ईस्ट इंडिया कंपनी के बराबर में है </t>
-  </si>
-  <si>
     <t>Injterview Time &gt; 7AM TO 10 AM</t>
   </si>
   <si>
-    <t xml:space="preserve">कंपनी लोकेशन= देवला साइड भी ईस्ट इंडिया कंपनी के बराबर में है </t>
-  </si>
-  <si>
-    <t>अनपढ़ लड़के भी आ सकते हैं</t>
-  </si>
-  <si>
-    <t>Pooja ma'am,  8447932394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सैलरी= 16000  in hand for 12 hour's 26 day's Overtime सिंगल है डेली 3.5 hour's  500 Attandance Award </t>
-  </si>
-  <si>
-    <t>सभी जगह के लड़के और लड़कियां आ सकते है</t>
-  </si>
-  <si>
     <t xml:space="preserve">OPPO Mobile Company Kasna, Greater Noida </t>
   </si>
   <si>
+    <t>Kasna, Greater Noida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview location= कासना बस स्टैंड यूनिवर्सिटी रोड काशीराम हॉस्पिटल वाली रोड पर गुर्जर कॉलोनी (बढ़ा तिरंगा ) वाली गली के पास आकर </t>
+  </si>
+  <si>
     <t>Satish ji 7417352069, Rocky 9927613359</t>
   </si>
   <si>
-    <t xml:space="preserve">Interview location= कासना बस स्टैंड यूनिवर्सिटी रोड काशीराम हॉस्पिटल वाली रोड पर गुर्जर कॉलोनी (बढ़ा तिरंगा ) वाली गली के पास आकर </t>
-  </si>
-  <si>
-    <t>Kasna, Greater Noida</t>
+    <t>Educational Certificates 10th ,12th,Diploma  Marksheet)</t>
   </si>
   <si>
     <t>Salary: - 12000/- IN Hand For 8 hour's 26 day's Overtime डबल है 116 रुपए hour's डैली चलता है 3 hour's Attendance award - 2000/-</t>
   </si>
   <si>
+    <t>कृपया वही लड़का आए  जिसका घर  ग्रेटर-नोएडा  से 100 Km दूर  हो।</t>
+  </si>
+  <si>
     <t xml:space="preserve">Night allowances - 50/night, NAPS Award=1500 Rupe  </t>
   </si>
   <si>
-    <t>कृपया वही लड़का आए  जिसका घर  ग्रेटर-नोएडा  से 100 Km दूर  हो।</t>
-  </si>
-  <si>
-    <t>Educational Certificates 10th ,12th,Diploma  Marksheet)</t>
-  </si>
-  <si>
     <t xml:space="preserve">OPPO MOBILE india pvt ltd </t>
   </si>
   <si>
@@ -1281,15 +1525,15 @@
     <t>9953756276, 9650935099, 8882829930, 9650578940</t>
   </si>
   <si>
+    <t>CTC SALARY = 16407/- OVER-TIME= DOUBLE  BUS= FREE CANTEEN= FREE ATTENDANCE AWARD= 2000/- NIGHT ALLOWANCE=50/-per night</t>
+  </si>
+  <si>
+    <t>इंटरव्यू के लिए अपना ओरिजिनल डाक्यूमेंट्स, आधार कार्ड और पैन कार्ड लेकर</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guru amar das pvt ltd </t>
   </si>
   <si>
-    <t>CTC SALARY = 16407/- OVER-TIME= DOUBLE  BUS= FREE CANTEEN= FREE ATTENDANCE AWARD= 2000/- NIGHT ALLOWANCE=50/-per night</t>
-  </si>
-  <si>
-    <t>इंटरव्यू के लिए अपना ओरिजिनल डाक्यूमेंट्स, आधार कार्ड और पैन कार्ड लेकर</t>
-  </si>
-  <si>
     <t xml:space="preserve">phess 2 sec 80 Dixon कंपनी के पास </t>
   </si>
   <si>
@@ -1299,18 +1543,18 @@
     <t xml:space="preserve"> Location📌 phess 2 sec 80 Dixon कंपनी के पास </t>
   </si>
   <si>
+    <t xml:space="preserve">Naveen ji   7417405703 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualification 🗞 *10th 12th *  आधार कार्ड वाले भी आ सकते हैं </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selry 💵 12000 in ✋ 8hr +3 Hr OT daily </t>
+  </si>
+  <si>
     <t xml:space="preserve"> लोकल भी अप्लाई करें आधार कार्ड वाले भी आ सकते हैं </t>
   </si>
   <si>
-    <t xml:space="preserve">Naveen ji   7417405703 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualification 🗞 *10th 12th *  आधार कार्ड वाले भी आ सकते हैं </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selry 💵 12000 in ✋ 8hr +3 Hr OT daily </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bus 🚌 free🆓Canteen 🍱Avaliable </t>
   </si>
   <si>
@@ -1323,15 +1567,15 @@
     <t>इंटरवयू की जगह: WP-04, C Block, Sector-71, Noida, Uttar Pradesh - 201301.</t>
   </si>
   <si>
+    <t>Qualification 🗞 *10th 12th * ITI</t>
+  </si>
+  <si>
     <t>ग्रॉस सैलरी - 14047/- रुपए। काम करने के घंटे - 8 घंटे प्रतिदिन तथा ओवरटाइम अलग से। ओवरटाइम - ग्रॉस सैलरी पर डबल। रात्रि भत्ता - 50/- रुपए प्रति रात्रि।</t>
   </si>
   <si>
     <t>उपस्थिति पुरस्कार - 500 रुपए से 1000/- रुपए तक उपस्थिति के अनुसार। लंच / डिनर - 10/- रुपए प्रति लंच / डिनर।</t>
   </si>
   <si>
-    <t>Qualification 🗞 *10th 12th * ITI</t>
-  </si>
-  <si>
     <t xml:space="preserve">कंपनी:-सिरमा एसजीएस इलेक्ट्रॉनिक प्राइवेट लिमिटेड </t>
   </si>
   <si>
@@ -1353,54 +1597,54 @@
     <t>उपस्थिति:-1500 रुपये/माह उपस्थिति पुरस्कार और 1000रूपये बोनस प्रति माह ओटी:- प्रतिदिन 3 घंटे ओवरटाइम सैलरी के अनुसार</t>
   </si>
   <si>
+    <t>khvatec India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Kasna greater Noida (G.B  Nagar) UP, near Asian paint company</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interview Date- 30-04-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogesh- 7983961240 </t>
+  </si>
+  <si>
+    <t>Saalry_ 11020, Double OT Attendance Awars- 1000, canteen_free, Bud_free</t>
+  </si>
+  <si>
+    <t>Attendance_award_1000 Night_allowance_100/night</t>
+  </si>
+  <si>
+    <t>Ecotec 1 Extension Greater Noida</t>
+  </si>
+  <si>
+    <t>Vishan-9315473717, Ankit- 8477873797, 7983961240</t>
+  </si>
+  <si>
+    <t>Salary_11000 Double Over time, Canteen Free Bud Free</t>
+  </si>
+  <si>
+    <t>BJD Electronics</t>
+  </si>
+  <si>
+    <t>B-005, B Block, Sector 65, Noida, Uttar Pradesh 201301</t>
+  </si>
+  <si>
+    <t>Vishan-9315473717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlyITI </t>
+  </si>
+  <si>
+    <t>Saalry_17000 Ot_60/hrs Attendance award_200</t>
+  </si>
+  <si>
+    <t>Lokesh -9690643861</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qualification- diploma &amp; Graduate </t>
   </si>
   <si>
-    <t xml:space="preserve"> Interview Date- 30-04-2025</t>
-  </si>
-  <si>
-    <t>Ecotec 1 Extension Greater Noida</t>
-  </si>
-  <si>
-    <t>Vishan-9315473717, Ankit- 8477873797, 7983961240</t>
-  </si>
-  <si>
-    <t>Salary_11000 Double Over time, Canteen Free Bud Free</t>
-  </si>
-  <si>
-    <t>khvatec India Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Kasna greater Noida (G.B  Nagar) UP, near Asian paint company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yogesh- 7983961240 </t>
-  </si>
-  <si>
-    <t>Lokesh -9690643861</t>
-  </si>
-  <si>
-    <t>Saalry_ 11020, Double OT Attendance Awars- 1000, canteen_free, Bud_free</t>
-  </si>
-  <si>
-    <t>Attendance_award_1000 Night_allowance_100/night</t>
-  </si>
-  <si>
-    <t>BJD Electronics</t>
-  </si>
-  <si>
-    <t>B-005, B Block, Sector 65, Noida, Uttar Pradesh 201301</t>
-  </si>
-  <si>
-    <t>Vishan-9315473717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnlyITI </t>
-  </si>
-  <si>
-    <t>Saalry_17000 Ot_60/hrs Attendance award_200</t>
-  </si>
-  <si>
     <t>JTI Technology Noida Pahse-2</t>
   </si>
   <si>
@@ -1449,12 +1693,12 @@
     <t>Sachin-  87561 18092</t>
   </si>
   <si>
+    <t>Salary- ITI 14388</t>
+  </si>
+  <si>
     <t xml:space="preserve">Department -  production </t>
   </si>
   <si>
-    <t>Salary- ITI 14388</t>
-  </si>
-  <si>
     <t>Dayco Power Transmission Pvt. Ltd.</t>
   </si>
   <si>
@@ -1464,10 +1708,10 @@
     <t>Graduation.. BSc</t>
   </si>
   <si>
+    <t>Gross Salary: Rs. 18750 per month</t>
+  </si>
+  <si>
     <t xml:space="preserve">Department - Production </t>
-  </si>
-  <si>
-    <t>Gross Salary: Rs. 18750 per month</t>
   </si>
   <si>
     <t xml:space="preserve"> OLD VIVO (BHAGWATI PRODUCT LIMITED</t>
@@ -1477,18 +1721,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1523,19 +1759,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1543,9 +1776,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1838,36 +2068,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" customWidth="1"/>
-    <col min="7" max="7" width="121.140625" customWidth="1"/>
-    <col min="8" max="8" width="144" customWidth="1"/>
-    <col min="9" max="9" width="80.7109375" customWidth="1"/>
-    <col min="10" max="10" width="103.5703125" customWidth="1"/>
-    <col min="11" max="11" width="137.140625" customWidth="1"/>
-    <col min="12" max="12" width="137.28515625" customWidth="1"/>
-    <col min="13" max="13" width="140.140625" customWidth="1"/>
-    <col min="14" max="14" width="127" customWidth="1"/>
-    <col min="15" max="15" width="174.5703125" customWidth="1"/>
-    <col min="16" max="16" width="174.28515625" customWidth="1"/>
-    <col min="17" max="17" width="98" customWidth="1"/>
-    <col min="18" max="18" width="152.7109375" customWidth="1"/>
-    <col min="19" max="19" width="176.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1943,13 +2172,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1957,40 +2186,40 @@
       <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>446</v>
+      <c r="F2" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="G2" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="H2" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="I2" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="J2" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="K2" t="s">
-        <v>454</v>
+        <v>530</v>
       </c>
       <c r="M2" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="N2" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1998,40 +2227,40 @@
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>446</v>
+      <c r="F3" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="H3" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
       <c r="I3" t="s">
-        <v>448</v>
+        <v>533</v>
       </c>
       <c r="J3" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="K3" t="s">
-        <v>449</v>
+        <v>534</v>
       </c>
       <c r="L3" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="N3" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>536</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -2039,37 +2268,37 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>446</v>
+      <c r="F4" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="G4" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="H4" t="s">
-        <v>457</v>
+        <v>536</v>
       </c>
       <c r="I4" t="s">
-        <v>458</v>
+        <v>537</v>
       </c>
       <c r="J4" t="s">
+        <v>538</v>
+      </c>
+      <c r="K4" t="s">
+        <v>539</v>
+      </c>
+      <c r="N4" t="s">
         <v>459</v>
-      </c>
-      <c r="K4" t="s">
-        <v>460</v>
-      </c>
-      <c r="N4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>469</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -2077,43 +2306,43 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>446</v>
+      <c r="F5" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="G5" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="H5" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="I5" t="s">
-        <v>453</v>
+        <v>540</v>
       </c>
       <c r="J5" t="s">
-        <v>445</v>
+        <v>541</v>
       </c>
       <c r="K5" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="L5" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="M5" t="s">
-        <v>393</v>
+        <v>477</v>
       </c>
       <c r="N5" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>542</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -2121,34 +2350,34 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>446</v>
+      <c r="F6" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="G6" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="H6" t="s">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="I6" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="J6" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="K6" t="s">
-        <v>465</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
       <c r="C7" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -2156,34 +2385,34 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>446</v>
+      <c r="F7" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="G7" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="H7" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="I7" t="s">
-        <v>468</v>
+        <v>549</v>
       </c>
       <c r="J7" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="K7" t="s">
-        <v>469</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>551</v>
       </c>
       <c r="C8" t="s">
-        <v>471</v>
+        <v>552</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -2191,34 +2420,34 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>446</v>
+      <c r="F8" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="G8" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="H8" t="s">
-        <v>471</v>
+        <v>552</v>
       </c>
       <c r="I8" t="s">
-        <v>472</v>
+        <v>553</v>
       </c>
       <c r="J8" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="K8" t="s">
-        <v>473</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>474</v>
+        <v>555</v>
       </c>
       <c r="C9" t="s">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -2226,72 +2455,72 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>446</v>
+      <c r="F9" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="G9" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="H9" t="s">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="I9" t="s">
-        <v>476</v>
+        <v>557</v>
       </c>
       <c r="J9" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="K9" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="L9" t="s">
-        <v>477</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C10" t="s">
+        <v>561</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G10" t="s">
         <v>479</v>
       </c>
-      <c r="C10" t="s">
-        <v>480</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G10" t="s">
-        <v>396</v>
-      </c>
       <c r="H10" t="s">
-        <v>480</v>
+        <v>561</v>
       </c>
       <c r="I10">
         <v>8750249715</v>
       </c>
       <c r="J10" t="s">
-        <v>481</v>
+        <v>562</v>
       </c>
       <c r="K10" t="s">
-        <v>483</v>
+        <v>563</v>
       </c>
       <c r="L10" t="s">
-        <v>482</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="C11" t="s">
         <v>345</v>
@@ -2302,34 +2531,34 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>446</v>
+      <c r="F11" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="G11" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="H11" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="I11">
         <v>7827689943</v>
       </c>
       <c r="J11" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="K11" t="s">
-        <v>483</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>469</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2337,34 +2566,43 @@
       <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>388</v>
+      <c r="F12" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G12" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="H12" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="I12" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="J12" t="s">
-        <v>399</v>
+        <v>474</v>
       </c>
       <c r="K12" t="s">
-        <v>400</v>
+        <v>475</v>
+      </c>
+      <c r="L12" t="s">
+        <v>476</v>
+      </c>
+      <c r="M12" t="s">
+        <v>477</v>
+      </c>
+      <c r="N12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2372,49 +2610,34 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" t="s">
-        <v>382</v>
+      <c r="F13" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G13" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="H13" t="s">
-        <v>375</v>
+        <v>480</v>
       </c>
       <c r="I13" t="s">
-        <v>233</v>
+        <v>481</v>
       </c>
       <c r="J13" t="s">
-        <v>384</v>
+        <v>482</v>
       </c>
       <c r="K13" t="s">
-        <v>376</v>
-      </c>
-      <c r="L13" t="s">
-        <v>377</v>
-      </c>
-      <c r="M13" t="s">
-        <v>385</v>
-      </c>
-      <c r="N13" t="s">
-        <v>241</v>
-      </c>
-      <c r="O13" t="s">
-        <v>378</v>
-      </c>
-      <c r="P13" t="s">
-        <v>379</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>484</v>
       </c>
       <c r="C14" t="s">
-        <v>402</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2422,37 +2645,49 @@
       <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>388</v>
+      <c r="F14" t="s">
+        <v>485</v>
       </c>
       <c r="G14" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="H14" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="I14" t="s">
-        <v>406</v>
+        <v>233</v>
       </c>
       <c r="J14" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="K14" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="L14" t="s">
-        <v>408</v>
+        <v>382</v>
+      </c>
+      <c r="M14" t="s">
+        <v>488</v>
+      </c>
+      <c r="N14" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" t="s">
+        <v>383</v>
+      </c>
+      <c r="P14" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>491</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2460,37 +2695,37 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>388</v>
+      <c r="F15" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G15" t="s">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="H15" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="I15" t="s">
-        <v>410</v>
+        <v>493</v>
       </c>
       <c r="J15" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
       <c r="K15" t="s">
-        <v>413</v>
+        <v>495</v>
       </c>
       <c r="L15" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="M15" t="s">
-        <v>414</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>417</v>
+        <v>498</v>
       </c>
       <c r="C16" t="s">
         <v>345</v>
@@ -2501,37 +2736,37 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>388</v>
+      <c r="F16" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G16" t="s">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="H16" t="s">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="I16" t="s">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="J16" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
       <c r="K16" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
       <c r="L16" t="s">
-        <v>423</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2539,40 +2774,40 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>388</v>
+      <c r="F17" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G17" t="s">
-        <v>425</v>
+        <v>506</v>
       </c>
       <c r="H17" t="s">
-        <v>426</v>
+        <v>507</v>
       </c>
       <c r="I17" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="J17" t="s">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="K17" t="s">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="L17" t="s">
-        <v>427</v>
+        <v>511</v>
       </c>
       <c r="M17" t="s">
-        <v>431</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>432</v>
+        <v>513</v>
       </c>
       <c r="C18" t="s">
-        <v>433</v>
+        <v>514</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2580,34 +2815,34 @@
       <c r="E18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>388</v>
+      <c r="F18" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G18" t="s">
-        <v>425</v>
+        <v>506</v>
       </c>
       <c r="H18" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
       <c r="J18" t="s">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="K18" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="M18" t="s">
-        <v>436</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
       <c r="C19" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2615,40 +2850,40 @@
       <c r="E19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>388</v>
+      <c r="F19" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="G19" t="s">
-        <v>425</v>
+        <v>506</v>
       </c>
       <c r="H19" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
       <c r="I19" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
       <c r="J19" t="s">
-        <v>441</v>
+        <v>522</v>
       </c>
       <c r="K19" t="s">
-        <v>442</v>
+        <v>523</v>
       </c>
       <c r="L19" t="s">
-        <v>443</v>
+        <v>524</v>
       </c>
       <c r="M19" t="s">
-        <v>444</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2657,48 +2892,54 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="G20" t="s">
-        <v>235</v>
+        <v>418</v>
       </c>
       <c r="H20" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="I20" t="s">
-        <v>233</v>
+        <v>420</v>
       </c>
       <c r="J20" t="s">
-        <v>237</v>
+        <v>421</v>
       </c>
       <c r="K20" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="L20" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="M20" t="s">
-        <v>240</v>
+        <v>424</v>
       </c>
       <c r="N20" t="s">
-        <v>241</v>
+        <v>425</v>
       </c>
       <c r="O20" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="P20" t="s">
-        <v>379</v>
+        <v>427</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="C21" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2707,33 +2948,66 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="G21" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="H21" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="I21" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="J21" t="s">
-        <v>370</v>
+        <v>438</v>
       </c>
       <c r="K21" t="s">
-        <v>371</v>
+        <v>434</v>
+      </c>
+      <c r="L21" t="s">
+        <v>435</v>
+      </c>
+      <c r="M21" t="s">
+        <v>436</v>
+      </c>
+      <c r="N21" t="s">
+        <v>437</v>
+      </c>
+      <c r="O21" t="s">
+        <v>441</v>
+      </c>
+      <c r="P21" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>443</v>
+      </c>
+      <c r="R21" t="s">
+        <v>439</v>
+      </c>
+      <c r="S21" t="s">
+        <v>440</v>
+      </c>
+      <c r="T21" t="s">
+        <v>444</v>
+      </c>
+      <c r="U21" t="s">
+        <v>445</v>
+      </c>
+      <c r="V21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2742,42 +3016,54 @@
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="G22" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="H22" t="s">
-        <v>358</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>359</v>
+        <v>450</v>
+      </c>
+      <c r="I22" t="s">
+        <v>451</v>
       </c>
       <c r="J22" t="s">
-        <v>362</v>
+        <v>452</v>
       </c>
       <c r="K22" t="s">
-        <v>363</v>
+        <v>453</v>
       </c>
       <c r="L22" t="s">
-        <v>360</v>
+        <v>454</v>
       </c>
       <c r="M22" t="s">
-        <v>361</v>
+        <v>455</v>
       </c>
       <c r="N22" t="s">
-        <v>364</v>
+        <v>456</v>
+      </c>
+      <c r="O22" t="s">
+        <v>455</v>
+      </c>
+      <c r="P22" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>458</v>
+      </c>
+      <c r="R22" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>344</v>
+        <v>460</v>
       </c>
       <c r="C23" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2786,42 +3072,36 @@
         <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>346</v>
+        <v>461</v>
       </c>
       <c r="G23" t="s">
-        <v>347</v>
+        <v>462</v>
       </c>
       <c r="H23" t="s">
-        <v>348</v>
+        <v>463</v>
       </c>
       <c r="I23" t="s">
-        <v>349</v>
+        <v>464</v>
       </c>
       <c r="J23" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="K23" t="s">
-        <v>351</v>
+        <v>466</v>
       </c>
       <c r="L23" t="s">
-        <v>352</v>
-      </c>
-      <c r="M23" t="s">
-        <v>353</v>
-      </c>
-      <c r="N23" t="s">
-        <v>354</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -2830,60 +3110,54 @@
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="G24" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="H24" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="I24" t="s">
-        <v>332</v>
+        <v>407</v>
       </c>
       <c r="J24" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
       <c r="K24" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="L24" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="M24" t="s">
-        <v>336</v>
+        <v>411</v>
       </c>
       <c r="N24" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="O24" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="P24" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
       <c r="Q24" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="R24" t="s">
-        <v>341</v>
-      </c>
-      <c r="S24" t="s">
-        <v>342</v>
-      </c>
-      <c r="T24" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -2892,69 +3166,54 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>311</v>
+        <v>401</v>
       </c>
       <c r="G25" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="H25" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="I25" t="s">
-        <v>313</v>
+        <v>390</v>
       </c>
       <c r="J25" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="K25" t="s">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="L25" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="M25" t="s">
-        <v>318</v>
+        <v>394</v>
       </c>
       <c r="N25" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="O25" t="s">
-        <v>250</v>
+        <v>396</v>
       </c>
       <c r="P25" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="Q25" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="R25" t="s">
-        <v>322</v>
-      </c>
-      <c r="S25" t="s">
-        <v>269</v>
-      </c>
-      <c r="T25" t="s">
-        <v>323</v>
-      </c>
-      <c r="U25" t="s">
-        <v>324</v>
-      </c>
-      <c r="V25" t="s">
-        <v>325</v>
-      </c>
-      <c r="W25" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2963,66 +3222,48 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>296</v>
+        <v>379</v>
       </c>
       <c r="G26" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="H26" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="I26" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="L26" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="M26" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="O26" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>305</v>
-      </c>
-      <c r="R26" t="s">
-        <v>306</v>
-      </c>
-      <c r="S26" t="s">
-        <v>307</v>
-      </c>
-      <c r="T26" t="s">
-        <v>308</v>
-      </c>
-      <c r="U26" t="s">
-        <v>131</v>
-      </c>
-      <c r="V26" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>372</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -3031,63 +3272,33 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>373</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>374</v>
       </c>
       <c r="H27" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="I27" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="J27" t="s">
-        <v>156</v>
+        <v>375</v>
       </c>
       <c r="K27" t="s">
-        <v>287</v>
-      </c>
-      <c r="L27" t="s">
-        <v>288</v>
-      </c>
-      <c r="M27" t="s">
-        <v>289</v>
-      </c>
-      <c r="N27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P27" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>292</v>
-      </c>
-      <c r="R27" t="s">
-        <v>293</v>
-      </c>
-      <c r="S27" t="s">
-        <v>153</v>
-      </c>
-      <c r="T27" t="s">
-        <v>294</v>
-      </c>
-      <c r="U27" t="s">
-        <v>159</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>386</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3096,48 +3307,42 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>273</v>
+        <v>385</v>
       </c>
       <c r="G28" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="H28" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="J28" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>362</v>
       </c>
       <c r="L28" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="M28" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="N28" t="s">
-        <v>282</v>
-      </c>
-      <c r="O28" t="s">
-        <v>283</v>
-      </c>
-      <c r="P28" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -3145,49 +3350,37 @@
       <c r="E29" t="s">
         <v>33</v>
       </c>
-      <c r="F29" t="s">
-        <v>274</v>
+      <c r="F29" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="G29" t="s">
-        <v>263</v>
+        <v>366</v>
       </c>
       <c r="H29" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="K29" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="L29" t="s">
-        <v>267</v>
-      </c>
-      <c r="M29" t="s">
-        <v>268</v>
-      </c>
-      <c r="N29" t="s">
-        <v>269</v>
-      </c>
-      <c r="O29" t="s">
-        <v>270</v>
-      </c>
-      <c r="P29" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -3196,63 +3389,42 @@
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="G30" t="s">
-        <v>246</v>
+        <v>347</v>
       </c>
       <c r="H30" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="K30" t="s">
-        <v>249</v>
+        <v>351</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>352</v>
       </c>
       <c r="M30" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
-      </c>
-      <c r="O30" t="s">
-        <v>253</v>
-      </c>
-      <c r="P30" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>255</v>
-      </c>
-      <c r="R30" t="s">
-        <v>256</v>
-      </c>
-      <c r="S30" t="s">
-        <v>258</v>
-      </c>
-      <c r="T30" t="s">
-        <v>259</v>
-      </c>
-      <c r="U30" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -3261,48 +3433,60 @@
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="G31" t="s">
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="H31" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="I31" t="s">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="M31" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="O31" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>339</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>340</v>
+      </c>
+      <c r="R31" t="s">
+        <v>341</v>
+      </c>
+      <c r="S31" t="s">
+        <v>342</v>
+      </c>
+      <c r="T31" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -3311,54 +3495,69 @@
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="H32" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="I32" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="J32" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="K32" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="N32" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="O32" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="Q32" t="s">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="R32" t="s">
-        <v>230</v>
+        <v>322</v>
+      </c>
+      <c r="S32" t="s">
+        <v>269</v>
+      </c>
+      <c r="T32" t="s">
+        <v>323</v>
+      </c>
+      <c r="U32" t="s">
+        <v>324</v>
+      </c>
+      <c r="V32" t="s">
+        <v>325</v>
+      </c>
+      <c r="W32" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -3367,57 +3566,66 @@
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="H33" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="I33" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="J33" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="N33" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="Q33" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="R33" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="S33" t="s">
-        <v>215</v>
+        <v>307</v>
+      </c>
+      <c r="T33" t="s">
+        <v>308</v>
+      </c>
+      <c r="U33" t="s">
+        <v>131</v>
+      </c>
+      <c r="V33" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -3426,54 +3634,63 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="H34" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="I34" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="K34" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="Q34" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="R34" t="s">
-        <v>199</v>
+        <v>293</v>
+      </c>
+      <c r="S34" t="s">
+        <v>153</v>
+      </c>
+      <c r="T34" t="s">
+        <v>294</v>
+      </c>
+      <c r="U34" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -3482,57 +3699,48 @@
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="H35" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="I35" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="J35" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="N35" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>182</v>
-      </c>
-      <c r="R35" t="s">
-        <v>183</v>
-      </c>
-      <c r="S35" t="s">
-        <v>184</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -3541,72 +3749,48 @@
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="H36" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s">
-        <v>97</v>
+        <v>268</v>
       </c>
       <c r="N36" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>102</v>
-      </c>
-      <c r="R36" t="s">
-        <v>103</v>
-      </c>
-      <c r="S36" t="s">
-        <v>169</v>
-      </c>
-      <c r="T36" t="s">
-        <v>170</v>
-      </c>
-      <c r="U36" t="s">
-        <v>105</v>
-      </c>
-      <c r="V36" t="s">
-        <v>106</v>
-      </c>
-      <c r="W36" t="s">
-        <v>107</v>
-      </c>
-      <c r="X36" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
@@ -3615,66 +3799,63 @@
         <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="H37" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="I37" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="J37" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="K37" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="N37" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="O37" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="Q37" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="R37" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="S37" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="T37" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="U37" t="s">
-        <v>159</v>
-      </c>
-      <c r="V37" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
@@ -3683,57 +3864,48 @@
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="G38" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="I38" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="J38" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="K38" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="M38" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="N38" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="O38" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>139</v>
-      </c>
-      <c r="R38" t="s">
-        <v>140</v>
-      </c>
-      <c r="S38" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
@@ -3742,63 +3914,54 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="I39" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="M39" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="N39" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="O39" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="P39" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="Q39" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="R39" t="s">
-        <v>125</v>
-      </c>
-      <c r="S39" t="s">
-        <v>120</v>
-      </c>
-      <c r="T39" t="s">
-        <v>121</v>
-      </c>
-      <c r="U39" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
@@ -3807,69 +3970,57 @@
         <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="K40" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="M40" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="N40" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="O40" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="P40" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="Q40" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="R40" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="S40" t="s">
-        <v>104</v>
-      </c>
-      <c r="T40" t="s">
-        <v>105</v>
-      </c>
-      <c r="U40" t="s">
-        <v>106</v>
-      </c>
-      <c r="V40" t="s">
-        <v>107</v>
-      </c>
-      <c r="W40" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
@@ -3878,42 +4029,54 @@
         <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="K41" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="M41" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="N41" t="s">
-        <v>50</v>
+        <v>194</v>
+      </c>
+      <c r="O41" t="s">
+        <v>196</v>
+      </c>
+      <c r="P41" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>198</v>
+      </c>
+      <c r="R41" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
         <v>33</v>
@@ -3922,69 +4085,57 @@
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="I42" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J42" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K42" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="M42" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="N42" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="P42" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="Q42" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="R42" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="S42" t="s">
-        <v>85</v>
-      </c>
-      <c r="T42" t="s">
-        <v>86</v>
-      </c>
-      <c r="U42" t="s">
-        <v>87</v>
-      </c>
-      <c r="V42" t="s">
-        <v>88</v>
-      </c>
-      <c r="W42" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
@@ -3993,54 +4144,72 @@
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="I43" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="J43" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="M43" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="N43" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="O43" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="P43" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="Q43" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="R43" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="S43" t="s">
+        <v>169</v>
+      </c>
+      <c r="T43" t="s">
+        <v>170</v>
+      </c>
+      <c r="U43" t="s">
+        <v>105</v>
+      </c>
+      <c r="V43" t="s">
+        <v>106</v>
+      </c>
+      <c r="W43" t="s">
+        <v>107</v>
+      </c>
+      <c r="X43" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
@@ -4049,107 +4218,538 @@
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="K44" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="M44" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="N44" t="s">
-        <v>50</v>
+        <v>152</v>
+      </c>
+      <c r="O44" t="s">
+        <v>153</v>
+      </c>
+      <c r="P44" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>155</v>
+      </c>
+      <c r="R44" t="s">
+        <v>156</v>
+      </c>
+      <c r="S44" t="s">
+        <v>157</v>
+      </c>
+      <c r="T44" t="s">
+        <v>158</v>
+      </c>
+      <c r="U44" t="s">
+        <v>159</v>
+      </c>
+      <c r="V44" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" t="s">
+        <v>133</v>
+      </c>
+      <c r="L45" t="s">
+        <v>134</v>
+      </c>
+      <c r="M45" t="s">
+        <v>136</v>
+      </c>
+      <c r="N45" t="s">
+        <v>135</v>
+      </c>
+      <c r="O45" t="s">
+        <v>137</v>
+      </c>
+      <c r="P45" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>139</v>
+      </c>
+      <c r="R45" t="s">
+        <v>140</v>
+      </c>
+      <c r="S45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" t="s">
+        <v>114</v>
+      </c>
+      <c r="J46" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" t="s">
+        <v>116</v>
+      </c>
+      <c r="M46" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" t="s">
+        <v>118</v>
+      </c>
+      <c r="O46" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>123</v>
+      </c>
+      <c r="R46" t="s">
+        <v>125</v>
+      </c>
+      <c r="S46" t="s">
+        <v>120</v>
+      </c>
+      <c r="T46" t="s">
+        <v>121</v>
+      </c>
+      <c r="U46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" t="s">
+        <v>94</v>
+      </c>
+      <c r="J47" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" t="s">
+        <v>96</v>
+      </c>
+      <c r="L47" t="s">
+        <v>97</v>
+      </c>
+      <c r="M47" t="s">
+        <v>98</v>
+      </c>
+      <c r="N47" t="s">
+        <v>99</v>
+      </c>
+      <c r="O47" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>102</v>
+      </c>
+      <c r="R47" t="s">
+        <v>103</v>
+      </c>
+      <c r="S47" t="s">
+        <v>104</v>
+      </c>
+      <c r="T47" t="s">
+        <v>105</v>
+      </c>
+      <c r="U47" t="s">
+        <v>106</v>
+      </c>
+      <c r="V47" t="s">
+        <v>107</v>
+      </c>
+      <c r="W47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M48" t="s">
+        <v>49</v>
+      </c>
+      <c r="N48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" t="s">
+        <v>78</v>
+      </c>
+      <c r="M49" t="s">
+        <v>79</v>
+      </c>
+      <c r="N49" t="s">
+        <v>80</v>
+      </c>
+      <c r="O49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P49" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>83</v>
+      </c>
+      <c r="R49" t="s">
+        <v>84</v>
+      </c>
+      <c r="S49" t="s">
+        <v>85</v>
+      </c>
+      <c r="T49" t="s">
+        <v>86</v>
+      </c>
+      <c r="U49" t="s">
+        <v>87</v>
+      </c>
+      <c r="V49" t="s">
+        <v>88</v>
+      </c>
+      <c r="W49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" t="s">
+        <v>35</v>
+      </c>
+      <c r="N50" t="s">
+        <v>36</v>
+      </c>
+      <c r="O50" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" t="s">
+        <v>48</v>
+      </c>
+      <c r="M51" t="s">
+        <v>49</v>
+      </c>
+      <c r="N51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C52" t="s">
         <v>52</v>
       </c>
-      <c r="D45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" t="s">
         <v>55</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G52" t="s">
         <v>54</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H52" t="s">
         <v>53</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I52" t="s">
         <v>56</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J52" t="s">
         <v>57</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K52" t="s">
         <v>58</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L52" t="s">
         <v>59</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M52" t="s">
         <v>60</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N52" t="s">
         <v>61</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O52" t="s">
         <v>62</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P52" t="s">
         <v>63</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q52" t="s">
         <v>64</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R52" t="s">
         <v>65</v>
       </c>
-      <c r="S45" t="s">
+      <c r="S52" t="s">
         <v>66</v>
       </c>
-      <c r="T45" t="s">
+      <c r="T52" t="s">
         <v>67</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U52" t="s">
         <v>68</v>
       </c>
-      <c r="V45" t="s">
+      <c r="V52" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I22" r:id="rId1" display="https://maps.google.com/maps?q=28.4774068%2C77.5036163&amp;z=17&amp;hl=en"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
